--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="901">
   <si>
     <t>Person-ID</t>
   </si>
@@ -1999,6 +1999,12 @@
     <t>person_193</t>
   </si>
   <si>
+    <t>Hans Wilhelm</t>
+  </si>
+  <si>
+    <t>1037530217</t>
+  </si>
+  <si>
     <t>person_194</t>
   </si>
   <si>
@@ -2012,9 +2018,6 @@
   </si>
   <si>
     <t>Namensvariante</t>
-  </si>
-  <si>
-    <t>Geonames</t>
   </si>
   <si>
     <t>place_001</t>
@@ -3111,15 +3114,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G62" displayName="Orteindex" name="Orteindex" id="2">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F62" displayName="Orteindex" name="Orteindex" id="2">
+  <tableColumns count="6">
     <tableColumn name="Ort-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
     <tableColumn name="Name" id="3"/>
     <tableColumn name="Namensvariante" id="4"/>
-    <tableColumn name="Geonames" id="5"/>
-    <tableColumn name="Kategorie" id="6"/>
-    <tableColumn name="Bemerkungen" id="7"/>
+    <tableColumn name="Kategorie" id="5"/>
+    <tableColumn name="Bemerkungen" id="6"/>
   </tableColumns>
   <tableStyleInfo name="Orte-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -8094,7 +8096,9 @@
       <c r="H183" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="I183" s="13"/>
+      <c r="I183" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
     </row>
@@ -8222,13 +8226,19 @@
       </c>
       <c r="B189" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="3"/>
+        <v>Simler, Hans Wilhelm (-)</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="E189" s="15"/>
       <c r="F189" s="16"/>
-      <c r="G189" s="8"/>
+      <c r="G189" s="3" t="s">
+        <v>641</v>
+      </c>
       <c r="H189" s="3"/>
       <c r="I189" s="13"/>
       <c r="J189" s="8"/>
@@ -8236,7 +8246,7 @@
     </row>
     <row r="190" ht="22.5" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8254,7 +8264,7 @@
     </row>
     <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8319,1071 +8329,1006 @@
     <col customWidth="1" min="2" max="2" width="30.63"/>
     <col customWidth="1" min="3" max="3" width="23.13"/>
     <col customWidth="1" min="4" max="4" width="17.75"/>
-    <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="22.25"/>
-    <col customWidth="1" min="7" max="7" width="25.13"/>
+    <col customWidth="1" min="5" max="5" width="22.25"/>
+    <col customWidth="1" min="6" max="6" width="25.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>645</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2:B62" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>2657896.0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G2" s="8"/>
+      <c r="E2" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Basel</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B3" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Basel</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="3" t="s">
-        <v>653</v>
+      <c r="E4" s="18"/>
+      <c r="F4" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>657</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3" t="s">
-        <v>666</v>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>679</v>
+      <c r="E15" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>683</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>688</v>
+      <c r="E18" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="3" t="s">
-        <v>691</v>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>696</v>
+      <c r="E21" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B23" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>701</v>
+      <c r="E23" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B25" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="3" t="s">
-        <v>706</v>
+      <c r="E25" s="13"/>
+      <c r="F25" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B26" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="3" t="s">
-        <v>709</v>
+      <c r="E26" s="13"/>
+      <c r="F26" s="3" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B27" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="3" t="s">
-        <v>712</v>
+      <c r="E27" s="13"/>
+      <c r="F27" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B28" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>715</v>
+      <c r="E28" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B29" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B30" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="3" t="s">
-        <v>720</v>
+      <c r="E30" s="13"/>
+      <c r="F30" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B31" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>723</v>
+      <c r="E31" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B32" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="3" t="s">
-        <v>726</v>
+      <c r="E32" s="13"/>
+      <c r="F32" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B33" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="3" t="s">
-        <v>729</v>
+      <c r="E33" s="13"/>
+      <c r="F33" s="3" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B34" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="3" t="s">
-        <v>732</v>
+      <c r="E34" s="13"/>
+      <c r="F34" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B35" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="3"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="3"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="3"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B40" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="3"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B41" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="3" t="s">
-        <v>747</v>
+      <c r="E41" s="13"/>
+      <c r="F41" s="3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B42" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="3" t="s">
-        <v>750</v>
+      <c r="E42" s="13"/>
+      <c r="F42" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B43" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="3"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B44" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="7" t="s">
         <v>657</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B45" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="3" t="s">
-        <v>757</v>
+      <c r="E45" s="13"/>
+      <c r="F45" s="3" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B46" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="3"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B47" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="3" t="s">
-        <v>762</v>
+      <c r="E47" s="13"/>
+      <c r="F47" s="3" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B48" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="3" t="s">
-        <v>765</v>
+      <c r="E48" s="13"/>
+      <c r="F48" s="3" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B49" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="3" t="s">
-        <v>768</v>
+      <c r="E49" s="13"/>
+      <c r="F49" s="3" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B50" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>771</v>
+      <c r="E50" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B51" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="3" t="s">
-        <v>774</v>
+      <c r="E51" s="13"/>
+      <c r="F51" s="3" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B52" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="3"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B53" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="3"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B54" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B55" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="3"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B56" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="3"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B57" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="3" t="s">
-        <v>787</v>
+      <c r="E57" s="13"/>
+      <c r="F57" s="3" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B58" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="3"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B59" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="3" t="s">
-        <v>792</v>
+      <c r="E59" s="13"/>
+      <c r="F59" s="3" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B60" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B61" s="20" t="str">
         <f t="shared" si="1"/>
@@ -9391,13 +9336,12 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="3"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B62" s="20" t="str">
         <f t="shared" si="1"/>
@@ -9405,16 +9349,15 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="3"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="3"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F62">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E62">
       <formula1>"Stadt,Gewässer,Berg"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A62 C2:C62 G2:G62"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A62 C2:C62 F2:F62"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -9449,25 +9392,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -9478,64 +9421,64 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B2" s="22" t="str">
         <f t="shared" ref="B2:B20" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B3" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="23"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>588</v>
@@ -9548,17 +9491,17 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Psalm-Reimen und Melodien</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="21"/>
@@ -9568,17 +9511,17 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>hundert Christliche/ neüaußgegebene Festpredigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="21"/>
@@ -9588,17 +9531,17 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="21"/>
@@ -9608,17 +9551,17 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="21"/>
@@ -9628,17 +9571,17 @@
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="21"/>
@@ -9648,17 +9591,17 @@
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="21"/>
@@ -9668,17 +9611,17 @@
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="21"/>
@@ -9688,14 +9631,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="8"/>
@@ -9706,17 +9649,17 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="21"/>
@@ -9726,14 +9669,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="8"/>
@@ -9744,14 +9687,14 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="8"/>
@@ -9762,7 +9705,7 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9778,7 +9721,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9794,7 +9737,7 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9810,7 +9753,7 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9826,7 +9769,7 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9876,19 +9819,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -9896,69 +9839,69 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2" s="22" t="str">
         <f t="shared" ref="B2:B14" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B3" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Deutschgesinnte Genossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -9966,96 +9909,96 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10068,7 +10011,7 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10081,7 +10024,7 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10094,7 +10037,7 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10141,19 +10084,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -10161,26 +10104,26 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B3" s="19" t="str">
         <f t="shared" si="1"/>
@@ -10193,7 +10136,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -10206,7 +10149,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B5" s="19" t="str">
         <f t="shared" si="1"/>
@@ -10219,7 +10162,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B6" s="19" t="str">
         <f t="shared" si="1"/>
@@ -10232,7 +10175,7 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B7" s="19" t="str">
         <f t="shared" si="1"/>
@@ -10245,7 +10188,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B8" s="19" t="str">
         <f t="shared" si="1"/>

--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Personen" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Orte" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Werke" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Institutionen" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Helvetismen" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Personen" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Orte" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Werke" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Institutionen" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Helvetismen" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Personen!$A$1:$K$191</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="931">
   <si>
     <t>Person-ID</t>
   </si>
@@ -64,10 +64,13 @@
     <t>119151693</t>
   </si>
   <si>
-    <t>Reformierter Theologe und Dichter</t>
+    <t>Schweizer Dichter und reformierter Theologe</t>
   </si>
   <si>
     <t>Historische Person</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/012297/2011-06-08/</t>
   </si>
   <si>
     <t>person_002</t>
@@ -2470,7 +2473,94 @@
     <t>place_060</t>
   </si>
   <si>
+    <t>Stein am Rhein</t>
+  </si>
+  <si>
+    <t>Stadt in der Schweiz</t>
+  </si>
+  <si>
     <t>place_061</t>
+  </si>
+  <si>
+    <t>Marburg</t>
+  </si>
+  <si>
+    <t>Stadt in Deutschland</t>
+  </si>
+  <si>
+    <t>place_062</t>
+  </si>
+  <si>
+    <t>Elbląg</t>
+  </si>
+  <si>
+    <t>Elbing</t>
+  </si>
+  <si>
+    <t>Stadt in Preußen (heute Polen)</t>
+  </si>
+  <si>
+    <t>place_063</t>
+  </si>
+  <si>
+    <t>Preußen</t>
+  </si>
+  <si>
+    <t>Historische Region und Staat in Europa</t>
+  </si>
+  <si>
+    <t>place_064</t>
+  </si>
+  <si>
+    <t>Bad Baden</t>
+  </si>
+  <si>
+    <t>Heilbad in der Schweiz</t>
+  </si>
+  <si>
+    <t>place_065</t>
+  </si>
+  <si>
+    <t>Bad Schinznach</t>
+  </si>
+  <si>
+    <t>place_066</t>
+  </si>
+  <si>
+    <t>Gyrenbad</t>
+  </si>
+  <si>
+    <t>place_067</t>
+  </si>
+  <si>
+    <t>Wängibad</t>
+  </si>
+  <si>
+    <t>https://search.ortsnamen.ch/de/record/7001562/</t>
+  </si>
+  <si>
+    <t>place_068</t>
+  </si>
+  <si>
+    <t>Aeugst</t>
+  </si>
+  <si>
+    <t>place_069</t>
+  </si>
+  <si>
+    <t>place_070</t>
+  </si>
+  <si>
+    <t>place_071</t>
+  </si>
+  <si>
+    <t>place_072</t>
+  </si>
+  <si>
+    <t>place_073</t>
+  </si>
+  <si>
+    <t>place_074</t>
   </si>
   <si>
     <t>Werk-ID</t>
@@ -2885,19 +2975,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3093,6 +3183,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K191" displayName="Personenindex" name="Personenindex" id="1">
   <autoFilter ref="$A$1:$K$191"/>
@@ -3114,7 +3208,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F62" displayName="Orteindex" name="Orteindex" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F82" displayName="Orteindex" name="Orteindex" id="2">
   <tableColumns count="6">
     <tableColumn name="Ort-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3455,22 +3549,24 @@
       <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Opitz, Martin (1597-1639)</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
         <v>1597.0</v>
@@ -3479,30 +3575,30 @@
         <v>1639.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Buol, Meinrad von (1588-1658)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
         <v>1588.0</v>
@@ -3511,30 +3607,30 @@
         <v>1658.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bodmer, Johann Jakob (1617-1676)</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <v>1617.0</v>
@@ -3543,30 +3639,30 @@
         <v>1676.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Escher, Heinrich (1626-1710)</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5">
         <v>1626.0</v>
@@ -3575,242 +3671,242 @@
         <v>1710.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hottinger, Johann Heinrich (-)</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Landolt, Mathias (-)</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Meyer, Conrad (1618-1689)</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Müller, Georg (1610-1672)</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rahn, Hans Heinrich (-)</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schultheiss, Hans Heinrich (1594-1652)</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schwilge, Andreas (1608-1688)</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wyss, Felix (1596-1666)</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5">
         <v>1596.0</v>
@@ -3819,172 +3915,172 @@
         <v>1666.0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="8"/>
+      <c r="J14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Leuen/Lewe/Leu, Hans Jacob (-)</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Berger, Hans (-)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Müller, Hans Heinrich (-)</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="8"/>
+      <c r="J17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wirzius / Irzius, Johann (-)</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hofmeisterus, Johann Rodolphus (-)</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="8"/>
+      <c r="J19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Redinger, Johann Jakob (1619-1688)</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5">
         <v>1619.0</v>
@@ -3993,58 +4089,58 @@
         <v>1688.0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="8"/>
+      <c r="J20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Blassius, Johannes (-)</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rhagorius, Daniel (1577-1648)</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5">
         <v>1577.0</v>
@@ -4053,70 +4149,70 @@
         <v>1648.0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Suizerus, Johann Casparus (-)</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Falk von Traubenberg, Ehrenhold (-)</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4126,33 +4222,33 @@
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bärholz, Daniel (1641-1688)</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="5">
         <v>1641.0</v>
@@ -4161,106 +4257,106 @@
         <v>1688.0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Veirassius,  (-)</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vergil,  (70 v. Chr.-19 v. Chr.)</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Buchner,  (-)</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Venator, Balthasar (1594-1664)</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E30" s="5">
         <v>1594.0</v>
@@ -4269,54 +4365,54 @@
         <v>1664.0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Nüßler,  (-)</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Weckherlin, Georg Rudolf (1584-1653)</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="5">
         <v>1584.0</v>
@@ -4325,54 +4421,54 @@
         <v>1653.0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hübner,  (-)</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bartas, Guillaume de Saluste Du  (1544-1590)</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34" s="5">
         <v>1544.0</v>
@@ -4381,82 +4477,82 @@
         <v>1590.0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gamon,  (-)</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Werder,  (-)</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lund, Zacharias (1608-1667)</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E37" s="5">
         <v>1608.0</v>
@@ -4465,30 +4561,30 @@
         <v>1667.0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rist, Johann (1607-1667)</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E38" s="5">
         <v>1607.0</v>
@@ -4497,2262 +4593,2262 @@
         <v>1667.0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Staffen, Johann Jacob (-)</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amman, Hans Ulrich  (-)</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Venus,  (-)</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kupid,  (-)</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Xerxes,  (-)</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Paulus von Tarsus,  (-)</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Phöbus,  (-)</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neidhart,  (-)</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grimmefol,  (-)</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pegasus,  (-)</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>David,  (-)</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fama,  (-)</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tasso,  (-)</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Saul,  (-)</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abschalom,  (-)</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I53" s="13"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abimelechs,  (-)</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abraham,  (-)</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Aron,  (-)</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asaph,  (-)</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Doëg,  (-)</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H58" s="8"/>
+        <v>244</v>
+      </c>
+      <c r="H58" s="9"/>
       <c r="I58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ezechias,  (-)</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob ("Israel"),  (-)</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Adam,  (-)</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Eva,  (-)</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Barrabas,  (-)</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kajaphas,  (-)</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Judas,  (-)</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="8"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel,  (-)</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Herodes,  (-)</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Maria Magdalena,  (-)</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="8"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Nikodemus,  (-)</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pilatus,  (-)</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Titus,  (-)</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon Petrus,  (-)</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Johannes,  (-)</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="8"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jonas,  (-)</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="8"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Joseph,  (-)</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="8"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Saul, dessen Sohn,  (-)</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="8"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Satan,  (-)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="8"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abigail,  (-)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="8"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hanna,  (-)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="8"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Susanna,  (-)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther,  (-)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="8"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jaël,  (-)</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="8"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tobias,  (-)</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="8"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asarias,  (-)</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="8"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Boreas,  (-)</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ceres,  (-)</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amor,  (-)</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sokrates,  (-)</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I89" s="13"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Xantippe,  (-)</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I90" s="13"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mars,  (-)</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Apollo (Phoebus),  (-)</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sirius,  (-)</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="8"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rebecca,  (-)</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="8"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asteria,  (-)</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="8"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sylvia,  (-)</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="8"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I96" s="13"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Felicitas,  (-)</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="8"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I97" s="13"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="8"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I98" s="13"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Johannes,  (-)</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="8"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I99" s="13"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sara,  (-)</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="8"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hesiodus,  (-)</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I101" s="13"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" ht="22.5" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Parmenides,  (-)</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
     </row>
     <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salomon,  (-)</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Isaak,  (-)</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rahel,  (-)</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="8"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hiob,  (-)</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simson,  (-)</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="8"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ben Sira,  (-)</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="8"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I108" s="13"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wilhelm Tell,  (-)</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zephyr,  (-)</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Matthias,  (-)</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="8"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Friedensfürst,  (-)</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="8"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I112" s="13"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus,  (-)</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="8"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I113" s="13"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
     </row>
     <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus, dessen Frau,  (-)</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="8"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I114" s="13"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Moses,  (-)</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Orestes,  (-)</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pylades,  (-)</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="8"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thurik,  (-)</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="8"/>
+      <c r="G118" s="9"/>
       <c r="H118" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Midas,  (-)</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="8"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon,  (-)</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="8"/>
+      <c r="G120" s="9"/>
       <c r="H120" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Damokles,  (-)</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I121" s="13"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
     </row>
     <row r="122" ht="22.5" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dionysius I. von Syrakus,  (-)</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I122" s="13"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
     </row>
     <row r="123" ht="22.5" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kleopatra VII.,  (-)</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I123" s="13"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
     </row>
     <row r="124" ht="22.5" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Marcus Antonius,  (-)</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I124" s="13"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
     </row>
     <row r="125" ht="22.5" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Klio,  (-)</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Flora,  (-)</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="8"/>
+      <c r="G127" s="9"/>
       <c r="H127" s="3"/>
       <c r="I127" s="13"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
     </row>
     <row r="128" ht="22.5" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V.,  (-)</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="8"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
     </row>
     <row r="129" ht="22.5" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V., dessen Frau,  (-)</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="8"/>
+      <c r="G129" s="9"/>
       <c r="H129" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
     </row>
     <row r="130" ht="22.5" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sch. H.,  (-)</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="8"/>
+      <c r="G130" s="9"/>
       <c r="H130" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" ht="22.5" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B131" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser, Johann Heinrich (1600-1669)</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E131" s="5">
         <v>1600.0</v>
@@ -6761,156 +6857,156 @@
         <v>1669.0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="K131" s="8"/>
+        <v>462</v>
+      </c>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B132" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser-Ziegler, Jahel (-)</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="8"/>
+      <c r="G132" s="9"/>
       <c r="H132" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J132" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="K132" s="8"/>
+      <c r="J132" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B133" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Caspar W.,  (-)</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B134" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther O.,  (-)</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="8"/>
+      <c r="G134" s="9"/>
       <c r="H134" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B135" s="4" t="str">
         <f t="shared" si="1"/>
         <v>G. H.,  (-)</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="8"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="3"/>
       <c r="I135" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" ht="22.5" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B136" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. C.,  (-)</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="8"/>
+      <c r="G136" s="9"/>
       <c r="H136" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
     </row>
     <row r="137" ht="22.5" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B137" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Hercules von (1617-1686)</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E137" s="5">
         <v>1617.0</v>
@@ -6918,29 +7014,29 @@
       <c r="F137" s="5">
         <v>1686.0</v>
       </c>
-      <c r="G137" s="8"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="3"/>
       <c r="I137" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J137" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="K137" s="8"/>
+      <c r="J137" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="K137" s="9"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B138" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Barbara Dorothea von (1629-1660)</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E138" s="5">
         <v>1629.0</v>
@@ -6948,467 +7044,467 @@
       <c r="F138" s="5">
         <v>1660.0</v>
       </c>
-      <c r="G138" s="8"/>
+      <c r="G138" s="9"/>
       <c r="H138" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="K138" s="8"/>
+      <c r="J138" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="K138" s="9"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B139" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. L.,  (-)</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="8"/>
+      <c r="G139" s="9"/>
       <c r="H139" s="3"/>
       <c r="I139" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
     </row>
     <row r="140" ht="22.5" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B140" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. A.,  (-)</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="8"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
     </row>
     <row r="141" ht="22.5" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B141" s="4" t="str">
         <f t="shared" si="1"/>
         <v>B. M.,  (-)</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="8"/>
+      <c r="G141" s="9"/>
       <c r="H141" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
     </row>
     <row r="142" ht="22.5" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B142" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. H.,  (-)</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="8"/>
+      <c r="G142" s="9"/>
       <c r="H142" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J142" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="K142" s="8"/>
+      <c r="J142" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="K142" s="9"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B143" s="4" t="str">
         <f t="shared" si="1"/>
         <v>D. M.,  (-)</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="8"/>
+      <c r="G143" s="9"/>
       <c r="H143" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J143" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="K143" s="8"/>
+      <c r="J143" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K143" s="9"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B144" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gottfrid,  (-)</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="8"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
     </row>
     <row r="145" ht="22.5" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="8"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
     </row>
     <row r="146" ht="22.5" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B146" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. Schw.,  (-)</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="8"/>
+      <c r="G146" s="9"/>
       <c r="H146" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
     </row>
     <row r="147" ht="22.5" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B147" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. K.,  (-)</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="8"/>
+      <c r="G147" s="9"/>
       <c r="H147" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
     </row>
     <row r="148" ht="22.5" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B148" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ott, Hans Heinrich (-)</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="8"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="3"/>
       <c r="I148" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
     </row>
     <row r="149" ht="22.5" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B149" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. W.,  (-)</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="8"/>
+      <c r="G149" s="9"/>
       <c r="H149" s="3"/>
       <c r="I149" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
     </row>
     <row r="150" ht="22.5" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B150" s="4" t="str">
         <f t="shared" si="1"/>
         <v>V. L.,  (-)</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="8"/>
+      <c r="G150" s="9"/>
       <c r="H150" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
     </row>
     <row r="151" ht="22.5" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B151" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. Sch.,  (-)</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="8"/>
+      <c r="G151" s="9"/>
       <c r="H151" s="3"/>
       <c r="I151" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
     </row>
     <row r="152" ht="22.5" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B152" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. H.,  (-)</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="8"/>
+      <c r="G152" s="9"/>
       <c r="H152" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
     </row>
     <row r="153" ht="22.5" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B153" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. H.,  (-)</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="8"/>
+      <c r="G153" s="9"/>
       <c r="H153" s="3"/>
       <c r="I153" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J153" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="K153" s="8"/>
+      <c r="J153" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="K153" s="9"/>
     </row>
     <row r="154" ht="22.5" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B154" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. W.,  (-)</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="8"/>
+      <c r="G154" s="9"/>
       <c r="H154" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J154" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="K154" s="8"/>
+      <c r="J154" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="K154" s="9"/>
     </row>
     <row r="155" ht="22.5" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B155" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wht. H. B. H. H. R.,  (-)</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="8"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I155" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
     </row>
     <row r="156" ht="22.5" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B156" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Koller, Elisabeth (-)</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="8"/>
+      <c r="G156" s="9"/>
       <c r="H156" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J156" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K156" s="8"/>
+      <c r="J156" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K156" s="9"/>
     </row>
     <row r="157" ht="22.5" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B157" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lobwasser, Ambrosius (1515-1585)</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E157" s="5">
         <v>1515.0</v>
@@ -7417,56 +7513,56 @@
         <v>1585.0</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I157" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
     </row>
     <row r="158" ht="22.5" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B158" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vollenweider, Jakob (-)</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
     </row>
     <row r="159" ht="22.5" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B159" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amman, Johann Ludwig (1606-1660)</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E159" s="5">
         <v>1606.0</v>
@@ -7475,56 +7571,56 @@
         <v>1660.0</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I159" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
     </row>
     <row r="160" ht="22.5" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B160" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Burkharten, Kuenraht (-)</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="8"/>
+      <c r="G160" s="9"/>
       <c r="H160" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I160" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
     </row>
     <row r="161" ht="22.5" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B161" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ardüser, Johann (1585-1665)</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E161" s="5">
         <v>1585.0</v>
@@ -7533,230 +7629,230 @@
         <v>1665.0</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
     </row>
     <row r="162" ht="22.5" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B162" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hegner, Diethelm  (-)</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I162" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
     </row>
     <row r="163" ht="22.5" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B163" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Trigland, Jacobus (-)</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
     </row>
     <row r="164" ht="22.5" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B164" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zwinger, D. (-)</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="8"/>
+      <c r="G164" s="9"/>
       <c r="H164" s="3"/>
       <c r="I164" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
     </row>
     <row r="165" ht="22.5" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B165" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Genathen, Johann Jakob (-)</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I165" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
     </row>
     <row r="166" ht="22.5" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B166" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Escher, Hans (-1659)</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
         <v>1659.0</v>
       </c>
-      <c r="G166" s="8"/>
+      <c r="G166" s="9"/>
       <c r="H166" s="3"/>
       <c r="I166" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
     </row>
     <row r="167" ht="22.5" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B167" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hess, Caspar (-1631)</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5">
         <v>1631.0</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I167" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
     </row>
     <row r="168" ht="22.5" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B168" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wolfen, Hans Jakob (-)</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="16"/>
-      <c r="G168" s="8"/>
+      <c r="G168" s="9"/>
       <c r="H168" s="3"/>
       <c r="I168" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
     </row>
     <row r="169" ht="22.5" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B169" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Spöri, Felix Christian (-)</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="16"/>
       <c r="G169" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
     </row>
     <row r="170" ht="22.5" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B170" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7766,463 +7862,463 @@
         <v>12</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="5">
         <v>1654.0</v>
       </c>
-      <c r="G170" s="8"/>
+      <c r="G170" s="9"/>
       <c r="H170" s="3"/>
       <c r="I170" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
     </row>
     <row r="171" ht="22.5" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B171" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gwalther,  (-)</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="15"/>
       <c r="F171" s="16"/>
-      <c r="G171" s="8"/>
+      <c r="G171" s="9"/>
       <c r="H171" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
     </row>
     <row r="172" ht="22.5" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B172" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Weiss, Caspar (-)</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E172" s="15"/>
       <c r="F172" s="16"/>
-      <c r="G172" s="8"/>
+      <c r="G172" s="9"/>
       <c r="H172" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
     </row>
     <row r="173" ht="22.5" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B173" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Müller,  (-)</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="15"/>
       <c r="F173" s="16"/>
-      <c r="G173" s="8"/>
+      <c r="G173" s="9"/>
       <c r="H173" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I173" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
     </row>
     <row r="174" ht="22.5" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B174" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bas,  (-)</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="15"/>
       <c r="F174" s="16"/>
-      <c r="G174" s="8"/>
+      <c r="G174" s="9"/>
       <c r="H174" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I174" s="18"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
     </row>
     <row r="175" ht="22.5" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B175" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H.H.J. Gw. s. A.Z.Fr.M.,  (-)</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="15"/>
       <c r="F175" s="16"/>
-      <c r="G175" s="8"/>
+      <c r="G175" s="9"/>
       <c r="H175" s="3"/>
       <c r="I175" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
     </row>
     <row r="176" ht="22.5" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B176" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hofm., Joh. (-)</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E176" s="15"/>
       <c r="F176" s="16"/>
-      <c r="G176" s="8"/>
+      <c r="G176" s="9"/>
       <c r="H176" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I176" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
     </row>
     <row r="177" ht="22.5" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B177" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon von Cyrene,  (-)</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="15"/>
       <c r="F177" s="16"/>
       <c r="G177" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
     </row>
     <row r="178" ht="22.5" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B178" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thomas,  (-)</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="15"/>
       <c r="F178" s="16"/>
       <c r="G178" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
     </row>
     <row r="179" ht="22.5" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B179" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Phaeton,  (-)</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="15"/>
       <c r="F179" s="16"/>
       <c r="G179" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
     </row>
     <row r="180" ht="22.5" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B180" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lukas,  (-)</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="15"/>
       <c r="F180" s="16"/>
-      <c r="G180" s="8"/>
+      <c r="G180" s="9"/>
       <c r="H180" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I180" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
     </row>
     <row r="181" ht="22.5" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B181" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pallas Athena,  (-)</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="15"/>
       <c r="F181" s="16"/>
       <c r="G181" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
     </row>
     <row r="182" ht="22.5" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B182" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bacchus,  (-)</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="15"/>
       <c r="F182" s="16"/>
       <c r="G182" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
     </row>
     <row r="183" ht="22.5" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B183" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Darius,  (-)</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="15"/>
       <c r="F183" s="16"/>
-      <c r="G183" s="8"/>
+      <c r="G183" s="9"/>
       <c r="H183" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I183" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
     </row>
     <row r="184" ht="22.5" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B184" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kyros,  (-)</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="15"/>
       <c r="F184" s="16"/>
-      <c r="G184" s="8"/>
+      <c r="G184" s="9"/>
       <c r="H184" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
     </row>
     <row r="185" ht="22.5" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B185" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Augustinus von Hippo,  (-)</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="15"/>
       <c r="F185" s="16"/>
       <c r="G185" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
     </row>
     <row r="186" ht="22.5" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B186" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lazarus,  (-)</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="15"/>
       <c r="F186" s="16"/>
-      <c r="G186" s="8"/>
+      <c r="G186" s="9"/>
       <c r="H186" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
     </row>
     <row r="187" ht="22.5" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B187" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lot,  (-)</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="15"/>
       <c r="F187" s="16"/>
-      <c r="G187" s="8"/>
+      <c r="G187" s="9"/>
       <c r="H187" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I187" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
     </row>
     <row r="188" ht="22.5" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B188" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hans Rudolf,  (-)</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="15"/>
       <c r="F188" s="16"/>
-      <c r="G188" s="8"/>
+      <c r="G188" s="9"/>
       <c r="H188" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I188" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
     </row>
     <row r="189" ht="22.5" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B189" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8232,21 +8328,21 @@
         <v>12</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="16"/>
       <c r="G189" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
     </row>
     <row r="190" ht="22.5" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8256,15 +8352,15 @@
       <c r="D190" s="3"/>
       <c r="E190" s="15"/>
       <c r="F190" s="16"/>
-      <c r="G190" s="8"/>
+      <c r="G190" s="9"/>
       <c r="H190" s="3"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
     </row>
     <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8274,11 +8370,11 @@
       <c r="D191" s="3"/>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
-      <c r="G191" s="8"/>
+      <c r="G191" s="9"/>
       <c r="H191" s="3"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -8290,24 +8386,25 @@
     <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B191 D2:D191 G2:G191"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J9"/>
-    <hyperlink r:id="rId2" ref="J10"/>
-    <hyperlink r:id="rId3" ref="J17"/>
-    <hyperlink r:id="rId4" ref="J19"/>
-    <hyperlink r:id="rId5" ref="J20"/>
-    <hyperlink r:id="rId6" ref="J131"/>
-    <hyperlink r:id="rId7" ref="J132"/>
-    <hyperlink r:id="rId8" ref="J137"/>
-    <hyperlink r:id="rId9" ref="J138"/>
-    <hyperlink r:id="rId10" ref="J142"/>
-    <hyperlink r:id="rId11" ref="J143"/>
-    <hyperlink r:id="rId12" ref="J153"/>
-    <hyperlink r:id="rId13" ref="J154"/>
-    <hyperlink r:id="rId14" ref="J156"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J9"/>
+    <hyperlink r:id="rId3" ref="J10"/>
+    <hyperlink r:id="rId4" ref="J17"/>
+    <hyperlink r:id="rId5" ref="J19"/>
+    <hyperlink r:id="rId6" ref="J20"/>
+    <hyperlink r:id="rId7" ref="J131"/>
+    <hyperlink r:id="rId8" ref="J132"/>
+    <hyperlink r:id="rId9" ref="J137"/>
+    <hyperlink r:id="rId10" ref="J138"/>
+    <hyperlink r:id="rId11" ref="J142"/>
+    <hyperlink r:id="rId12" ref="J143"/>
+    <hyperlink r:id="rId13" ref="J153"/>
+    <hyperlink r:id="rId14" ref="J154"/>
+    <hyperlink r:id="rId15" ref="J156"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8335,16 +8432,16 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -8355,469 +8452,469 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f t="shared" ref="B2:B62" si="1">CONCATENATE(C2)</f>
+        <f t="shared" ref="B2:B82" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>650</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Basel</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>650</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B23" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B25" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B26" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B27" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B28" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B29" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="13"/>
@@ -8825,101 +8922,101 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B30" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B31" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B32" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="13"/>
       <c r="F32" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B33" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B34" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B35" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="13"/>
@@ -8927,14 +9024,14 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="13"/>
@@ -8942,14 +9039,14 @@
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="13"/>
@@ -8957,14 +9054,14 @@
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="13"/>
@@ -8972,14 +9069,14 @@
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="13"/>
@@ -8987,14 +9084,14 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B40" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="13"/>
@@ -9002,48 +9099,48 @@
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B41" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="13"/>
       <c r="F41" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B42" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B43" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="13"/>
@@ -9051,50 +9148,50 @@
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B44" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B45" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B46" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="13"/>
@@ -9102,101 +9199,101 @@
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B47" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B48" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B49" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B50" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B51" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B52" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="13"/>
@@ -9204,14 +9301,14 @@
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B53" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="13"/>
@@ -9219,14 +9316,14 @@
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B54" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="13"/>
@@ -9234,14 +9331,14 @@
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B55" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="13"/>
@@ -9249,14 +9346,14 @@
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B56" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="13"/>
@@ -9264,31 +9361,31 @@
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B57" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B58" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="13"/>
@@ -9296,31 +9393,31 @@
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B59" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B60" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="13"/>
@@ -9328,40 +9425,325 @@
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B61" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C61" s="3"/>
+        <v>Stein am Rhein</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="D61" s="21"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B62" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C62" s="3"/>
+        <v>Marburg</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="D62" s="21"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B63" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Elbląg</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B64" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Preußen</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B65" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad Baden</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B66" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad Schinznach</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B67" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Gyrenbad</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B68" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Wängibad</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B69" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Aeugst</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B70" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B71" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B72" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B73" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B74" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B75" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="3"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E62">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E82">
       <formula1>"Stadt,Gewässer,Berg"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A62 C2:C62 F2:F62"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A82 C2:C82 F2:F82"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F68"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9392,25 +9774,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -9421,291 +9803,291 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="B2" s="22" t="str">
         <f t="shared" ref="B2:B20" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>839</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="B3" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>842</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="23"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>843</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>589</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Psalm-Reimen und Melodien</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>848</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>hundert Christliche/ neüaußgegebene Festpredigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>851</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>854</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>857</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>860</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>863</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>866</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>871</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>843</v>
+        <v>873</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9713,15 +10095,15 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9729,15 +10111,15 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>848</v>
+        <v>878</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9745,15 +10127,15 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>849</v>
+        <v>879</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9761,15 +10143,15 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9777,11 +10159,11 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -9819,19 +10201,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>851</v>
+        <v>881</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -9839,214 +10221,214 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="B2" s="22" t="str">
         <f t="shared" ref="B2:B14" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>885</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
       <c r="B3" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Deutschgesinnte Genossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>862</v>
+        <v>892</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>865</v>
+        <v>895</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="16"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>885</v>
+        <v>915</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="16"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="16"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -10084,19 +10466,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -10104,100 +10486,100 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>924</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="B3" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>896</v>
+        <v>926</v>
       </c>
       <c r="B4" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
       <c r="B5" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
       <c r="B6" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
       <c r="B7" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="B8" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -10,14 +10,14 @@
     <sheet state="visible" name="Helvetismen" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Personen!$A$1:$K$191</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Personen!$A$1:$K$221</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1071">
   <si>
     <t>Person-ID</t>
   </si>
@@ -2011,9 +2011,314 @@
     <t>person_194</t>
   </si>
   <si>
+    <t>Bachofen</t>
+  </si>
+  <si>
+    <t>Johann Ulrich</t>
+  </si>
+  <si>
+    <t>121891291</t>
+  </si>
+  <si>
     <t>person_195</t>
   </si>
   <si>
+    <t>Grebel</t>
+  </si>
+  <si>
+    <t>Hans Konrad</t>
+  </si>
+  <si>
+    <t>143656813</t>
+  </si>
+  <si>
+    <t>Landvogt der Herrschaft Wädenswil und der Freien Ämter</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/018072/2005-12-05/</t>
+  </si>
+  <si>
+    <t>person_196</t>
+  </si>
+  <si>
+    <t>Gossweiler</t>
+  </si>
+  <si>
+    <t>Emerentia</t>
+  </si>
+  <si>
+    <t>person_197</t>
+  </si>
+  <si>
+    <t>Lochmann</t>
+  </si>
+  <si>
+    <t>1078433488</t>
+  </si>
+  <si>
+    <t>Militär in französ. Diensten</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/023976/2009-10-13/</t>
+  </si>
+  <si>
+    <t>person_198</t>
+  </si>
+  <si>
+    <t>Ulrich</t>
+  </si>
+  <si>
+    <t>117289701</t>
+  </si>
+  <si>
+    <t>Pfarrer am Grossmünster</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/010885/2013-01-25/</t>
+  </si>
+  <si>
+    <t>person_199</t>
+  </si>
+  <si>
+    <t>Orelli</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>4. Ehefrau von Johann Jakob Ulrich</t>
+  </si>
+  <si>
+    <t>person_200</t>
+  </si>
+  <si>
+    <t>C. E. H.</t>
+  </si>
+  <si>
+    <t>Eberhard, Hans Kaspar?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">evtl. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=2066431</t>
+    </r>
+  </si>
+  <si>
+    <t>person_201</t>
+  </si>
+  <si>
+    <t>C. H.</t>
+  </si>
+  <si>
+    <t>Hirt, Katharina?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">evtl. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=2066431</t>
+    </r>
+  </si>
+  <si>
+    <t>person_202</t>
+  </si>
+  <si>
+    <t>Grob</t>
+  </si>
+  <si>
+    <t>Pfarrer zu Richterswil</t>
+  </si>
+  <si>
+    <t>https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=1968284</t>
+  </si>
+  <si>
+    <t>person_203</t>
+  </si>
+  <si>
+    <t>Regula</t>
+  </si>
+  <si>
+    <t>person_204</t>
+  </si>
+  <si>
+    <t>Klingler</t>
+  </si>
+  <si>
+    <t>Kaspar</t>
+  </si>
+  <si>
+    <t>https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=2051126</t>
+  </si>
+  <si>
+    <t>person_205</t>
+  </si>
+  <si>
+    <t>Spöndli</t>
+  </si>
+  <si>
+    <t>person_206</t>
+  </si>
+  <si>
+    <t>Hirzel</t>
+  </si>
+  <si>
+    <t>Hans Caspar</t>
+  </si>
+  <si>
+    <t>136182054</t>
+  </si>
+  <si>
+    <t>Bürgermeister von Zürich</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/018077/2021-08-02/</t>
+  </si>
+  <si>
+    <t>person_207</t>
+  </si>
+  <si>
+    <t>136182208</t>
+  </si>
+  <si>
+    <t>Zürcher Tuchhändler, Bürgermeister und Diplomat</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/018059/2021-08-02/</t>
+  </si>
+  <si>
+    <t>person_208</t>
+  </si>
+  <si>
+    <t>Salis-Soglio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Ursina von </t>
+  </si>
+  <si>
+    <t>2. Ehefrau von Andreas von Brügger</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/016768/2004-08-26/</t>
+  </si>
+  <si>
+    <t>person_209</t>
+  </si>
+  <si>
+    <t>Brügger</t>
+  </si>
+  <si>
+    <t>Andreas von</t>
+  </si>
+  <si>
+    <t>1072493926</t>
+  </si>
+  <si>
+    <t>Pächter der Landvogtei Maienfeld</t>
+  </si>
+  <si>
+    <t>person_210</t>
+  </si>
+  <si>
+    <t>Anhorn</t>
+  </si>
+  <si>
+    <t>Verfasser eines "Leitungs-fadens"</t>
+  </si>
+  <si>
+    <t>person_211</t>
+  </si>
+  <si>
+    <t>Wilden</t>
+  </si>
+  <si>
+    <t>Verfasser des Buchs von der Seelen-Angst Christi</t>
+  </si>
+  <si>
+    <t>person_212</t>
+  </si>
+  <si>
+    <t>Groben</t>
+  </si>
+  <si>
+    <t>Jacob (evtl. Johannes)</t>
+  </si>
+  <si>
+    <t>Verfasser des Buches 'Verſuchungs-gabe'; wohl Johannes Grob, cf. https://de.wikipedia.org/wiki/Johannes_Grob</t>
+  </si>
+  <si>
+    <t>person_213</t>
+  </si>
+  <si>
+    <t>Ziegler</t>
+  </si>
+  <si>
+    <t>Verfasser des "Bernerischen Apothecker-Taxes"</t>
+  </si>
+  <si>
+    <t>person_214</t>
+  </si>
+  <si>
+    <t>Erfinder</t>
+  </si>
+  <si>
+    <t>person_215</t>
+  </si>
+  <si>
+    <t>Oeri</t>
+  </si>
+  <si>
+    <t>Werkmeister</t>
+  </si>
+  <si>
+    <t>person_216</t>
+  </si>
+  <si>
+    <t>person_217</t>
+  </si>
+  <si>
+    <t>person_218</t>
+  </si>
+  <si>
+    <t>person_219</t>
+  </si>
+  <si>
+    <t>person_220</t>
+  </si>
+  <si>
+    <t>person_221</t>
+  </si>
+  <si>
+    <t>person_222</t>
+  </si>
+  <si>
+    <t>person_223</t>
+  </si>
+  <si>
+    <t>person_224</t>
+  </si>
+  <si>
+    <t>person_225</t>
+  </si>
+  <si>
     <t>Ort-ID</t>
   </si>
   <si>
@@ -2032,6 +2337,9 @@
     <t>Stadt</t>
   </si>
   <si>
+    <t>Stadt und eidg. Ort</t>
+  </si>
+  <si>
     <t>place_002</t>
   </si>
   <si>
@@ -2044,6 +2352,9 @@
     <t>Eidgenossenschaft</t>
   </si>
   <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
     <t>alt. Eidgenossenschaft, Schweiz</t>
   </si>
   <si>
@@ -2548,21 +2859,123 @@
     <t>place_069</t>
   </si>
   <si>
+    <t>Bassersdorf</t>
+  </si>
+  <si>
     <t>place_070</t>
   </si>
   <si>
+    <t>Hauptwil</t>
+  </si>
+  <si>
     <t>place_071</t>
   </si>
   <si>
+    <t>Schaffhausen</t>
+  </si>
+  <si>
     <t>place_072</t>
   </si>
   <si>
+    <t>Wädenswil</t>
+  </si>
+  <si>
+    <t>Herrschaft</t>
+  </si>
+  <si>
     <t>place_073</t>
   </si>
   <si>
+    <t>Freie Ämter</t>
+  </si>
+  <si>
+    <t>gemeine Herrschaft der Eidgenossenschaft</t>
+  </si>
+  <si>
     <t>place_074</t>
   </si>
   <si>
+    <t>Grüningen</t>
+  </si>
+  <si>
+    <t>place_075</t>
+  </si>
+  <si>
+    <t>Kefikon</t>
+  </si>
+  <si>
+    <t>place_076</t>
+  </si>
+  <si>
+    <t>Maienfeld</t>
+  </si>
+  <si>
+    <t>place_077</t>
+  </si>
+  <si>
+    <t>Greifensee (Schloss)</t>
+  </si>
+  <si>
+    <t>place_078</t>
+  </si>
+  <si>
+    <t>Lindenhof (Zürich)</t>
+  </si>
+  <si>
+    <t>Hügel und Park in Zürich</t>
+  </si>
+  <si>
+    <t>place_079</t>
+  </si>
+  <si>
+    <t>Galg-Brunnen (Zürich)</t>
+  </si>
+  <si>
+    <t>place_080</t>
+  </si>
+  <si>
+    <t>Altes Kornhaus (Zürich)</t>
+  </si>
+  <si>
+    <t>place_081</t>
+  </si>
+  <si>
+    <t>Sparrenberg (Zürich)</t>
+  </si>
+  <si>
+    <t>place_082</t>
+  </si>
+  <si>
+    <t>Thurgau</t>
+  </si>
+  <si>
+    <t>place_083</t>
+  </si>
+  <si>
+    <t>place_084</t>
+  </si>
+  <si>
+    <t>place_085</t>
+  </si>
+  <si>
+    <t>place_086</t>
+  </si>
+  <si>
+    <t>place_087</t>
+  </si>
+  <si>
+    <t>place_088</t>
+  </si>
+  <si>
+    <t>place_089</t>
+  </si>
+  <si>
+    <t>place_090</t>
+  </si>
+  <si>
+    <t>place_091</t>
+  </si>
+  <si>
     <t>Werk-ID</t>
   </si>
   <si>
@@ -2722,6 +3135,36 @@
     <t>work_019</t>
   </si>
   <si>
+    <t>work_020</t>
+  </si>
+  <si>
+    <t>work_021</t>
+  </si>
+  <si>
+    <t>work_022</t>
+  </si>
+  <si>
+    <t>work_023</t>
+  </si>
+  <si>
+    <t>work_024</t>
+  </si>
+  <si>
+    <t>work_025</t>
+  </si>
+  <si>
+    <t>work_026</t>
+  </si>
+  <si>
+    <t>work_027</t>
+  </si>
+  <si>
+    <t>work_028</t>
+  </si>
+  <si>
+    <t>work_029</t>
+  </si>
+  <si>
     <t>Institution-ID</t>
   </si>
   <si>
@@ -2755,7 +3198,7 @@
     <t>institution_003</t>
   </si>
   <si>
-    <t>Deutschgesinnte Genossenschaft</t>
+    <t>Deutschgesinnte Genossenschaft (Lilien-Zunft)</t>
   </si>
   <si>
     <t>4679588-1</t>
@@ -2819,6 +3262,9 @@
   </si>
   <si>
     <t>institution_011</t>
+  </si>
+  <si>
+    <t>Hohe Schule Marburg</t>
   </si>
   <si>
     <t>institution_012</t>
@@ -2950,7 +3396,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3006,6 +3452,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3188,8 +3640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K191" displayName="Personenindex" name="Personenindex" id="1">
-  <autoFilter ref="$A$1:$K$191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K221" displayName="Personenindex" name="Personenindex" id="1">
+  <autoFilter ref="$A$1:$K$221"/>
   <tableColumns count="11">
     <tableColumn name="Person-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3208,7 +3660,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F82" displayName="Orteindex" name="Orteindex" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F92" displayName="Orteindex" name="Orteindex" id="2">
   <tableColumns count="6">
     <tableColumn name="Ort-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3222,7 +3674,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I20" displayName="Werkindex" name="Werkindex" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I30" displayName="Werkindex" name="Werkindex" id="3">
   <tableColumns count="9">
     <tableColumn name="Werk-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3476,11 +3928,11 @@
     <col customWidth="1" min="1" max="1" width="16.75"/>
     <col customWidth="1" min="2" max="2" width="34.0"/>
     <col customWidth="1" min="3" max="3" width="20.38"/>
-    <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="4" max="4" width="18.75"/>
     <col customWidth="1" min="5" max="5" width="11.5"/>
     <col customWidth="1" min="6" max="6" width="10.0"/>
     <col customWidth="1" min="7" max="7" width="17.38"/>
-    <col customWidth="1" min="8" max="8" width="47.75"/>
+    <col customWidth="1" min="8" max="8" width="35.5"/>
     <col customWidth="1" min="9" max="9" width="22.13"/>
     <col customWidth="1" min="10" max="11" width="20.13"/>
   </cols>
@@ -3525,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B191" si="1">CONCATENATE(C2,", ",D2," (",E2,"-",F2,")")</f>
+        <f t="shared" ref="B2:B221" si="1">CONCATENATE(C2,", ",D2," (",E2,"-",F2,")")</f>
         <v>Simler, Johann Wilhelm (1605-1672)</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -8336,7 +8788,9 @@
         <v>642</v>
       </c>
       <c r="H189" s="3"/>
-      <c r="I189" s="13"/>
+      <c r="I189" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
     </row>
@@ -8346,44 +8800,802 @@
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="13"/>
+        <v>Bachofen, Johann Ulrich (1643-1700)</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E190" s="5">
+        <v>1643.0</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1700.0</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
     </row>
     <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>Grebel, Hans Konrad (1615-1674)</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1615.0</v>
+      </c>
+      <c r="F191" s="5">
+        <v>1674.0</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="K191" s="9"/>
+    </row>
+    <row r="192" ht="22.5" customHeight="1">
+      <c r="A192" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B192" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Gossweiler, Emerentia (-)</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" ht="22.5" customHeight="1">
+      <c r="A193" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B193" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Lochmann, Heinrich (1613-1667)</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="19">
+        <v>1613.0</v>
+      </c>
+      <c r="F193" s="5">
+        <v>1667.0</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="K193" s="9"/>
+    </row>
+    <row r="194" ht="22.5" customHeight="1">
+      <c r="A194" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B194" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ulrich, Johann Jakob (1602-1668)</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1602.0</v>
+      </c>
+      <c r="F194" s="5">
+        <v>1668.0</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="K194" s="9"/>
+    </row>
+    <row r="195" ht="22.5" customHeight="1">
+      <c r="A195" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B195" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Orelli, Anna (-)</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E195" s="15"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="K195" s="9"/>
+    </row>
+    <row r="196" ht="22.5" customHeight="1">
+      <c r="A196" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B196" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>C. E. H.,  (-)</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="K196" s="9"/>
+    </row>
+    <row r="197" ht="22.5" customHeight="1">
+      <c r="A197" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B197" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>C. H.,  (-)</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="K197" s="9"/>
+    </row>
+    <row r="198" ht="22.5" customHeight="1">
+      <c r="A198" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B198" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Grob, Hans Jakob (-)</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E198" s="15"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="K198" s="9"/>
+    </row>
+    <row r="199" ht="22.5" customHeight="1">
+      <c r="A199" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B199" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahn, Regula (-)</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E199" s="15"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="K199" s="9"/>
+    </row>
+    <row r="200" ht="22.5" customHeight="1">
+      <c r="A200" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B200" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Klingler, Kaspar (-)</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E200" s="15"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J200" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="K200" s="9"/>
+    </row>
+    <row r="201" ht="22.5" customHeight="1">
+      <c r="A201" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B201" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Spöndli, Dorothea (-)</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E201" s="15"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="K201" s="9"/>
+    </row>
+    <row r="202" ht="22.5" customHeight="1">
+      <c r="A202" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B202" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Hirzel, Hans Caspar (1617-1691)</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E202" s="5">
+        <v>1617.0</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1691.0</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="K202" s="9"/>
+    </row>
+    <row r="203" ht="22.5" customHeight="1">
+      <c r="A203" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B203" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Hirzel, Salomon (1580-1652)</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E203" s="5">
+        <v>1580.0</v>
+      </c>
+      <c r="F203" s="5">
+        <v>1652.0</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="K203" s="9"/>
+    </row>
+    <row r="204" ht="22.5" customHeight="1">
+      <c r="A204" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B204" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Salis-Soglio, Maria Ursina von  (-)</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E204" s="15"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="K204" s="9"/>
+    </row>
+    <row r="205" ht="22.5" customHeight="1">
+      <c r="A205" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B205" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Brügger, Andreas von (1588-1653)</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1588.0</v>
+      </c>
+      <c r="F205" s="5">
+        <v>1653.0</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="K205" s="9"/>
+    </row>
+    <row r="206" ht="22.5" customHeight="1">
+      <c r="A206" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B206" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Anhorn,  (-)</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I206" s="13"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+    </row>
+    <row r="207" ht="22.5" customHeight="1">
+      <c r="A207" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B207" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilden, Abraham (-)</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E207" s="15"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="I207" s="13"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+    </row>
+    <row r="208" ht="22.5" customHeight="1">
+      <c r="A208" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B208" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Groben, Jacob (evtl. Johannes) (-)</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E208" s="15"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="I208" s="13"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+    </row>
+    <row r="209" ht="22.5" customHeight="1">
+      <c r="A209" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B209" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ziegler,  (-)</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I209" s="13"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+    </row>
+    <row r="210" ht="22.5" customHeight="1">
+      <c r="A210" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B210" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Werder, Felix (-)</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E210" s="15"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I210" s="13"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+    </row>
+    <row r="211" ht="22.5" customHeight="1">
+      <c r="A211" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B211" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Oeri,  (-)</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="I211" s="13"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+    </row>
+    <row r="212" ht="22.5" customHeight="1">
+      <c r="A212" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B212" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>,  (-)</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="9"/>
-      <c r="K191" s="9"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+    </row>
+    <row r="213" ht="22.5" customHeight="1">
+      <c r="A213" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B213" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C213" s="6"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+    </row>
+    <row r="214" ht="22.5" customHeight="1">
+      <c r="A214" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B214" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+    </row>
+    <row r="215" ht="22.5" customHeight="1">
+      <c r="A215" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B215" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+    </row>
+    <row r="216" ht="22.5" customHeight="1">
+      <c r="A216" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B216" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+    </row>
+    <row r="217" ht="22.5" customHeight="1">
+      <c r="A217" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B217" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
+    </row>
+    <row r="218" ht="22.5" customHeight="1">
+      <c r="A218" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B218" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" ht="22.5" customHeight="1">
+      <c r="A219" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B219" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C219" s="6"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
+    </row>
+    <row r="220" ht="22.5" customHeight="1">
+      <c r="A220" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B220" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" ht="22.5" customHeight="1">
+      <c r="A221" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B221" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I191">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I221">
       <formula1>"Historische Person,Fiktive Figur,Biblische Figur,Mythologische Figur"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C191 H2:H191 K2:K191"/>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A191"/>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B191 D2:D191 G2:G191"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C221 H2:H221 K2:K221"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A221"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B221 D2:D221 G2:G221"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="J2"/>
@@ -8401,10 +9613,23 @@
     <hyperlink r:id="rId13" ref="J153"/>
     <hyperlink r:id="rId14" ref="J154"/>
     <hyperlink r:id="rId15" ref="J156"/>
+    <hyperlink r:id="rId16" ref="J191"/>
+    <hyperlink r:id="rId17" ref="J192"/>
+    <hyperlink r:id="rId18" ref="J193"/>
+    <hyperlink r:id="rId19" ref="J194"/>
+    <hyperlink r:id="rId20" ref="J195"/>
+    <hyperlink r:id="rId21" ref="J198"/>
+    <hyperlink r:id="rId22" ref="J199"/>
+    <hyperlink r:id="rId23" ref="J200"/>
+    <hyperlink r:id="rId24" ref="J201"/>
+    <hyperlink r:id="rId25" ref="J202"/>
+    <hyperlink r:id="rId26" ref="J203"/>
+    <hyperlink r:id="rId27" ref="J204"/>
+    <hyperlink r:id="rId28" ref="J205"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8432,16 +9657,16 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>645</v>
+        <v>738</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>646</v>
+        <v>739</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -8452,1291 +9677,1481 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f t="shared" ref="B2:B82" si="1">CONCATENATE(C2)</f>
+        <v>741</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f t="shared" ref="B2:B92" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>649</v>
+        <v>742</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>743</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B3" s="19" t="str">
+        <v>745</v>
+      </c>
+      <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Basel</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>652</v>
+        <v>746</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>743</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B4" s="20" t="str">
+        <v>747</v>
+      </c>
+      <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>748</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>749</v>
+      </c>
       <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
-        <v>655</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B5" s="20" t="str">
+        <v>751</v>
+      </c>
+      <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>752</v>
+      </c>
+      <c r="D5" s="23"/>
       <c r="E5" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>659</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B6" s="20" t="str">
+        <v>755</v>
+      </c>
+      <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>756</v>
+      </c>
+      <c r="D6" s="23"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B7" s="20" t="str">
+        <v>757</v>
+      </c>
+      <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>758</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B8" s="20" t="str">
+        <v>759</v>
+      </c>
+      <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>760</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B9" s="20" t="str">
+        <v>761</v>
+      </c>
+      <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>762</v>
+      </c>
+      <c r="D9" s="23"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>668</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B10" s="20" t="str">
+        <v>764</v>
+      </c>
+      <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>765</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="B11" s="20" t="str">
+        <v>766</v>
+      </c>
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>767</v>
+      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="B12" s="20" t="str">
+        <v>768</v>
+      </c>
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>769</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B13" s="20" t="str">
+        <v>770</v>
+      </c>
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>771</v>
+      </c>
+      <c r="D13" s="23"/>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B14" s="20" t="str">
+        <v>772</v>
+      </c>
+      <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>773</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="B15" s="20" t="str">
+        <v>774</v>
+      </c>
+      <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>775</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="7" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B16" s="20" t="str">
+        <v>777</v>
+      </c>
+      <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>778</v>
+      </c>
+      <c r="D16" s="23"/>
       <c r="E16" s="7" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B17" s="20" t="str">
+        <v>781</v>
+      </c>
+      <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>782</v>
+      </c>
+      <c r="D17" s="23"/>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B18" s="20" t="str">
+        <v>783</v>
+      </c>
+      <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="D18" s="21"/>
+        <v>784</v>
+      </c>
+      <c r="D18" s="23"/>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B19" s="20" t="str">
+        <v>786</v>
+      </c>
+      <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>787</v>
+      </c>
+      <c r="D19" s="23"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
-        <v>693</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B20" s="20" t="str">
+        <v>789</v>
+      </c>
+      <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>790</v>
+      </c>
+      <c r="D20" s="23"/>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B21" s="20" t="str">
+        <v>791</v>
+      </c>
+      <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>792</v>
+      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="7" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B22" s="20" t="str">
+        <v>794</v>
+      </c>
+      <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>795</v>
+      </c>
+      <c r="D22" s="23"/>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B23" s="20" t="str">
+        <v>796</v>
+      </c>
+      <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>797</v>
+      </c>
+      <c r="D23" s="23"/>
       <c r="E23" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>703</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B24" s="20" t="str">
+        <v>799</v>
+      </c>
+      <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>800</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B25" s="20" t="str">
+        <v>801</v>
+      </c>
+      <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>802</v>
+      </c>
+      <c r="D25" s="23"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>708</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="B26" s="20" t="str">
+        <v>804</v>
+      </c>
+      <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>805</v>
+      </c>
+      <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B27" s="20" t="str">
+        <v>807</v>
+      </c>
+      <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D27" s="21"/>
+        <v>808</v>
+      </c>
+      <c r="D27" s="23"/>
       <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B28" s="20" t="str">
+        <v>810</v>
+      </c>
+      <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D28" s="21"/>
+        <v>811</v>
+      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="7" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B29" s="20" t="str">
+        <v>813</v>
+      </c>
+      <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>814</v>
+      </c>
+      <c r="D29" s="23"/>
       <c r="E29" s="13"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B30" s="20" t="str">
+        <v>815</v>
+      </c>
+      <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>816</v>
+      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B31" s="20" t="str">
+        <v>818</v>
+      </c>
+      <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>819</v>
+      </c>
+      <c r="D31" s="23"/>
       <c r="E31" s="7" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B32" s="20" t="str">
+        <v>821</v>
+      </c>
+      <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>822</v>
+      </c>
+      <c r="D32" s="23"/>
       <c r="E32" s="13"/>
       <c r="F32" s="3" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B33" s="20" t="str">
+        <v>824</v>
+      </c>
+      <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D33" s="21"/>
+        <v>825</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="13"/>
       <c r="F33" s="3" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B34" s="20" t="str">
+        <v>827</v>
+      </c>
+      <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D34" s="21"/>
+        <v>828</v>
+      </c>
+      <c r="D34" s="23"/>
       <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B35" s="20" t="str">
+        <v>830</v>
+      </c>
+      <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="D35" s="21"/>
+        <v>831</v>
+      </c>
+      <c r="D35" s="23"/>
       <c r="E35" s="13"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="B36" s="20" t="str">
+        <v>832</v>
+      </c>
+      <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="D36" s="21"/>
+        <v>833</v>
+      </c>
+      <c r="D36" s="23"/>
       <c r="E36" s="13"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B37" s="20" t="str">
+        <v>834</v>
+      </c>
+      <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="D37" s="21"/>
+        <v>835</v>
+      </c>
+      <c r="D37" s="23"/>
       <c r="E37" s="13"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B38" s="20" t="str">
+        <v>836</v>
+      </c>
+      <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>837</v>
+      </c>
+      <c r="D38" s="23"/>
       <c r="E38" s="13"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B39" s="20" t="str">
+        <v>838</v>
+      </c>
+      <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>839</v>
+      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="13"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B40" s="20" t="str">
+        <v>840</v>
+      </c>
+      <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>841</v>
+      </c>
+      <c r="D40" s="23"/>
       <c r="E40" s="13"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B41" s="20" t="str">
+        <v>842</v>
+      </c>
+      <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>843</v>
+      </c>
+      <c r="D41" s="23"/>
       <c r="E41" s="13"/>
       <c r="F41" s="3" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B42" s="20" t="str">
+        <v>845</v>
+      </c>
+      <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D42" s="21"/>
+        <v>846</v>
+      </c>
+      <c r="D42" s="23"/>
       <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="B43" s="20" t="str">
+        <v>848</v>
+      </c>
+      <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D43" s="21"/>
+        <v>849</v>
+      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="13"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B44" s="20" t="str">
+        <v>850</v>
+      </c>
+      <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="D44" s="21"/>
+        <v>851</v>
+      </c>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>659</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="B45" s="20" t="str">
+        <v>852</v>
+      </c>
+      <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="D45" s="21"/>
+        <v>853</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>759</v>
+        <v>854</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="B46" s="20" t="str">
+        <v>855</v>
+      </c>
+      <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="D46" s="21"/>
+        <v>856</v>
+      </c>
+      <c r="D46" s="23"/>
       <c r="E46" s="13"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="B47" s="20" t="str">
+        <v>857</v>
+      </c>
+      <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D47" s="21"/>
+        <v>858</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B48" s="20" t="str">
+        <v>860</v>
+      </c>
+      <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="D48" s="21"/>
+        <v>861</v>
+      </c>
+      <c r="D48" s="23"/>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="B49" s="20" t="str">
+        <v>863</v>
+      </c>
+      <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="D49" s="21"/>
+        <v>864</v>
+      </c>
+      <c r="D49" s="23"/>
       <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B50" s="20" t="str">
+        <v>866</v>
+      </c>
+      <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D50" s="21"/>
+        <v>867</v>
+      </c>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B51" s="20" t="str">
+        <v>869</v>
+      </c>
+      <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D51" s="21"/>
+        <v>870</v>
+      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B52" s="20" t="str">
+        <v>872</v>
+      </c>
+      <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D52" s="21"/>
+        <v>873</v>
+      </c>
+      <c r="D52" s="23"/>
       <c r="E52" s="13"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="B53" s="20" t="str">
+        <v>874</v>
+      </c>
+      <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="D53" s="21"/>
+        <v>875</v>
+      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="13"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="B54" s="20" t="str">
+        <v>876</v>
+      </c>
+      <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D54" s="21"/>
+        <v>877</v>
+      </c>
+      <c r="D54" s="23"/>
       <c r="E54" s="13"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B55" s="20" t="str">
+        <v>878</v>
+      </c>
+      <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D55" s="21"/>
+        <v>879</v>
+      </c>
+      <c r="D55" s="23"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B56" s="20" t="str">
+        <v>880</v>
+      </c>
+      <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="D56" s="21"/>
+        <v>881</v>
+      </c>
+      <c r="D56" s="23"/>
       <c r="E56" s="13"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B57" s="20" t="str">
+        <v>882</v>
+      </c>
+      <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="D57" s="21"/>
+        <v>883</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>789</v>
+        <v>884</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B58" s="20" t="str">
+        <v>885</v>
+      </c>
+      <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D58" s="21"/>
+        <v>886</v>
+      </c>
+      <c r="D58" s="23"/>
       <c r="E58" s="13"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B59" s="20" t="str">
+        <v>887</v>
+      </c>
+      <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="D59" s="21"/>
+        <v>888</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="B60" s="20" t="str">
+        <v>890</v>
+      </c>
+      <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="D60" s="21"/>
+        <v>891</v>
+      </c>
+      <c r="D60" s="23"/>
       <c r="E60" s="13"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B61" s="20" t="str">
+        <v>892</v>
+      </c>
+      <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stein am Rhein</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D61" s="21"/>
+        <v>893</v>
+      </c>
+      <c r="D61" s="23"/>
       <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B62" s="20" t="str">
+        <v>895</v>
+      </c>
+      <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Marburg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D62" s="21"/>
+        <v>896</v>
+      </c>
+      <c r="D62" s="23"/>
       <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B63" s="20" t="str">
+        <v>898</v>
+      </c>
+      <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Elbląg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B64" s="20" t="str">
+        <v>902</v>
+      </c>
+      <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Preußen</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D64" s="21"/>
+        <v>903</v>
+      </c>
+      <c r="D64" s="23"/>
       <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B65" s="20" t="str">
+        <v>905</v>
+      </c>
+      <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Baden</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="D65" s="21"/>
+        <v>906</v>
+      </c>
+      <c r="D65" s="23"/>
       <c r="E65" s="13"/>
       <c r="F65" s="3" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B66" s="20" t="str">
+        <v>908</v>
+      </c>
+      <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Schinznach</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="D66" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="D66" s="23"/>
       <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B67" s="20" t="str">
+        <v>910</v>
+      </c>
+      <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gyrenbad</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="D67" s="21"/>
+        <v>911</v>
+      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="13"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="B68" s="20" t="str">
+        <v>912</v>
+      </c>
+      <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wängibad</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D68" s="21"/>
+        <v>913</v>
+      </c>
+      <c r="D68" s="23"/>
       <c r="E68" s="13"/>
       <c r="F68" s="8" t="s">
-        <v>819</v>
+        <v>914</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B69" s="20" t="str">
+        <v>915</v>
+      </c>
+      <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeugst</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="D69" s="21"/>
+        <v>916</v>
+      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="21"/>
+        <v>917</v>
+      </c>
+      <c r="B70" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Bassersdorf</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D70" s="23"/>
       <c r="E70" s="13"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="B71" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="21"/>
+        <v>919</v>
+      </c>
+      <c r="B71" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Hauptwil</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D71" s="23"/>
       <c r="E71" s="13"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B72" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="21"/>
+        <v>921</v>
+      </c>
+      <c r="B72" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Schaffhausen</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D72" s="23"/>
       <c r="E72" s="13"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B73" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="21"/>
+        <v>923</v>
+      </c>
+      <c r="B73" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Wädenswil</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D73" s="23"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B74" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="21"/>
+        <v>926</v>
+      </c>
+      <c r="B74" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Freie Ämter</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D74" s="23"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B75" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="21"/>
+        <v>929</v>
+      </c>
+      <c r="B75" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Grüningen</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D75" s="23"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B76" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Kefikon</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="13"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="21"/>
+      <c r="A77" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B77" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Maienfeld</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D77" s="23"/>
       <c r="E77" s="13"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B78" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Greifensee (Schloss)</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D78" s="23"/>
       <c r="E78" s="13"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="21"/>
+      <c r="A79" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B79" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Lindenhof (Zürich)</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B80" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Galg-Brunnen (Zürich)</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="13"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="21"/>
+      <c r="A81" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B81" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Altes Kornhaus (Zürich)</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="13"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B82" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Sparrenberg (Zürich)</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D82" s="23"/>
       <c r="E82" s="13"/>
       <c r="F82" s="3"/>
     </row>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B83" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Thurgau</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B84" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" ht="22.5" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B85" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" ht="22.5" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B86" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" ht="22.5" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B87" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" ht="22.5" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B88" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" ht="22.5" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B89" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" ht="22.5" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B90" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B91" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B92" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="3"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E82">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E92">
       <formula1>"Stadt,Gewässer,Berg"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A82 C2:C82 F2:F82"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A92 C2:C92 F2:F92"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F68"/>
@@ -9774,25 +11189,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>828</v>
+        <v>957</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>829</v>
+        <v>958</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>830</v>
+        <v>959</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>831</v>
+        <v>960</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>832</v>
+        <v>961</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>833</v>
+        <v>962</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -9803,374 +11218,534 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B2" s="22" t="str">
-        <f t="shared" ref="B2:B20" si="1">CONCATENATE(C2)</f>
+        <v>963</v>
+      </c>
+      <c r="B2" s="24" t="str">
+        <f t="shared" ref="B2:B30" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>835</v>
+        <v>964</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>836</v>
+        <v>965</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>837</v>
+        <v>966</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>649</v>
+        <v>742</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>839</v>
+        <v>968</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B3" s="22" t="str">
+        <v>969</v>
+      </c>
+      <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>841</v>
+        <v>970</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>842</v>
+        <v>971</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="23"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>843</v>
+        <v>972</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B4" s="22" t="str">
+        <v>973</v>
+      </c>
+      <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>845</v>
+        <v>974</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>589</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="9"/>
       <c r="H4" s="13"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B5" s="22" t="str">
+        <v>975</v>
+      </c>
+      <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Psalm-Reimen und Melodien</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>847</v>
+        <v>976</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>848</v>
+        <v>977</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="B6" s="22" t="str">
+        <v>978</v>
+      </c>
+      <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>hundert Christliche/ neüaußgegebene Festpredigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>850</v>
+        <v>979</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>851</v>
+        <v>980</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="9"/>
       <c r="H6" s="13"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="B7" s="22" t="str">
+        <v>981</v>
+      </c>
+      <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>853</v>
+        <v>982</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>854</v>
+        <v>983</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="9"/>
       <c r="H7" s="13"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B8" s="22" t="str">
+        <v>984</v>
+      </c>
+      <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>856</v>
+        <v>985</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>857</v>
+        <v>986</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="9"/>
       <c r="H8" s="13"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B9" s="22" t="str">
+        <v>987</v>
+      </c>
+      <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>859</v>
+        <v>988</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>860</v>
+        <v>989</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="9"/>
       <c r="H9" s="13"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B10" s="22" t="str">
+        <v>990</v>
+      </c>
+      <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>862</v>
+        <v>991</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="B11" s="22" t="str">
+        <v>993</v>
+      </c>
+      <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>865</v>
+        <v>994</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="9"/>
       <c r="H11" s="13"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B12" s="22" t="str">
+        <v>996</v>
+      </c>
+      <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>997</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="9"/>
       <c r="H12" s="13"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B13" s="22" t="str">
+        <v>998</v>
+      </c>
+      <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>870</v>
+        <v>999</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>871</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="9"/>
       <c r="H13" s="13"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="B14" s="22" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>1002</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="9"/>
       <c r="H14" s="13"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="B15" s="22" t="str">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>1004</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="9"/>
       <c r="H15" s="13"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="B16" s="22" t="str">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="9"/>
       <c r="H16" s="13"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="B17" s="22" t="str">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="9"/>
       <c r="H17" s="13"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B18" s="22" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="9"/>
       <c r="H18" s="13"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="B19" s="22" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="B20" s="22" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="9"/>
       <c r="H20" s="13"/>
       <c r="I20" s="9"/>
     </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B21" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B22" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B23" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B24" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B27" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B30" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="9"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H20">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H30">
       <formula1>"Kategorie 1,Kategorie 2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A20 C2:C20 E2:E20 G2:G20 I2:I20"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A30 C2:C30 E2:E30 G2:G30 I2:I30"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -10201,19 +11776,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>881</v>
+        <v>1020</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>646</v>
+        <v>739</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>882</v>
+        <v>1021</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -10221,69 +11796,69 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="B2" s="22" t="str">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B14" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="24" t="s">
-        <v>885</v>
+        <v>1023</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26" t="s">
+        <v>1024</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B3" s="22" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>887</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>889</v>
+        <v>1027</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>1028</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>890</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="B4" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>Deutschgesinnte Genossenschaft</v>
+        <v>1030</v>
+      </c>
+      <c r="B4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Deutschgesinnte Genossenschaft (Lilien-Zunft)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>892</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>893</v>
+        <v>1032</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="B5" s="22" t="str">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>895</v>
+        <v>1034</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -10291,124 +11866,126 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B6" s="22" t="str">
+        <v>1035</v>
+      </c>
+      <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>897</v>
+        <v>1036</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>898</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="B7" s="22" t="str">
+        <v>1038</v>
+      </c>
+      <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>900</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>901</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="B8" s="22" t="str">
+        <v>1041</v>
+      </c>
+      <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>903</v>
+        <v>1042</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>904</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="B9" s="22" t="str">
+        <v>1044</v>
+      </c>
+      <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>906</v>
+        <v>1045</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>907</v>
+        <v>1046</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>908</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="B10" s="22" t="str">
+        <v>1048</v>
+      </c>
+      <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>910</v>
+        <v>1049</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>911</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>912</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="B11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C11" s="9"/>
+        <v>1052</v>
+      </c>
+      <c r="B11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Hohe Schule Marburg</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="B12" s="22" t="str">
+        <v>1054</v>
+      </c>
+      <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="B13" s="22" t="str">
+        <v>1055</v>
+      </c>
+      <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10419,9 +11996,9 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14" s="22" t="str">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10466,19 +12043,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>917</v>
+        <v>1057</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>918</v>
+        <v>1058</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>919</v>
+        <v>1059</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>920</v>
+        <v>1060</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -10486,28 +12063,28 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B2" s="19" t="str">
+        <v>1061</v>
+      </c>
+      <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>922</v>
+        <v>1062</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>924</v>
+        <v>1063</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1064</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="B3" s="19" t="str">
+        <v>1065</v>
+      </c>
+      <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10518,9 +12095,9 @@
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="B4" s="19" t="str">
+        <v>1066</v>
+      </c>
+      <c r="B4" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10531,9 +12108,9 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="B5" s="19" t="str">
+        <v>1067</v>
+      </c>
+      <c r="B5" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10544,9 +12121,9 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="B6" s="19" t="str">
+        <v>1068</v>
+      </c>
+      <c r="B6" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10557,9 +12134,9 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B7" s="19" t="str">
+        <v>1069</v>
+      </c>
+      <c r="B7" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10570,9 +12147,9 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="B8" s="19" t="str">
+        <v>1070</v>
+      </c>
+      <c r="B8" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -10,14 +10,14 @@
     <sheet state="visible" name="Helvetismen" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Personen!$A$1:$K$221</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Personen!$A$1:$K$261</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1213">
   <si>
     <t>Person-ID</t>
   </si>
@@ -1422,7 +1422,7 @@
     <t>139095349</t>
   </si>
   <si>
-    <t>Bürgermeister; vgl. Heiratsrodel https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=2065625</t>
+    <t>Bürgermeister 1652-; vgl. Heiratsrodel https://suche.staatsarchiv.djiktzh.ch/detail.aspx?ID=2065625</t>
   </si>
   <si>
     <t>https://hls-dhs-dss.ch/de/articles/018055/2013-08-26/</t>
@@ -2187,7 +2187,7 @@
     <t>136182054</t>
   </si>
   <si>
-    <t>Bürgermeister von Zürich</t>
+    <t>Zürcher Bürgermeister 1669-1690</t>
   </si>
   <si>
     <t>https://hls-dhs-dss.ch/de/articles/018077/2021-08-02/</t>
@@ -2199,7 +2199,7 @@
     <t>136182208</t>
   </si>
   <si>
-    <t>Zürcher Tuchhändler, Bürgermeister und Diplomat</t>
+    <t>Zürcher Bürgermeister 1637-, Tuchhändler und Diplomat</t>
   </si>
   <si>
     <t>https://hls-dhs-dss.ch/de/articles/018059/2021-08-02/</t>
@@ -2292,33 +2292,360 @@
     <t>person_216</t>
   </si>
   <si>
+    <t>Wittib</t>
+  </si>
+  <si>
     <t>person_217</t>
   </si>
   <si>
+    <t>Graf von Sultz</t>
+  </si>
+  <si>
     <t>person_218</t>
   </si>
   <si>
+    <t>Eglin</t>
+  </si>
+  <si>
+    <t>Hauptmann, Landvogt zu Greifensee</t>
+  </si>
+  <si>
     <t>person_219</t>
   </si>
   <si>
+    <t>Wildhans von Breitenlandenberg</t>
+  </si>
+  <si>
+    <t>Verteidiger von Greifensee und Opfer der «Blutnacht von Greifensee»</t>
+  </si>
+  <si>
     <t>person_220</t>
   </si>
   <si>
+    <t>Pfarrherr</t>
+  </si>
+  <si>
     <t>person_221</t>
   </si>
   <si>
+    <t>Schmid von Schwarzenhorn</t>
+  </si>
+  <si>
+    <t>Johann Rudolf</t>
+  </si>
+  <si>
+    <t>108194221</t>
+  </si>
+  <si>
+    <t>Diplomat der Habsburger Monarchie</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Johann_Rudolf_Schmid_von_Schwarzenhorn</t>
+  </si>
+  <si>
     <t>person_222</t>
   </si>
   <si>
+    <t>Schmid</t>
+  </si>
+  <si>
+    <t>Vater von Johann Rudolf Freiherr Schmid von Schwarzenhorn</t>
+  </si>
+  <si>
     <t>person_223</t>
   </si>
   <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Handelsherr, Ratsherr</t>
+  </si>
+  <si>
     <t>person_224</t>
   </si>
   <si>
+    <t>Ulr.</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t>person_225</t>
   </si>
   <si>
+    <t>J. L.</t>
+  </si>
+  <si>
+    <t>Schultheiss (Wahl 1666)</t>
+  </si>
+  <si>
+    <t>person_226</t>
+  </si>
+  <si>
+    <t>Vater von J. L. Müller</t>
+  </si>
+  <si>
+    <t>person_227</t>
+  </si>
+  <si>
+    <t>Locher</t>
+  </si>
+  <si>
+    <t>person_228</t>
+  </si>
+  <si>
+    <t>König</t>
+  </si>
+  <si>
+    <t>person_229</t>
+  </si>
+  <si>
+    <t>143680765</t>
+  </si>
+  <si>
+    <t>Obmann, Bürgermeister 1655-1669; evtl. derselbe wie person_010?</t>
+  </si>
+  <si>
+    <t>https://hls-dhs-dss.ch/de/articles/018097/2010-07-26/</t>
+  </si>
+  <si>
+    <t>person_230</t>
+  </si>
+  <si>
+    <t>Heiliger Römischer Kaiser</t>
+  </si>
+  <si>
+    <t>person_231</t>
+  </si>
+  <si>
+    <t>O.</t>
+  </si>
+  <si>
+    <t>Jacob U.</t>
+  </si>
+  <si>
+    <t>person_232</t>
+  </si>
+  <si>
+    <t>Schneeberger</t>
+  </si>
+  <si>
+    <t>Junker, Rittmeister, Ratsherr</t>
+  </si>
+  <si>
+    <t>person_233</t>
+  </si>
+  <si>
+    <t>Zwingli</t>
+  </si>
+  <si>
+    <t>118637533</t>
+  </si>
+  <si>
+    <t>Reformator</t>
+  </si>
+  <si>
+    <t>person_234</t>
+  </si>
+  <si>
+    <t>Bullinger</t>
+  </si>
+  <si>
+    <t>118517384</t>
+  </si>
+  <si>
+    <t>person_235</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>11854392X</t>
+  </si>
+  <si>
+    <t>person_236</t>
+  </si>
+  <si>
+    <t>Breitinger</t>
+  </si>
+  <si>
+    <t>118659952</t>
+  </si>
+  <si>
+    <t>person_237</t>
+  </si>
+  <si>
+    <t>Jrminger</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>person_238</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>person_239</t>
+  </si>
+  <si>
+    <t>Geiger</t>
+  </si>
+  <si>
+    <t>Joh. Rud.</t>
+  </si>
+  <si>
+    <t>person_240</t>
+  </si>
+  <si>
+    <t>Maurer</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>person_241</t>
+  </si>
+  <si>
+    <t>Suter</t>
+  </si>
+  <si>
+    <t>person_242</t>
+  </si>
+  <si>
+    <t>Holzhalb</t>
+  </si>
+  <si>
+    <t>person_243</t>
+  </si>
+  <si>
+    <t>Wirtz</t>
+  </si>
+  <si>
+    <t>H. C.</t>
+  </si>
+  <si>
+    <t>person_244</t>
+  </si>
+  <si>
+    <t>person_245</t>
+  </si>
+  <si>
+    <t>Hospinianus</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>person_246</t>
+  </si>
+  <si>
+    <t>Erni</t>
+  </si>
+  <si>
+    <t>person_247</t>
+  </si>
+  <si>
+    <t>Tomman</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>person_248</t>
+  </si>
+  <si>
+    <t>Stukki</t>
+  </si>
+  <si>
+    <t>person_249</t>
+  </si>
+  <si>
+    <t>Zeller</t>
+  </si>
+  <si>
+    <t>person_250</t>
+  </si>
+  <si>
+    <t>Knecht im Sparenberg</t>
+  </si>
+  <si>
+    <t>person_251</t>
+  </si>
+  <si>
+    <t>Fr. Doctorin</t>
+  </si>
+  <si>
+    <t>Frau von "Doctor" Hottinger?</t>
+  </si>
+  <si>
+    <t>person_252</t>
+  </si>
+  <si>
+    <t>Kusen</t>
+  </si>
+  <si>
+    <t>Jost von</t>
+  </si>
+  <si>
+    <t>124071031</t>
+  </si>
+  <si>
+    <t>Zürcher Pfarrer und Prof. für Logik</t>
+  </si>
+  <si>
+    <t>person_253</t>
+  </si>
+  <si>
+    <t>Schulherr, Prof. für griechische Sprache</t>
+  </si>
+  <si>
+    <t>person_254</t>
+  </si>
+  <si>
+    <t>Gessner</t>
+  </si>
+  <si>
+    <t>Pfarrer zu Bassersdorf</t>
+  </si>
+  <si>
+    <t>person_255</t>
+  </si>
+  <si>
+    <t>Wöllwein</t>
+  </si>
+  <si>
+    <t>Johann Anton</t>
+  </si>
+  <si>
+    <t>123627850</t>
+  </si>
+  <si>
+    <t>Bürger und Handelsmann in Augsburg</t>
+  </si>
+  <si>
+    <t>person_256</t>
+  </si>
+  <si>
+    <t>person_257</t>
+  </si>
+  <si>
+    <t>person_258</t>
+  </si>
+  <si>
+    <t>person_259</t>
+  </si>
+  <si>
+    <t>person_260</t>
+  </si>
+  <si>
+    <t>person_261</t>
+  </si>
+  <si>
+    <t>person_262</t>
+  </si>
+  <si>
     <t>Ort-ID</t>
   </si>
   <si>
@@ -2952,30 +3279,96 @@
     <t>place_083</t>
   </si>
   <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
     <t>place_084</t>
   </si>
   <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Region in den Niederlanden</t>
+  </si>
+  <si>
     <t>place_085</t>
   </si>
   <si>
+    <t>Wigoltingen</t>
+  </si>
+  <si>
     <t>place_086</t>
   </si>
   <si>
+    <t>Kastalia</t>
+  </si>
+  <si>
+    <t>Quelle am Fuß des Parnass</t>
+  </si>
+  <si>
     <t>place_087</t>
   </si>
   <si>
+    <t>Legerberg</t>
+  </si>
+  <si>
     <t>place_088</t>
   </si>
   <si>
+    <t>Texel</t>
+  </si>
+  <si>
+    <t>Insel in den Niederlanden</t>
+  </si>
+  <si>
     <t>place_089</t>
   </si>
   <si>
+    <t>Vlie</t>
+  </si>
+  <si>
+    <t>Meerenge in den Niederlanden</t>
+  </si>
+  <si>
     <t>place_090</t>
   </si>
   <si>
+    <t>Indien</t>
+  </si>
+  <si>
     <t>place_091</t>
   </si>
   <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>place_092</t>
+  </si>
+  <si>
+    <t>place_093</t>
+  </si>
+  <si>
+    <t>place_094</t>
+  </si>
+  <si>
+    <t>place_095</t>
+  </si>
+  <si>
+    <t>place_096</t>
+  </si>
+  <si>
+    <t>place_097</t>
+  </si>
+  <si>
+    <t>place_098</t>
+  </si>
+  <si>
+    <t>place_099</t>
+  </si>
+  <si>
+    <t>place_100</t>
+  </si>
+  <si>
     <t>Werk-ID</t>
   </si>
   <si>
@@ -3123,21 +3516,48 @@
     <t>work_015</t>
   </si>
   <si>
+    <t>Türckischer Jammerspiegel</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
     <t>work_016</t>
   </si>
   <si>
+    <t>Leitungs-faden</t>
+  </si>
+  <si>
     <t>work_017</t>
   </si>
   <si>
+    <t>Buch von der Seelen-angſt Chriſti</t>
+  </si>
+  <si>
+    <t>Wilden, Abraham</t>
+  </si>
+  <si>
     <t>work_018</t>
   </si>
   <si>
+    <t>Verſuchungs-gabe</t>
+  </si>
+  <si>
+    <t>Groben, Jacob</t>
+  </si>
+  <si>
     <t>work_019</t>
   </si>
   <si>
+    <t>Kriegsbüchlin</t>
+  </si>
+  <si>
     <t>work_020</t>
   </si>
   <si>
+    <t>Buch der Psalmen</t>
+  </si>
+  <si>
     <t>work_021</t>
   </si>
   <si>
@@ -3268,6 +3688,12 @@
   </si>
   <si>
     <t>institution_012</t>
+  </si>
+  <si>
+    <t>Kartäuser</t>
+  </si>
+  <si>
+    <t>Katholischer Mönchsorden</t>
   </si>
   <si>
     <t>institution_013</t>
@@ -3640,8 +4066,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K221" displayName="Personenindex" name="Personenindex" id="1">
-  <autoFilter ref="$A$1:$K$221"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K261" displayName="Personenindex" name="Personenindex" id="1">
+  <autoFilter ref="$A$1:$K$261"/>
   <tableColumns count="11">
     <tableColumn name="Person-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3660,7 +4086,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F92" displayName="Orteindex" name="Orteindex" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F102" displayName="Orteindex" name="Orteindex" id="2">
   <tableColumns count="6">
     <tableColumn name="Ort-ID" id="1"/>
     <tableColumn name="Label [generiert, nicht manuell berarbeiten]" id="2"/>
@@ -3931,7 +4357,7 @@
     <col customWidth="1" min="4" max="4" width="18.75"/>
     <col customWidth="1" min="5" max="5" width="11.5"/>
     <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="17.38"/>
+    <col customWidth="1" min="7" max="7" width="19.5"/>
     <col customWidth="1" min="8" max="8" width="35.5"/>
     <col customWidth="1" min="9" max="9" width="22.13"/>
     <col customWidth="1" min="10" max="11" width="20.13"/>
@@ -3977,7 +4403,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B221" si="1">CONCATENATE(C2,", ",D2," (",E2,"-",F2,")")</f>
+        <f t="shared" ref="B2:B261" si="1">CONCATENATE(C2,", ",D2," (",E2,"-",F2,")")</f>
         <v>Simler, Johann Wilhelm (1605-1672)</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9288,7 +9714,9 @@
       <c r="H206" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="I206" s="13"/>
+      <c r="I206" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
     </row>
@@ -9312,7 +9740,9 @@
       <c r="H207" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="I207" s="13"/>
+      <c r="I207" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
     </row>
@@ -9336,7 +9766,9 @@
       <c r="H208" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="I208" s="13"/>
+      <c r="I208" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
     </row>
@@ -9358,7 +9790,9 @@
       <c r="H209" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="I209" s="13"/>
+      <c r="I209" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
     </row>
@@ -9382,7 +9816,9 @@
       <c r="H210" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="I210" s="13"/>
+      <c r="I210" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
     </row>
@@ -9404,7 +9840,9 @@
       <c r="H211" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="I211" s="13"/>
+      <c r="I211" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
     </row>
@@ -9414,188 +9852,1216 @@
       </c>
       <c r="B212" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C212" s="6"/>
+        <v>Wittib,  (-)</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>729</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="15"/>
       <c r="F212" s="16"/>
       <c r="G212" s="9"/>
-      <c r="H212" s="3"/>
+      <c r="H212" s="3" t="s">
+        <v>598</v>
+      </c>
       <c r="I212" s="13"/>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
     </row>
     <row r="213" ht="22.5" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B213" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C213" s="6"/>
+        <v>Graf von Sultz,  (-)</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213" s="15"/>
       <c r="F213" s="16"/>
       <c r="G213" s="9"/>
       <c r="H213" s="3"/>
-      <c r="I213" s="13"/>
+      <c r="I213" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
     </row>
     <row r="214" ht="22.5" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B214" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C214" s="6"/>
+        <v>Eglin,  (-)</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>733</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="15"/>
       <c r="F214" s="16"/>
       <c r="G214" s="9"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="13"/>
+      <c r="H214" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
     </row>
     <row r="215" ht="22.5" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B215" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C215" s="6"/>
+        <v>Wildhans von Breitenlandenberg,  (-1444)</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>736</v>
+      </c>
       <c r="D215" s="3"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="16"/>
+      <c r="F215" s="5">
+        <v>1444.0</v>
+      </c>
       <c r="G215" s="9"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="13"/>
+      <c r="H215" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
     </row>
     <row r="216" ht="22.5" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B216" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C216" s="6"/>
+        <v>Pfarrherr,  (-)</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>739</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="15"/>
       <c r="F216" s="16"/>
       <c r="G216" s="9"/>
       <c r="H216" s="3"/>
-      <c r="I216" s="13"/>
+      <c r="I216" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
     </row>
     <row r="217" ht="22.5" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B217" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="9"/>
+        <v>Schmid von Schwarzenhorn, Johann Rudolf (1590-1667)</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1590.0</v>
+      </c>
+      <c r="F217" s="5">
+        <v>1667.0</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>745</v>
+      </c>
       <c r="K217" s="9"/>
     </row>
     <row r="218" ht="22.5" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="B218" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C218" s="6"/>
-      <c r="D218" s="3"/>
+        <v>Schmid, Felix (-1598)</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E218" s="15"/>
-      <c r="F218" s="16"/>
+      <c r="F218" s="5">
+        <v>1598.0</v>
+      </c>
       <c r="G218" s="9"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="9"/>
+      <c r="H218" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>745</v>
+      </c>
       <c r="K218" s="9"/>
     </row>
     <row r="219" ht="22.5" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B219" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="3"/>
+        <v>Hessen, Heinrich (-)</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
       <c r="G219" s="9"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="13"/>
+      <c r="H219" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
     </row>
     <row r="220" ht="22.5" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B220" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="3"/>
+        <v>Ulr., H. (-)</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
       <c r="G220" s="9"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="13"/>
+      <c r="H220" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I220" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
     </row>
     <row r="221" ht="22.5" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="B221" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="3"/>
+        <v>Müller, J. L. (-)</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>756</v>
+      </c>
       <c r="E221" s="15"/>
       <c r="F221" s="16"/>
       <c r="G221" s="9"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="13"/>
+      <c r="H221" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="I221" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
     </row>
+    <row r="222" ht="22.5" customHeight="1">
+      <c r="A222" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B222" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Müller,  (-)</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I222" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
+    </row>
+    <row r="223" ht="22.5" customHeight="1">
+      <c r="A223" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B223" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Locher,  (-)</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
+    </row>
+    <row r="224" ht="22.5" customHeight="1">
+      <c r="A224" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B224" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>König, Caspar (-)</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E224" s="15"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+    </row>
+    <row r="225" ht="22.5" customHeight="1">
+      <c r="A225" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B225" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahn, Johann Heinrich (1593-1669)</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="5">
+        <v>1593.0</v>
+      </c>
+      <c r="F225" s="5">
+        <v>1669.0</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H225" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="I225" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="K225" s="9"/>
+    </row>
+    <row r="226" ht="22.5" customHeight="1">
+      <c r="A226" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B226" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Heinrich,  (-)</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
+    </row>
+    <row r="227" ht="22.5" customHeight="1">
+      <c r="A227" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B227" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>O., Jacob U. (-)</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E227" s="15"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
+    </row>
+    <row r="228" ht="22.5" customHeight="1">
+      <c r="A228" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B228" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Schneeberger,  (-)</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" ht="22.5" customHeight="1">
+      <c r="A229" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B229" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Zwingli, Ulrich (1484-1531)</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1484.0</v>
+      </c>
+      <c r="F229" s="5">
+        <v>1531.0</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="I229" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" ht="22.5" customHeight="1">
+      <c r="A230" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B230" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bullinger, Heinrich (1504-1575)</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E230" s="5">
+        <v>1504.0</v>
+      </c>
+      <c r="F230" s="5">
+        <v>1575.0</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
+    </row>
+    <row r="231" ht="22.5" customHeight="1">
+      <c r="A231" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B231" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Gwalther, Rudolf (1519-1586)</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E231" s="5">
+        <v>1519.0</v>
+      </c>
+      <c r="F231" s="5">
+        <v>1586.0</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H231" s="3"/>
+      <c r="I231" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" ht="22.5" customHeight="1">
+      <c r="A232" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B232" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Breitinger, Johann Jakob (1575-1645)</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E232" s="5">
+        <v>1575.0</v>
+      </c>
+      <c r="F232" s="5">
+        <v>1645.0</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H232" s="3"/>
+      <c r="I232" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
+    </row>
+    <row r="233" ht="22.5" customHeight="1">
+      <c r="A233" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B233" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jrminger, Jacob (-)</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E233" s="15"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
+    </row>
+    <row r="234" ht="22.5" customHeight="1">
+      <c r="A234" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B234" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fries, Jakob (-)</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E234" s="15"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J234" s="9"/>
+      <c r="K234" s="9"/>
+    </row>
+    <row r="235" ht="22.5" customHeight="1">
+      <c r="A235" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B235" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Geiger, Joh. Rud. (-)</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E235" s="15"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J235" s="9"/>
+      <c r="K235" s="9"/>
+    </row>
+    <row r="236" ht="22.5" customHeight="1">
+      <c r="A236" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B236" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Maurer, C. (-)</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E236" s="15"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
+    </row>
+    <row r="237" ht="22.5" customHeight="1">
+      <c r="A237" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B237" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Suter, C. (-)</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E237" s="15"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+    </row>
+    <row r="238" ht="22.5" customHeight="1">
+      <c r="A238" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B238" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Holzhalb, Joh. (-)</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E238" s="15"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+    </row>
+    <row r="239" ht="22.5" customHeight="1">
+      <c r="A239" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B239" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Wirtz, H. C. (-)</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E239" s="15"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
+    </row>
+    <row r="240" ht="22.5" customHeight="1">
+      <c r="A240" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B240" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Waser, Caspar (-)</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E240" s="15"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
+    </row>
+    <row r="241" ht="22.5" customHeight="1">
+      <c r="A241" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B241" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Hospinianus, R. (-)</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E241" s="15"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
+    </row>
+    <row r="242" ht="22.5" customHeight="1">
+      <c r="A242" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B242" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Erni, H. (-)</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E242" s="15"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+    </row>
+    <row r="243" ht="22.5" customHeight="1">
+      <c r="A243" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B243" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Tomman, P. (-)</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E243" s="15"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
+    </row>
+    <row r="244" ht="22.5" customHeight="1">
+      <c r="A244" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B244" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stukki, R. (-)</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E244" s="15"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
+    </row>
+    <row r="245" ht="22.5" customHeight="1">
+      <c r="A245" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B245" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Zeller, H. (-)</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E245" s="15"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J245" s="9"/>
+      <c r="K245" s="9"/>
+    </row>
+    <row r="246" ht="22.5" customHeight="1">
+      <c r="A246" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B246" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>, Jacob (-)</v>
+      </c>
+      <c r="C246" s="6"/>
+      <c r="D246" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E246" s="15"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I246" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
+    </row>
+    <row r="247" ht="22.5" customHeight="1">
+      <c r="A247" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B247" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fr. Doctorin,  (-)</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="I247" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
+    </row>
+    <row r="248" ht="22.5" customHeight="1">
+      <c r="A248" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B248" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Kusen, Jost von (1570-1630)</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E248" s="5">
+        <v>1570.0</v>
+      </c>
+      <c r="F248" s="5">
+        <v>1630.0</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="I248" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
+    </row>
+    <row r="249" ht="22.5" customHeight="1">
+      <c r="A249" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B249" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ulrich, Heinrich (-)</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E249" s="15"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
+    </row>
+    <row r="250" ht="22.5" customHeight="1">
+      <c r="A250" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B250" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Gessner,  (-)</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
+    </row>
+    <row r="251" ht="22.5" customHeight="1">
+      <c r="A251" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B251" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Wöllwein, Johann Anton (1616-1659)</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E251" s="5">
+        <v>1616.0</v>
+      </c>
+      <c r="F251" s="5">
+        <v>1659.0</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J251" s="9"/>
+      <c r="K251" s="9"/>
+    </row>
+    <row r="252" ht="22.5" customHeight="1">
+      <c r="A252" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B252" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C252" s="6"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
+    </row>
+    <row r="253" ht="22.5" customHeight="1">
+      <c r="A253" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B253" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C253" s="6"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
+    </row>
+    <row r="254" ht="22.5" customHeight="1">
+      <c r="A254" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B254" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C254" s="6"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
+    </row>
+    <row r="255" ht="22.5" customHeight="1">
+      <c r="A255" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B255" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C255" s="6"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
+    </row>
+    <row r="256" ht="22.5" customHeight="1">
+      <c r="A256" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B256" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C256" s="6"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="9"/>
+      <c r="K256" s="9"/>
+    </row>
+    <row r="257" ht="22.5" customHeight="1">
+      <c r="A257" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B257" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="9"/>
+    </row>
+    <row r="258" ht="22.5" customHeight="1">
+      <c r="A258" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B258" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C258" s="6"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+    </row>
+    <row r="259" ht="22.5" customHeight="1">
+      <c r="A259" s="3"/>
+      <c r="B259" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+    </row>
+    <row r="260" ht="22.5" customHeight="1">
+      <c r="A260" s="3"/>
+      <c r="B260" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C260" s="6"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="9"/>
+    </row>
+    <row r="261" ht="22.5" customHeight="1">
+      <c r="A261" s="3"/>
+      <c r="B261" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,  (-)</v>
+      </c>
+      <c r="C261" s="6"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I221">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I261">
       <formula1>"Historische Person,Fiktive Figur,Biblische Figur,Mythologische Figur"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C221 H2:H221 K2:K221"/>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A221"/>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B221 D2:D221 G2:G221"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C261 H2:H261 K2:K261"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A261"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B261 D2:D261 G2:G261"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="J2"/>
@@ -9626,10 +11092,13 @@
     <hyperlink r:id="rId26" ref="J203"/>
     <hyperlink r:id="rId27" ref="J204"/>
     <hyperlink r:id="rId28" ref="J205"/>
+    <hyperlink r:id="rId29" ref="J217"/>
+    <hyperlink r:id="rId30" ref="J218"/>
+    <hyperlink r:id="rId31" ref="J225"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9657,16 +11126,16 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>738</v>
+        <v>847</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>739</v>
+        <v>848</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>740</v>
+        <v>849</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -9677,90 +11146,90 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="B2" s="21" t="str">
-        <f t="shared" ref="B2:B92" si="1">CONCATENATE(C2)</f>
+        <f t="shared" ref="B2:B102" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>742</v>
+        <v>851</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>743</v>
+        <v>852</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>744</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>745</v>
+        <v>854</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Basel</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>746</v>
+        <v>855</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7" t="s">
-        <v>743</v>
+        <v>852</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>744</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>747</v>
+        <v>856</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>748</v>
+        <v>857</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>749</v>
+        <v>858</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
-        <v>750</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>751</v>
+        <v>860</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>752</v>
+        <v>861</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>754</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>755</v>
+        <v>864</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>756</v>
+        <v>865</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="13"/>
@@ -9768,82 +11237,82 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>757</v>
+        <v>866</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>758</v>
+        <v>867</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>759</v>
+        <v>868</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>760</v>
+        <v>869</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>761</v>
+        <v>870</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>762</v>
+        <v>871</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>763</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>764</v>
+        <v>873</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>765</v>
+        <v>874</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>744</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>766</v>
+        <v>875</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>767</v>
+        <v>876</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -9851,14 +11320,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>768</v>
+        <v>877</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>769</v>
+        <v>878</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="13"/>
@@ -9866,14 +11335,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>770</v>
+        <v>879</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>771</v>
+        <v>880</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="13"/>
@@ -9881,14 +11350,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>772</v>
+        <v>881</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>773</v>
+        <v>882</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="13"/>
@@ -9896,52 +11365,52 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>774</v>
+        <v>883</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>775</v>
+        <v>884</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="7" t="s">
-        <v>743</v>
+        <v>852</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>776</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>777</v>
+        <v>886</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>778</v>
+        <v>887</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="7" t="s">
-        <v>779</v>
+        <v>888</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>780</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>781</v>
+        <v>890</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>782</v>
+        <v>891</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="13"/>
@@ -9949,50 +11418,50 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>783</v>
+        <v>892</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>784</v>
+        <v>893</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="7" t="s">
-        <v>743</v>
+        <v>852</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>785</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>786</v>
+        <v>895</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>787</v>
+        <v>896</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
-        <v>788</v>
+        <v>897</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>789</v>
+        <v>898</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>790</v>
+        <v>899</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="13"/>
@@ -10000,33 +11469,33 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>791</v>
+        <v>900</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>792</v>
+        <v>901</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="7" t="s">
-        <v>779</v>
+        <v>888</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>793</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>794</v>
+        <v>903</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>795</v>
+        <v>904</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="13"/>
@@ -10034,120 +11503,120 @@
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>796</v>
+        <v>905</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>797</v>
+        <v>906</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>798</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>799</v>
+        <v>908</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>800</v>
+        <v>909</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>801</v>
+        <v>910</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>802</v>
+        <v>911</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>803</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>804</v>
+        <v>913</v>
       </c>
       <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>805</v>
+        <v>914</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>806</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>807</v>
+        <v>916</v>
       </c>
       <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>808</v>
+        <v>917</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>809</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>810</v>
+        <v>919</v>
       </c>
       <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>811</v>
+        <v>920</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="7" t="s">
-        <v>779</v>
+        <v>888</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>812</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>813</v>
+        <v>922</v>
       </c>
       <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="13"/>
@@ -10155,101 +11624,101 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>815</v>
+        <v>924</v>
       </c>
       <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>816</v>
+        <v>925</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>817</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>819</v>
+        <v>928</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="7" t="s">
-        <v>743</v>
+        <v>852</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>820</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>821</v>
+        <v>930</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>822</v>
+        <v>931</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="13"/>
       <c r="F32" s="3" t="s">
-        <v>823</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>825</v>
+        <v>934</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="13"/>
       <c r="F33" s="3" t="s">
-        <v>826</v>
+        <v>935</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>827</v>
+        <v>936</v>
       </c>
       <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>828</v>
+        <v>937</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
-        <v>829</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>830</v>
+        <v>939</v>
       </c>
       <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>831</v>
+        <v>940</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="13"/>
@@ -10257,14 +11726,14 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>832</v>
+        <v>941</v>
       </c>
       <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>833</v>
+        <v>942</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="13"/>
@@ -10272,14 +11741,14 @@
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>834</v>
+        <v>943</v>
       </c>
       <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>835</v>
+        <v>944</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="13"/>
@@ -10287,14 +11756,14 @@
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>837</v>
+        <v>946</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="13"/>
@@ -10302,14 +11771,14 @@
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>838</v>
+        <v>947</v>
       </c>
       <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>839</v>
+        <v>948</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="13"/>
@@ -10317,14 +11786,14 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>840</v>
+        <v>949</v>
       </c>
       <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>841</v>
+        <v>950</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="13"/>
@@ -10332,48 +11801,48 @@
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>842</v>
+        <v>951</v>
       </c>
       <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>843</v>
+        <v>952</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="13"/>
       <c r="F41" s="3" t="s">
-        <v>844</v>
+        <v>953</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>845</v>
+        <v>954</v>
       </c>
       <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>846</v>
+        <v>955</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
-        <v>847</v>
+        <v>956</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>849</v>
+        <v>958</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="13"/>
@@ -10381,50 +11850,50 @@
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>850</v>
+        <v>959</v>
       </c>
       <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>851</v>
+        <v>960</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>754</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>852</v>
+        <v>961</v>
       </c>
       <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>853</v>
+        <v>962</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>854</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>855</v>
+        <v>964</v>
       </c>
       <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>856</v>
+        <v>965</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="13"/>
@@ -10432,101 +11901,101 @@
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
-        <v>859</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>860</v>
+        <v>969</v>
       </c>
       <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>861</v>
+        <v>970</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>862</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>863</v>
+        <v>972</v>
       </c>
       <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>864</v>
+        <v>973</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
-        <v>865</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>866</v>
+        <v>975</v>
       </c>
       <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>867</v>
+        <v>976</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="7" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>868</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>869</v>
+        <v>978</v>
       </c>
       <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>870</v>
+        <v>979</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>871</v>
+        <v>980</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>872</v>
+        <v>981</v>
       </c>
       <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>873</v>
+        <v>982</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="13"/>
@@ -10534,14 +12003,14 @@
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>874</v>
+        <v>983</v>
       </c>
       <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>875</v>
+        <v>984</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="13"/>
@@ -10549,14 +12018,14 @@
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>876</v>
+        <v>985</v>
       </c>
       <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>877</v>
+        <v>986</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="13"/>
@@ -10564,31 +12033,31 @@
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>878</v>
+        <v>987</v>
       </c>
       <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>879</v>
+        <v>988</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="13"/>
       <c r="F55" s="3" t="s">
-        <v>744</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>880</v>
+        <v>989</v>
       </c>
       <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>881</v>
+        <v>990</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="13"/>
@@ -10596,31 +12065,31 @@
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>882</v>
+        <v>991</v>
       </c>
       <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>883</v>
+        <v>992</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>884</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>885</v>
+        <v>994</v>
       </c>
       <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>886</v>
+        <v>995</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="13"/>
@@ -10628,31 +12097,31 @@
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>887</v>
+        <v>996</v>
       </c>
       <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>888</v>
+        <v>997</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
-        <v>889</v>
+        <v>998</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>890</v>
+        <v>999</v>
       </c>
       <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>891</v>
+        <v>1000</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="13"/>
@@ -10660,118 +12129,118 @@
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>892</v>
+        <v>1001</v>
       </c>
       <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stein am Rhein</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>893</v>
+        <v>1002</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
-        <v>894</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>895</v>
+        <v>1004</v>
       </c>
       <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Marburg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>896</v>
+        <v>1005</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
-        <v>897</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>898</v>
+        <v>1007</v>
       </c>
       <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Elbląg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>899</v>
+        <v>1008</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>900</v>
+        <v>1009</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
-        <v>901</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>902</v>
+        <v>1011</v>
       </c>
       <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Preußen</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
-        <v>904</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>905</v>
+        <v>1014</v>
       </c>
       <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Baden</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>906</v>
+        <v>1015</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="13"/>
       <c r="F65" s="3" t="s">
-        <v>907</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>908</v>
+        <v>1017</v>
       </c>
       <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Schinznach</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>909</v>
+        <v>1018</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
-        <v>907</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>910</v>
+        <v>1019</v>
       </c>
       <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gyrenbad</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>911</v>
+        <v>1020</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="13"/>
@@ -10779,48 +12248,48 @@
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>912</v>
+        <v>1021</v>
       </c>
       <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wängibad</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>913</v>
+        <v>1022</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="13"/>
       <c r="F68" s="8" t="s">
-        <v>914</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>915</v>
+        <v>1024</v>
       </c>
       <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeugst</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>916</v>
+        <v>1025</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
-        <v>847</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>917</v>
+        <v>1026</v>
       </c>
       <c r="B70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bassersdorf</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>918</v>
+        <v>1027</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="13"/>
@@ -10828,14 +12297,14 @@
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>919</v>
+        <v>1028</v>
       </c>
       <c r="B71" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hauptwil</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>920</v>
+        <v>1029</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="13"/>
@@ -10843,14 +12312,14 @@
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>921</v>
+        <v>1030</v>
       </c>
       <c r="B72" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Schaffhausen</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>922</v>
+        <v>1031</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="13"/>
@@ -10858,65 +12327,65 @@
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B73" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wädenswil</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>924</v>
+        <v>1033</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
-        <v>925</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>926</v>
+        <v>1035</v>
       </c>
       <c r="B74" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Freie Ämter</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>927</v>
+        <v>1036</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="13"/>
       <c r="F74" s="3" t="s">
-        <v>928</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>929</v>
+        <v>1038</v>
       </c>
       <c r="B75" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Grüningen</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>930</v>
+        <v>1039</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
-        <v>925</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="B76" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kefikon</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>932</v>
+        <v>1041</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="13"/>
@@ -10924,14 +12393,14 @@
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>933</v>
+        <v>1042</v>
       </c>
       <c r="B77" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maienfeld</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>934</v>
+        <v>1043</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="13"/>
@@ -10939,14 +12408,14 @@
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>935</v>
+        <v>1044</v>
       </c>
       <c r="B78" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Greifensee (Schloss)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>936</v>
+        <v>1045</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="13"/>
@@ -10954,31 +12423,31 @@
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>937</v>
+        <v>1046</v>
       </c>
       <c r="B79" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Lindenhof (Zürich)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>938</v>
+        <v>1047</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="13"/>
       <c r="F79" s="3" t="s">
-        <v>939</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>940</v>
+        <v>1049</v>
       </c>
       <c r="B80" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Galg-Brunnen (Zürich)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>941</v>
+        <v>1050</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="13"/>
@@ -10986,14 +12455,14 @@
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>942</v>
+        <v>1051</v>
       </c>
       <c r="B81" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altes Kornhaus (Zürich)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>943</v>
+        <v>1052</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="13"/>
@@ -11001,14 +12470,14 @@
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>944</v>
+        <v>1053</v>
       </c>
       <c r="B82" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sparrenberg (Zürich)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>945</v>
+        <v>1054</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="13"/>
@@ -11016,14 +12485,14 @@
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>946</v>
+        <v>1055</v>
       </c>
       <c r="B83" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurgau</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>947</v>
+        <v>1056</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="13"/>
@@ -11031,127 +12500,281 @@
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>948</v>
+        <v>1057</v>
       </c>
       <c r="B84" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C84" s="3"/>
+        <v>Niederlande</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1058</v>
+      </c>
       <c r="D84" s="23"/>
       <c r="E84" s="13"/>
       <c r="F84" s="3"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>949</v>
+        <v>1059</v>
       </c>
       <c r="B85" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C85" s="3"/>
+        <v>Holland</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1060</v>
+      </c>
       <c r="D85" s="23"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>950</v>
+        <v>1062</v>
       </c>
       <c r="B86" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C86" s="3"/>
+        <v>Wigoltingen</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1063</v>
+      </c>
       <c r="D86" s="23"/>
       <c r="E86" s="13"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>951</v>
+        <v>1064</v>
       </c>
       <c r="B87" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C87" s="3"/>
+        <v>Kastalia</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="D87" s="23"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>952</v>
+        <v>1067</v>
       </c>
       <c r="B88" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C88" s="3"/>
+        <v>Legerberg</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="D88" s="23"/>
       <c r="E88" s="13"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>953</v>
+        <v>1069</v>
       </c>
       <c r="B89" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C89" s="3"/>
+        <v>Texel</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1070</v>
+      </c>
       <c r="D89" s="23"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>954</v>
+        <v>1072</v>
       </c>
       <c r="B90" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C90" s="3"/>
+        <v>Vlie</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="D90" s="23"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>955</v>
+        <v>1075</v>
       </c>
       <c r="B91" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C91" s="3"/>
+        <v>Indien</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="D91" s="23"/>
       <c r="E91" s="13"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>956</v>
+        <v>1077</v>
       </c>
       <c r="B92" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C92" s="3"/>
+        <v>Wien</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1078</v>
+      </c>
       <c r="D92" s="23"/>
       <c r="E92" s="13"/>
       <c r="F92" s="3"/>
     </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B93" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B94" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B95" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B96" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B97" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B98" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B99" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B100" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B101" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" ht="22.5" customHeight="1">
+      <c r="A102" s="3"/>
+      <c r="B102" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="3"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E92">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E102">
       <formula1>"Stadt,Gewässer,Berg"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A92 C2:C92 F2:F92"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A102 C2:C102 F2:F102"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F68"/>
@@ -11189,25 +12812,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>957</v>
+        <v>1088</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>958</v>
+        <v>1089</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>959</v>
+        <v>1090</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>960</v>
+        <v>1091</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>961</v>
+        <v>1092</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>962</v>
+        <v>1093</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -11218,64 +12841,64 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>963</v>
+        <v>1094</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B30" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>964</v>
+        <v>1095</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>965</v>
+        <v>1096</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>966</v>
+        <v>1097</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>742</v>
+        <v>851</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>967</v>
+        <v>1098</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>968</v>
+        <v>1099</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>969</v>
+        <v>1100</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>970</v>
+        <v>1101</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>971</v>
+        <v>1102</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>972</v>
+        <v>1103</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>973</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>974</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>589</v>
@@ -11288,17 +12911,17 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>975</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Psalm-Reimen und Melodien</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>976</v>
+        <v>1107</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>977</v>
+        <v>1108</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="23"/>
@@ -11308,17 +12931,17 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>978</v>
+        <v>1109</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>hundert Christliche/ neüaußgegebene Festpredigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>979</v>
+        <v>1110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>980</v>
+        <v>1111</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="23"/>
@@ -11328,17 +12951,17 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>981</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>982</v>
+        <v>1113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>983</v>
+        <v>1114</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="23"/>
@@ -11348,17 +12971,17 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>984</v>
+        <v>1115</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>985</v>
+        <v>1116</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>986</v>
+        <v>1117</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="23"/>
@@ -11368,17 +12991,17 @@
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>987</v>
+        <v>1118</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>988</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>989</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="23"/>
@@ -11388,17 +13011,17 @@
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>990</v>
+        <v>1121</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>991</v>
+        <v>1122</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>992</v>
+        <v>1123</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="23"/>
@@ -11408,17 +13031,17 @@
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>993</v>
+        <v>1124</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>994</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>995</v>
+        <v>1126</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="23"/>
@@ -11428,14 +13051,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>996</v>
+        <v>1127</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>997</v>
+        <v>1128</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="9"/>
@@ -11446,17 +13069,17 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>998</v>
+        <v>1129</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>999</v>
+        <v>1130</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1000</v>
+        <v>1131</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="23"/>
@@ -11466,14 +13089,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1001</v>
+        <v>1132</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1002</v>
+        <v>1133</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="9"/>
@@ -11484,14 +13107,14 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1003</v>
+        <v>1134</v>
       </c>
       <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1004</v>
+        <v>1135</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="9"/>
@@ -11502,15 +13125,19 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1005</v>
+        <v>1136</v>
       </c>
       <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C16" s="3"/>
+        <v>Türckischer Jammerspiegel</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1137</v>
+      </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="3" t="s">
+        <v>1138</v>
+      </c>
       <c r="F16" s="23"/>
       <c r="G16" s="9"/>
       <c r="H16" s="13"/>
@@ -11518,14 +13145,18 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1006</v>
+        <v>1139</v>
       </c>
       <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="23"/>
+        <v>Leitungs-faden</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="23"/>
       <c r="G17" s="9"/>
@@ -11534,14 +13165,18 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1007</v>
+        <v>1141</v>
       </c>
       <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="23"/>
+        <v>Buch von der Seelen-angſt Chriſti</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1143</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="23"/>
       <c r="G18" s="9"/>
@@ -11550,14 +13185,18 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1008</v>
+        <v>1144</v>
       </c>
       <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="23"/>
+        <v>Verſuchungs-gabe</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1146</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="23"/>
       <c r="G19" s="9"/>
@@ -11566,13 +13205,15 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1009</v>
+        <v>1147</v>
       </c>
       <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C20" s="3"/>
+        <v>Kriegsbüchlin</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1148</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
       <c r="F20" s="23"/>
@@ -11582,13 +13223,15 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1010</v>
+        <v>1149</v>
       </c>
       <c r="B21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C21" s="3"/>
+        <v>Buch der Psalmen</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
       <c r="F21" s="23"/>
@@ -11598,7 +13241,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1011</v>
+        <v>1151</v>
       </c>
       <c r="B22" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11614,7 +13257,7 @@
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1012</v>
+        <v>1152</v>
       </c>
       <c r="B23" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11630,7 +13273,7 @@
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1013</v>
+        <v>1153</v>
       </c>
       <c r="B24" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11646,7 +13289,7 @@
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1014</v>
+        <v>1154</v>
       </c>
       <c r="B25" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11662,7 +13305,7 @@
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>1015</v>
+        <v>1155</v>
       </c>
       <c r="B26" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11678,7 +13321,7 @@
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1016</v>
+        <v>1156</v>
       </c>
       <c r="B27" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11694,7 +13337,7 @@
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1017</v>
+        <v>1157</v>
       </c>
       <c r="B28" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11710,7 +13353,7 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1018</v>
+        <v>1158</v>
       </c>
       <c r="B29" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11726,7 +13369,7 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1019</v>
+        <v>1159</v>
       </c>
       <c r="B30" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11776,19 +13419,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1020</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>739</v>
+        <v>848</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1021</v>
+        <v>1161</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -11796,69 +13439,69 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1022</v>
+        <v>1162</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B14" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1023</v>
+        <v>1163</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="26" t="s">
-        <v>1024</v>
+        <v>1164</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1025</v>
+        <v>1165</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1026</v>
+        <v>1166</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1027</v>
+        <v>1167</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>1028</v>
+        <v>1168</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1029</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1030</v>
+        <v>1170</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Deutschgesinnte Genossenschaft (Lilien-Zunft)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1031</v>
+        <v>1171</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1032</v>
+        <v>1172</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1033</v>
+        <v>1173</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1034</v>
+        <v>1174</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -11866,103 +13509,103 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1035</v>
+        <v>1175</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1036</v>
+        <v>1176</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1037</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1038</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1039</v>
+        <v>1179</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>1040</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1041</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1042</v>
+        <v>1182</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>1043</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1044</v>
+        <v>1184</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1045</v>
+        <v>1185</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1046</v>
+        <v>1186</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>1047</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1048</v>
+        <v>1188</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1049</v>
+        <v>1189</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1050</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>1051</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1052</v>
+        <v>1192</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Hohe Schule Marburg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1053</v>
+        <v>1193</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13"/>
@@ -11970,20 +13613,24 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1054</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C12" s="3"/>
+        <v>Kartäuser</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1195</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="3" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1055</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11996,7 +13643,7 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1056</v>
+        <v>1198</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
@@ -12043,19 +13690,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1057</v>
+        <v>1199</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1058</v>
+        <v>1200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1059</v>
+        <v>1201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1060</v>
+        <v>1202</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -12063,26 +13710,26 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1061</v>
+        <v>1203</v>
       </c>
       <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1062</v>
+        <v>1204</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1063</v>
+        <v>1205</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1064</v>
+        <v>1206</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1065</v>
+        <v>1207</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
@@ -12095,7 +13742,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1066</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -12108,7 +13755,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1067</v>
+        <v>1209</v>
       </c>
       <c r="B5" s="21" t="str">
         <f t="shared" si="1"/>
@@ -12121,7 +13768,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1068</v>
+        <v>1210</v>
       </c>
       <c r="B6" s="21" t="str">
         <f t="shared" si="1"/>
@@ -12134,7 +13781,7 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1069</v>
+        <v>1211</v>
       </c>
       <c r="B7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -12147,7 +13794,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1070</v>
+        <v>1212</v>
       </c>
       <c r="B8" s="21" t="str">
         <f t="shared" si="1"/>

--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1294">
   <si>
     <t>Person-ID</t>
   </si>
@@ -843,7 +843,10 @@
     <t>person_065</t>
   </si>
   <si>
-    <t>Judas</t>
+    <t>Judas Iskariot</t>
+  </si>
+  <si>
+    <t>118558536</t>
   </si>
   <si>
     <t>Apostel</t>
@@ -873,7 +876,10 @@
     <t>person_068</t>
   </si>
   <si>
-    <t>Maria Magdalena</t>
+    <t>Maria von Nazaret</t>
+  </si>
+  <si>
+    <t>118640909</t>
   </si>
   <si>
     <t>Mutter von Jesus</t>
@@ -891,6 +897,12 @@
     <t>Pilatus</t>
   </si>
   <si>
+    <t>Pontius</t>
+  </si>
+  <si>
+    <t>118792172</t>
+  </si>
+  <si>
     <t>Römischer Präfekt von Judäa</t>
   </si>
   <si>
@@ -949,6 +961,9 @@
   </si>
   <si>
     <t>Satan</t>
+  </si>
+  <si>
+    <t>4059588-2</t>
   </si>
   <si>
     <t>person_079</t>
@@ -2778,9 +2793,27 @@
     <t>person_274</t>
   </si>
   <si>
+    <t>Lucretia</t>
+  </si>
+  <si>
+    <t>118574817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Römische Gattin des Tarquinius Collatinus </t>
+  </si>
+  <si>
     <t>person_275</t>
   </si>
   <si>
+    <t>Ovid</t>
+  </si>
+  <si>
+    <t>118590995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antiker römischer Dichter </t>
+  </si>
+  <si>
     <t>person_276</t>
   </si>
   <si>
@@ -2985,6 +3018,9 @@
     <t>Jerusalem</t>
   </si>
   <si>
+    <t>Salem</t>
+  </si>
+  <si>
     <t>place_022</t>
   </si>
   <si>
@@ -3510,9 +3546,15 @@
     <t>place_092</t>
   </si>
   <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
     <t>place_093</t>
   </si>
   <si>
+    <t>Ölberg</t>
+  </si>
+  <si>
     <t>place_094</t>
   </si>
   <si>
@@ -3591,19 +3633,31 @@
     <t>work_004</t>
   </si>
   <si>
-    <t>Psalm-Reimen und Melodien</t>
+    <t>Der Psalter dess Königlichen Propheten Dauids/ Jn deutsche reymen verstendiglich vnd deutlich gebracht/ mit vorgehender anzeigung der reymen weise/ auch eines jeden Psalmes Jnhalt</t>
   </si>
   <si>
     <t>Lobwasser, Ambrosius</t>
   </si>
   <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
     <t>work_005</t>
   </si>
   <si>
-    <t>hundert Christliche/ neüaußgegebene Festpredigen</t>
+    <t>Hundert christliche Fäst-Predigen</t>
   </si>
   <si>
     <t>Weiss, Felix</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>Michael Schuffelberger</t>
   </si>
   <si>
     <t>work_006</t>
@@ -6325,7 +6379,7 @@
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Judas,  (-)</v>
+        <v>Judas Iskariot,  (-)</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>268</v>
@@ -6333,9 +6387,11 @@
       <c r="D65" s="3"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="H65" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>201</v>
@@ -6345,21 +6401,21 @@
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel,  (-)</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>201</v>
@@ -6369,23 +6425,23 @@
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Herodes,  (-)</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>201</v>
@@ -6395,21 +6451,23 @@
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Maria Magdalena,  (-)</v>
+        <v>Maria von Nazaret,  (-)</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="H68" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>201</v>
@@ -6419,14 +6477,14 @@
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Nikodemus,  (-)</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="5"/>
@@ -6443,21 +6501,25 @@
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Pilatus,  (-)</v>
+        <v>Pilatus, Pontius (-)</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H70" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>201</v>
@@ -6467,21 +6529,21 @@
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Titus,  (-)</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="9"/>
       <c r="H71" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="9"/>
@@ -6489,23 +6551,23 @@
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon Petrus,  (-)</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>201</v>
@@ -6515,7 +6577,7 @@
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6528,10 +6590,10 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>201</v>
@@ -6541,21 +6603,21 @@
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="9"/>
       <c r="H74" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>201</v>
@@ -6565,21 +6627,21 @@
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jonas,  (-)</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="9"/>
       <c r="H75" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>201</v>
@@ -6589,14 +6651,14 @@
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Joseph,  (-)</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="5"/>
@@ -6613,14 +6675,14 @@
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Saul, dessen Sohn,  (-)</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="5"/>
@@ -6637,19 +6699,21 @@
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Satan,  (-)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="H78" s="3" t="s">
         <v>201</v>
       </c>
@@ -6661,14 +6725,14 @@
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abigail,  (-)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="5"/>
@@ -6685,14 +6749,14 @@
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hanna,  (-)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="5"/>
@@ -6709,14 +6773,14 @@
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Susanna,  (-)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5"/>
@@ -6733,14 +6797,14 @@
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther,  (-)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="5"/>
@@ -6757,14 +6821,14 @@
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jaël,  (-)</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5"/>
@@ -6781,14 +6845,14 @@
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tobias,  (-)</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
@@ -6805,21 +6869,21 @@
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asarias,  (-)</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="9"/>
       <c r="H85" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>201</v>
@@ -6829,23 +6893,23 @@
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Boreas,  (-)</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>189</v>
@@ -6855,23 +6919,23 @@
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ceres,  (-)</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>189</v>
@@ -6881,23 +6945,23 @@
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amor,  (-)</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>189</v>
@@ -6907,23 +6971,23 @@
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sokrates,  (-)</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="9"/>
@@ -6931,23 +6995,23 @@
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Xantippe,  (-)</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="9"/>
@@ -6955,23 +7019,23 @@
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mars,  (-)</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>189</v>
@@ -6981,23 +7045,23 @@
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Apollo (Phoebus),  (-)</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>189</v>
@@ -7007,21 +7071,21 @@
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sirius,  (-)</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="9"/>
       <c r="H93" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>189</v>
@@ -7031,14 +7095,14 @@
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rebecca,  (-)</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
@@ -7055,21 +7119,21 @@
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asteria,  (-)</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="9"/>
       <c r="H95" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="9"/>
@@ -7077,21 +7141,21 @@
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sylvia,  (-)</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="9"/>
       <c r="H96" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="9"/>
@@ -7099,21 +7163,21 @@
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Felicitas,  (-)</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="9"/>
       <c r="H97" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="9"/>
@@ -7121,21 +7185,21 @@
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="9"/>
       <c r="H98" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="9"/>
@@ -7143,7 +7207,7 @@
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7157,7 +7221,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="9"/>
       <c r="H99" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="9"/>
@@ -7165,14 +7229,14 @@
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sara,  (-)</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="5"/>
@@ -7189,23 +7253,23 @@
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hesiodus,  (-)</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="9"/>
@@ -7213,23 +7277,23 @@
     </row>
     <row r="102" ht="22.5" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Parmenides,  (-)</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="9"/>
@@ -7237,20 +7301,20 @@
     </row>
     <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salomon,  (-)</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>201</v>
@@ -7263,20 +7327,20 @@
     </row>
     <row r="104" ht="22.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Isaak,  (-)</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>201</v>
@@ -7289,14 +7353,14 @@
     </row>
     <row r="105" ht="22.5" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rahel,  (-)</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="5"/>
@@ -7313,20 +7377,20 @@
     </row>
     <row r="106" ht="22.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hiob,  (-)</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>201</v>
@@ -7339,14 +7403,14 @@
     </row>
     <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simson,  (-)</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="5"/>
@@ -7363,21 +7427,21 @@
     </row>
     <row r="108" ht="22.5" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ben Sira,  (-)</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="9"/>
       <c r="H108" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="9"/>
@@ -7385,20 +7449,20 @@
     </row>
     <row r="109" ht="22.5" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wilhelm Tell,  (-)</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="13"/>
@@ -7407,23 +7471,23 @@
     </row>
     <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zephyr,  (-)</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>189</v>
@@ -7433,21 +7497,21 @@
     </row>
     <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Matthias,  (-)</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="9"/>
       <c r="H111" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>201</v>
@@ -7457,21 +7521,21 @@
     </row>
     <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Friedensfürst,  (-)</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="9"/>
       <c r="H112" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="9"/>
@@ -7479,21 +7543,21 @@
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus,  (-)</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="9"/>
       <c r="H113" s="3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="9"/>
@@ -7501,21 +7565,21 @@
     </row>
     <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus, dessen Frau,  (-)</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="9"/>
       <c r="H114" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="9"/>
@@ -7523,20 +7587,20 @@
     </row>
     <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Moses,  (-)</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>201</v>
@@ -7549,23 +7613,23 @@
     </row>
     <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Orestes,  (-)</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>189</v>
@@ -7575,21 +7639,21 @@
     </row>
     <row r="117" ht="22.5" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pylades,  (-)</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="9"/>
       <c r="H117" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>189</v>
@@ -7599,21 +7663,21 @@
     </row>
     <row r="118" ht="22.5" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thurik,  (-)</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="9"/>
       <c r="H118" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>189</v>
@@ -7623,21 +7687,21 @@
     </row>
     <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Midas,  (-)</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="9"/>
       <c r="H119" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>189</v>
@@ -7647,21 +7711,21 @@
     </row>
     <row r="120" ht="22.5" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon,  (-)</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="9"/>
       <c r="H120" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>189</v>
@@ -7671,23 +7735,23 @@
     </row>
     <row r="121" ht="22.5" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Damokles,  (-)</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="9"/>
@@ -7695,23 +7759,23 @@
     </row>
     <row r="122" ht="22.5" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dionysius I. von Syrakus,  (-)</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="9"/>
@@ -7719,23 +7783,23 @@
     </row>
     <row r="123" ht="22.5" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kleopatra VII.,  (-)</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="9"/>
@@ -7743,23 +7807,23 @@
     </row>
     <row r="124" ht="22.5" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Marcus Antonius,  (-)</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="9"/>
@@ -7767,23 +7831,23 @@
     </row>
     <row r="125" ht="22.5" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Klio,  (-)</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>189</v>
@@ -7793,23 +7857,23 @@
     </row>
     <row r="126" ht="22.5" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Flora,  (-)</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>189</v>
@@ -7819,14 +7883,14 @@
     </row>
     <row r="127" ht="22.5" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="5"/>
@@ -7839,21 +7903,21 @@
     </row>
     <row r="128" ht="22.5" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V.,  (-)</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="9"/>
       <c r="H128" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>16</v>
@@ -7863,21 +7927,21 @@
     </row>
     <row r="129" ht="22.5" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V., dessen Frau,  (-)</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="9"/>
       <c r="H129" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>16</v>
@@ -7887,21 +7951,21 @@
     </row>
     <row r="130" ht="22.5" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sch. H.,  (-)</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="9"/>
       <c r="H130" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>16</v>
@@ -7911,14 +7975,14 @@
     </row>
     <row r="131" ht="22.5" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B131" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser, Johann Heinrich (1600-1669)</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>40</v>
@@ -7930,66 +7994,66 @@
         <v>1669.0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K131" s="9"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B132" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser-Ziegler, Jahel (-)</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="9"/>
       <c r="H132" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K132" s="9"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B133" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Caspar W.,  (-)</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>16</v>
@@ -7999,21 +8063,21 @@
     </row>
     <row r="134" ht="22.5" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B134" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther O.,  (-)</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="9"/>
       <c r="H134" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>16</v>
@@ -8023,14 +8087,14 @@
     </row>
     <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B135" s="4" t="str">
         <f t="shared" si="1"/>
         <v>G. H.,  (-)</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="5"/>
@@ -8045,21 +8109,21 @@
     </row>
     <row r="136" ht="22.5" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B136" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. C.,  (-)</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="9"/>
       <c r="H136" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>16</v>
@@ -8069,17 +8133,17 @@
     </row>
     <row r="137" ht="22.5" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B137" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Hercules von (1617-1686)</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E137" s="5">
         <v>1617.0</v>
@@ -8093,23 +8157,23 @@
         <v>16</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K137" s="9"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B138" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Barbara Dorothea von (1629-1660)</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E138" s="5">
         <v>1629.0</v>
@@ -8119,26 +8183,26 @@
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K138" s="9"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B139" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. L.,  (-)</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="5"/>
@@ -8153,21 +8217,21 @@
     </row>
     <row r="140" ht="22.5" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B140" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. A.,  (-)</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="9"/>
       <c r="H140" s="3" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>16</v>
@@ -8177,21 +8241,21 @@
     </row>
     <row r="141" ht="22.5" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B141" s="4" t="str">
         <f t="shared" si="1"/>
         <v>B. M.,  (-)</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="9"/>
       <c r="H141" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>16</v>
@@ -8201,73 +8265,73 @@
     </row>
     <row r="142" ht="22.5" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B142" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. H.,  (-)</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="9"/>
       <c r="H142" s="3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K142" s="9"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B143" s="4" t="str">
         <f t="shared" si="1"/>
         <v>D. M.,  (-)</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="9"/>
       <c r="H143" s="3" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K143" s="9"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B144" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gottfrid,  (-)</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="9"/>
       <c r="H144" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>16</v>
@@ -8277,21 +8341,21 @@
     </row>
     <row r="145" ht="22.5" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="9"/>
       <c r="H145" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>16</v>
@@ -8301,21 +8365,21 @@
     </row>
     <row r="146" ht="22.5" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B146" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. Schw.,  (-)</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="9"/>
       <c r="H146" s="3" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>16</v>
@@ -8325,21 +8389,21 @@
     </row>
     <row r="147" ht="22.5" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B147" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. K.,  (-)</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="9"/>
       <c r="H147" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>16</v>
@@ -8349,14 +8413,14 @@
     </row>
     <row r="148" ht="22.5" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B148" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ott, Hans Heinrich (-)</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>64</v>
@@ -8373,14 +8437,14 @@
     </row>
     <row r="149" ht="22.5" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B149" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. W.,  (-)</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="5"/>
@@ -8395,21 +8459,21 @@
     </row>
     <row r="150" ht="22.5" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B150" s="4" t="str">
         <f t="shared" si="1"/>
         <v>V. L.,  (-)</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="9"/>
       <c r="H150" s="3" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>16</v>
@@ -8419,14 +8483,14 @@
     </row>
     <row r="151" ht="22.5" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B151" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. Sch.,  (-)</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="5"/>
@@ -8441,21 +8505,21 @@
     </row>
     <row r="152" ht="22.5" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B152" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. H.,  (-)</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="9"/>
       <c r="H152" s="3" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>16</v>
@@ -8465,14 +8529,14 @@
     </row>
     <row r="153" ht="22.5" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B153" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. H.,  (-)</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="5"/>
@@ -8483,55 +8547,55 @@
         <v>16</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K153" s="9"/>
     </row>
     <row r="154" ht="22.5" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B154" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. W.,  (-)</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="9"/>
       <c r="H154" s="3" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K154" s="9"/>
     </row>
     <row r="155" ht="22.5" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B155" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Koller, Elisabeth (-)</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="9"/>
       <c r="H155" s="3" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="I155" s="7" t="s">
         <v>16</v>
@@ -8543,17 +8607,17 @@
     </row>
     <row r="156" ht="22.5" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B156" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lobwasser, Ambrosius (1515-1585)</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E156" s="5">
         <v>1515.0</v>
@@ -8562,10 +8626,10 @@
         <v>1585.0</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>16</v>
@@ -8575,22 +8639,22 @@
     </row>
     <row r="157" ht="22.5" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B157" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vollenweider, Jakob (-)</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="7" t="s">
@@ -8601,7 +8665,7 @@
     </row>
     <row r="158" ht="22.5" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B158" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8611,7 +8675,7 @@
         <v>183</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E158" s="5">
         <v>1606.0</v>
@@ -8620,7 +8684,7 @@
         <v>1660.0</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>185</v>
@@ -8633,23 +8697,23 @@
     </row>
     <row r="159" ht="22.5" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B159" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Burkharten, Kuenraht (-)</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="9"/>
       <c r="H159" s="3" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="I159" s="7" t="s">
         <v>16</v>
@@ -8659,14 +8723,14 @@
     </row>
     <row r="160" ht="22.5" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B160" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ardüser, Johann (1585-1665)</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>101</v>
@@ -8678,7 +8742,7 @@
         <v>1665.0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="7" t="s">
@@ -8689,25 +8753,25 @@
     </row>
     <row r="161" ht="22.5" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B161" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hegner, Diethelm  (-)</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="3" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>16</v>
@@ -8717,22 +8781,22 @@
     </row>
     <row r="162" ht="22.5" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B162" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Trigland, Jacobus (-)</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="7" t="s">
@@ -8743,17 +8807,17 @@
     </row>
     <row r="163" ht="22.5" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B163" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zwinger, D. (-)</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -8767,14 +8831,14 @@
     </row>
     <row r="164" ht="22.5" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B164" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Genathen, Johann Jakob (-)</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>30</v>
@@ -8782,10 +8846,10 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="I164" s="7" t="s">
         <v>16</v>
@@ -8795,7 +8859,7 @@
     </row>
     <row r="165" ht="22.5" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B165" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8821,27 +8885,27 @@
     </row>
     <row r="166" ht="22.5" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B166" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hess, Caspar (-1631)</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
         <v>1631.0</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>16</v>
@@ -8851,17 +8915,17 @@
     </row>
     <row r="167" ht="22.5" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B167" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wolfen, Hans Jakob (-)</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="16"/>
@@ -8875,22 +8939,22 @@
     </row>
     <row r="168" ht="22.5" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B168" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Spöri, Felix Christian (-)</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="16"/>
       <c r="G168" s="3" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="7" t="s">
@@ -8901,7 +8965,7 @@
     </row>
     <row r="169" ht="22.5" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B169" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8911,7 +8975,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="5">
@@ -8927,21 +8991,21 @@
     </row>
     <row r="170" ht="22.5" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B170" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gwalther,  (-)</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="15"/>
       <c r="F170" s="16"/>
       <c r="G170" s="9"/>
       <c r="H170" s="3" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>16</v>
@@ -8951,23 +9015,23 @@
     </row>
     <row r="171" ht="22.5" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B171" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Weiss, Caspar (-)</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="16"/>
       <c r="G171" s="9"/>
       <c r="H171" s="17" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>16</v>
@@ -8977,7 +9041,7 @@
     </row>
     <row r="172" ht="22.5" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B172" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8991,7 +9055,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="9"/>
       <c r="H172" s="17" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>16</v>
@@ -9001,21 +9065,21 @@
     </row>
     <row r="173" ht="22.5" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B173" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bas,  (-)</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="15"/>
       <c r="F173" s="16"/>
       <c r="G173" s="9"/>
       <c r="H173" s="3" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I173" s="18"/>
       <c r="J173" s="9"/>
@@ -9023,14 +9087,14 @@
     </row>
     <row r="174" ht="22.5" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B174" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H.H.J. Gw. s. A.Z.Fr.M.,  (-)</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="15"/>
@@ -9045,23 +9109,23 @@
     </row>
     <row r="175" ht="22.5" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B175" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hofm., Joh. (-)</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E175" s="15"/>
       <c r="F175" s="16"/>
       <c r="G175" s="9"/>
       <c r="H175" s="3" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="I175" s="7" t="s">
         <v>16</v>
@@ -9071,22 +9135,22 @@
     </row>
     <row r="176" ht="22.5" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B176" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Cyrene, Simon von (-)</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E176" s="15"/>
       <c r="F176" s="16"/>
       <c r="G176" s="3" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>201</v>
@@ -9099,23 +9163,23 @@
     </row>
     <row r="177" ht="22.5" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B177" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thomas,  (-)</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="15"/>
       <c r="F177" s="16"/>
       <c r="G177" s="3" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I177" s="7" t="s">
         <v>201</v>
@@ -9125,23 +9189,23 @@
     </row>
     <row r="178" ht="22.5" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B178" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Phaeton,  (-)</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="15"/>
       <c r="F178" s="16"/>
       <c r="G178" s="3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="I178" s="7" t="s">
         <v>189</v>
@@ -9151,14 +9215,14 @@
     </row>
     <row r="179" ht="22.5" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B179" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lukas,  (-)</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="15"/>
@@ -9175,20 +9239,20 @@
     </row>
     <row r="180" ht="22.5" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B180" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pallas Athena,  (-)</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="15"/>
       <c r="F180" s="16"/>
       <c r="G180" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>189</v>
@@ -9201,23 +9265,23 @@
     </row>
     <row r="181" ht="22.5" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B181" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bacchus,  (-)</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="15"/>
       <c r="F181" s="16"/>
       <c r="G181" s="3" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="I181" s="7" t="s">
         <v>189</v>
@@ -9227,21 +9291,21 @@
     </row>
     <row r="182" ht="22.5" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B182" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Darius,  (-)</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="15"/>
       <c r="F182" s="16"/>
       <c r="G182" s="9"/>
       <c r="H182" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I182" s="7" t="s">
         <v>16</v>
@@ -9251,21 +9315,21 @@
     </row>
     <row r="183" ht="22.5" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B183" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kyros,  (-)</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="15"/>
       <c r="F183" s="16"/>
       <c r="G183" s="9"/>
       <c r="H183" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I183" s="13"/>
       <c r="J183" s="9"/>
@@ -9273,25 +9337,25 @@
     </row>
     <row r="184" ht="22.5" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B184" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hippo, Augustinus von (-)</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="16"/>
       <c r="G184" s="3" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="I184" s="13"/>
       <c r="J184" s="9"/>
@@ -9299,14 +9363,14 @@
     </row>
     <row r="185" ht="22.5" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B185" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lazarus,  (-)</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="15"/>
@@ -9323,14 +9387,14 @@
     </row>
     <row r="186" ht="22.5" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B186" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lot,  (-)</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="15"/>
@@ -9347,21 +9411,21 @@
     </row>
     <row r="187" ht="22.5" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B187" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hans Rudolf,  (-)</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="15"/>
       <c r="F187" s="16"/>
       <c r="G187" s="9"/>
       <c r="H187" s="3" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>16</v>
@@ -9371,7 +9435,7 @@
     </row>
     <row r="188" ht="22.5" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B188" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9381,12 +9445,12 @@
         <v>12</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="E188" s="15"/>
       <c r="F188" s="16"/>
       <c r="G188" s="3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="7" t="s">
@@ -9397,17 +9461,17 @@
     </row>
     <row r="189" ht="22.5" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B189" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bachofen, Johann Ulrich (1643-1700)</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="E189" s="5">
         <v>1643.0</v>
@@ -9416,7 +9480,7 @@
         <v>1700.0</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>185</v>
@@ -9429,17 +9493,17 @@
     </row>
     <row r="190" ht="22.5" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grebel, Hans Konrad (1615-1674)</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E190" s="5">
         <v>1615.0</v>
@@ -9448,57 +9512,57 @@
         <v>1674.0</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="I190" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K190" s="9"/>
     </row>
     <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gossweiler, Emerentia (-)</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
       <c r="G191" s="9"/>
       <c r="H191" s="3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="I191" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K191" s="9"/>
     </row>
     <row r="192" ht="22.5" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B192" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lochmann, Heinrich (1613-1667)</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>35</v>
@@ -9510,29 +9574,29 @@
         <v>1667.0</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="K192" s="9"/>
     </row>
     <row r="193" ht="22.5" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B193" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulrich, Johann Jakob (1602-1668)</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>30</v>
@@ -9544,130 +9608,130 @@
         <v>1668.0</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="I193" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="K193" s="9"/>
     </row>
     <row r="194" ht="22.5" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B194" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Orelli, Anna (-)</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="16"/>
       <c r="G194" s="9"/>
       <c r="H194" s="3" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="I194" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="K194" s="9"/>
     </row>
     <row r="195" ht="22.5" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B195" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C. E. H.,  (-)</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="15"/>
       <c r="F195" s="16"/>
       <c r="G195" s="9"/>
       <c r="H195" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="I195" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K195" s="9"/>
     </row>
     <row r="196" ht="22.5" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B196" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C. H.,  (-)</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="9"/>
       <c r="H196" s="3" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="I196" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="K196" s="9"/>
     </row>
     <row r="197" ht="22.5" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B197" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grob, Hans Jakob (-)</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E197" s="15"/>
       <c r="F197" s="16"/>
       <c r="G197" s="9"/>
       <c r="H197" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="I197" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="K197" s="9"/>
     </row>
     <row r="198" ht="22.5" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B198" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9677,7 +9741,7 @@
         <v>63</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E198" s="15"/>
       <c r="F198" s="16"/>
@@ -9687,23 +9751,23 @@
         <v>16</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="K198" s="9"/>
     </row>
     <row r="199" ht="22.5" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B199" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Klingler, Kaspar (-)</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
@@ -9713,23 +9777,23 @@
         <v>16</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="K199" s="9"/>
     </row>
     <row r="200" ht="22.5" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B200" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Spöndli, Dorothea (-)</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E200" s="15"/>
       <c r="F200" s="16"/>
@@ -9739,23 +9803,23 @@
         <v>16</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="K200" s="9"/>
     </row>
     <row r="201" ht="22.5" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B201" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hirzel, Hans Caspar (1617-1691)</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E201" s="5">
         <v>1617.0</v>
@@ -9764,32 +9828,32 @@
         <v>1691.0</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="I201" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K201" s="9"/>
     </row>
     <row r="202" ht="22.5" customHeight="1">
       <c r="A202" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B202" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Hirzel, Salomon (1580-1652)</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B202" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Hirzel, Salomon (1580-1652)</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>692</v>
-      </c>
       <c r="D202" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E202" s="5">
         <v>1580.0</v>
@@ -9798,60 +9862,60 @@
         <v>1652.0</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="I202" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K202" s="9"/>
     </row>
     <row r="203" ht="22.5" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B203" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis-Soglio, Maria Ursina von  (-)</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="16"/>
       <c r="G203" s="9"/>
       <c r="H203" s="3" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="I203" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K203" s="9"/>
     </row>
     <row r="204" ht="22.5" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B204" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Brügger, Andreas von (1588-1653)</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E204" s="5">
         <v>1588.0</v>
@@ -9860,36 +9924,36 @@
         <v>1653.0</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H204" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="I204" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J204" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="K204" s="9"/>
     </row>
     <row r="205" ht="22.5" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B205" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Anhorn,  (-)</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="15"/>
       <c r="F205" s="16"/>
       <c r="G205" s="9"/>
       <c r="H205" s="3" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="I205" s="7" t="s">
         <v>16</v>
@@ -9899,14 +9963,14 @@
     </row>
     <row r="206" ht="22.5" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B206" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wilden, Abraham (-)</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>235</v>
@@ -9915,7 +9979,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="9"/>
       <c r="H206" s="3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>16</v>
@@ -9925,23 +9989,23 @@
     </row>
     <row r="207" ht="22.5" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B207" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Groben, Jacob (evtl. Johannes) (-)</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="16"/>
       <c r="G207" s="9"/>
       <c r="H207" s="3" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>16</v>
@@ -9951,21 +10015,21 @@
     </row>
     <row r="208" ht="22.5" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B208" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ziegler,  (-)</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="15"/>
       <c r="F208" s="16"/>
       <c r="G208" s="9"/>
       <c r="H208" s="3" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="I208" s="7" t="s">
         <v>16</v>
@@ -9975,7 +10039,7 @@
     </row>
     <row r="209" ht="22.5" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B209" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9991,7 +10055,7 @@
       <c r="F209" s="16"/>
       <c r="G209" s="9"/>
       <c r="H209" s="3" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>16</v>
@@ -10001,21 +10065,21 @@
     </row>
     <row r="210" ht="22.5" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B210" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Oeri,  (-)</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="15"/>
       <c r="F210" s="16"/>
       <c r="G210" s="9"/>
       <c r="H210" s="3" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="I210" s="7" t="s">
         <v>16</v>
@@ -10025,21 +10089,21 @@
     </row>
     <row r="211" ht="22.5" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B211" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wittib,  (-)</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="15"/>
       <c r="F211" s="16"/>
       <c r="G211" s="9"/>
       <c r="H211" s="3" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="9"/>
@@ -10047,14 +10111,14 @@
     </row>
     <row r="212" ht="22.5" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B212" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Graf von Sultz,  (-)</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="15"/>
@@ -10069,21 +10133,21 @@
     </row>
     <row r="213" ht="22.5" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B213" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Eglin,  (-)</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="15"/>
       <c r="F213" s="16"/>
       <c r="G213" s="9"/>
       <c r="H213" s="3" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="I213" s="7" t="s">
         <v>16</v>
@@ -10093,14 +10157,14 @@
     </row>
     <row r="214" ht="22.5" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B214" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wildhans von Breitenlandenberg,  (-1444)</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="15"/>
@@ -10109,7 +10173,7 @@
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="3" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="I214" s="7" t="s">
         <v>16</v>
@@ -10119,14 +10183,14 @@
     </row>
     <row r="215" ht="22.5" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B215" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pfarrherr,  (-)</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="15"/>
@@ -10141,17 +10205,17 @@
     </row>
     <row r="216" ht="22.5" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B216" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schmid von Schwarzenhorn, Johann Rudolf (1590-1667)</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E216" s="5">
         <v>1590.0</v>
@@ -10160,29 +10224,29 @@
         <v>1667.0</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I216" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="K216" s="9"/>
     </row>
     <row r="217" ht="22.5" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B217" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schmid, Felix (-1598)</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>83</v>
@@ -10193,26 +10257,26 @@
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="I217" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="K217" s="9"/>
     </row>
     <row r="218" ht="22.5" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B218" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hessen, Heinrich (-)</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>35</v>
@@ -10221,7 +10285,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="9"/>
       <c r="H218" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="I218" s="7" t="s">
         <v>16</v>
@@ -10231,17 +10295,17 @@
     </row>
     <row r="219" ht="22.5" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B219" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulr., H. (-)</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
@@ -10257,7 +10321,7 @@
     </row>
     <row r="220" ht="22.5" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B220" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10267,13 +10331,13 @@
         <v>55</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
       <c r="G220" s="9"/>
       <c r="H220" s="3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="I220" s="7" t="s">
         <v>16</v>
@@ -10283,7 +10347,7 @@
     </row>
     <row r="221" ht="22.5" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B221" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10297,7 +10361,7 @@
       <c r="F221" s="16"/>
       <c r="G221" s="9"/>
       <c r="H221" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>16</v>
@@ -10307,14 +10371,14 @@
     </row>
     <row r="222" ht="22.5" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B222" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Locher,  (-)</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="15"/>
@@ -10329,17 +10393,17 @@
     </row>
     <row r="223" ht="22.5" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B223" s="4" t="str">
         <f t="shared" si="1"/>
         <v>König, Caspar (-)</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E223" s="15"/>
       <c r="F223" s="16"/>
@@ -10351,7 +10415,7 @@
     </row>
     <row r="224" ht="22.5" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B224" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10370,22 +10434,22 @@
         <v>1669.0</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="I224" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="K224" s="9"/>
     </row>
     <row r="225" ht="22.5" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B225" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10399,7 +10463,7 @@
       <c r="F225" s="16"/>
       <c r="G225" s="9"/>
       <c r="H225" s="3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="I225" s="7" t="s">
         <v>16</v>
@@ -10409,17 +10473,17 @@
     </row>
     <row r="226" ht="22.5" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B226" s="4" t="str">
         <f t="shared" si="1"/>
         <v>O., Jacob U. (-)</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="E226" s="15"/>
       <c r="F226" s="16"/>
@@ -10435,21 +10499,21 @@
     </row>
     <row r="227" ht="22.5" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B227" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schneeberger,  (-)</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="15"/>
       <c r="F227" s="16"/>
       <c r="G227" s="9"/>
       <c r="H227" s="3" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="I227" s="7" t="s">
         <v>16</v>
@@ -10459,17 +10523,17 @@
     </row>
     <row r="228" ht="22.5" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B228" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zwingli, Ulrich (1484-1531)</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E228" s="5">
         <v>1484.0</v>
@@ -10478,10 +10542,10 @@
         <v>1531.0</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I228" s="7" t="s">
         <v>16</v>
@@ -10491,14 +10555,14 @@
     </row>
     <row r="229" ht="22.5" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B229" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bullinger, Heinrich (1504-1575)</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>35</v>
@@ -10510,10 +10574,10 @@
         <v>1575.0</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I229" s="7" t="s">
         <v>16</v>
@@ -10523,17 +10587,17 @@
     </row>
     <row r="230" ht="22.5" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B230" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gwalther, Rudolf (1519-1586)</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E230" s="5">
         <v>1519.0</v>
@@ -10542,7 +10606,7 @@
         <v>1586.0</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="7" t="s">
@@ -10553,14 +10617,14 @@
     </row>
     <row r="231" ht="22.5" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B231" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Breitinger, Johann Jakob (1575-1645)</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>30</v>
@@ -10572,7 +10636,7 @@
         <v>1645.0</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="H231" s="3"/>
       <c r="I231" s="7" t="s">
@@ -10583,17 +10647,17 @@
     </row>
     <row r="232" ht="22.5" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B232" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jrminger, Jacob (-)</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E232" s="15"/>
       <c r="F232" s="16"/>
@@ -10607,17 +10671,17 @@
     </row>
     <row r="233" ht="22.5" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B233" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fries, Jakob (-)</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E233" s="15"/>
       <c r="F233" s="16"/>
@@ -10631,17 +10695,17 @@
     </row>
     <row r="234" ht="22.5" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B234" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Geiger, Joh. Rud. (-)</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="E234" s="15"/>
       <c r="F234" s="16"/>
@@ -10655,17 +10719,17 @@
     </row>
     <row r="235" ht="22.5" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B235" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Maurer, C. (-)</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E235" s="15"/>
       <c r="F235" s="16"/>
@@ -10679,17 +10743,17 @@
     </row>
     <row r="236" ht="22.5" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B236" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Suter, C. (-)</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E236" s="15"/>
       <c r="F236" s="16"/>
@@ -10703,17 +10767,17 @@
     </row>
     <row r="237" ht="22.5" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B237" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Holzhalb, Joh. (-)</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E237" s="15"/>
       <c r="F237" s="16"/>
@@ -10729,17 +10793,17 @@
     </row>
     <row r="238" ht="22.5" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B238" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wirtz, H. C. (-)</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E238" s="15"/>
       <c r="F238" s="16"/>
@@ -10753,17 +10817,17 @@
     </row>
     <row r="239" ht="22.5" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B239" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser, Caspar (-)</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E239" s="15"/>
       <c r="F239" s="16"/>
@@ -10777,17 +10841,17 @@
     </row>
     <row r="240" ht="22.5" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B240" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hospinianus, R. (-)</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="E240" s="15"/>
       <c r="F240" s="16"/>
@@ -10801,17 +10865,17 @@
     </row>
     <row r="241" ht="22.5" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B241" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Erni, H. (-)</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="E241" s="15"/>
       <c r="F241" s="16"/>
@@ -10825,17 +10889,17 @@
     </row>
     <row r="242" ht="22.5" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B242" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tomman, P. (-)</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="E242" s="15"/>
       <c r="F242" s="16"/>
@@ -10849,17 +10913,17 @@
     </row>
     <row r="243" ht="22.5" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B243" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Stukki, R. (-)</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="E243" s="15"/>
       <c r="F243" s="16"/>
@@ -10873,17 +10937,17 @@
     </row>
     <row r="244" ht="22.5" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B244" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zeller, H. (-)</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="E244" s="15"/>
       <c r="F244" s="16"/>
@@ -10897,7 +10961,7 @@
     </row>
     <row r="245" ht="22.5" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B245" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10905,13 +10969,13 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="3" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E245" s="15"/>
       <c r="F245" s="16"/>
       <c r="G245" s="9"/>
       <c r="H245" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="I245" s="7" t="s">
         <v>16</v>
@@ -10921,21 +10985,21 @@
     </row>
     <row r="246" ht="22.5" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B246" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fr. Doctorin,  (-)</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="15"/>
       <c r="F246" s="16"/>
       <c r="G246" s="9"/>
       <c r="H246" s="3" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="I246" s="7" t="s">
         <v>16</v>
@@ -10945,17 +11009,17 @@
     </row>
     <row r="247" ht="22.5" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B247" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kusen, Jost von (1570-1630)</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="E247" s="5">
         <v>1570.0</v>
@@ -10964,10 +11028,10 @@
         <v>1630.0</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>16</v>
@@ -10977,14 +11041,14 @@
     </row>
     <row r="248" ht="22.5" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B248" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulrich, Heinrich (-)</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>35</v>
@@ -10993,7 +11057,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="9"/>
       <c r="H248" s="3" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="I248" s="7" t="s">
         <v>16</v>
@@ -11003,21 +11067,21 @@
     </row>
     <row r="249" ht="22.5" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B249" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gessner,  (-)</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="15"/>
       <c r="F249" s="16"/>
       <c r="G249" s="9"/>
       <c r="H249" s="3" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="I249" s="7" t="s">
         <v>16</v>
@@ -11027,17 +11091,17 @@
     </row>
     <row r="250" ht="22.5" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B250" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wöllwein, Johann Anton (1616-1659)</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="E250" s="5">
         <v>1616.0</v>
@@ -11046,10 +11110,10 @@
         <v>1659.0</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>16</v>
@@ -11059,42 +11123,42 @@
     </row>
     <row r="251" ht="22.5" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B251" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hirzel, Anna (-)</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E251" s="15"/>
       <c r="F251" s="16"/>
       <c r="G251" s="9"/>
       <c r="H251" s="3" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K251" s="9"/>
     </row>
     <row r="252" ht="22.5" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B252" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. J. R. S.,  (-)</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="15"/>
@@ -11107,17 +11171,17 @@
     </row>
     <row r="253" ht="22.5" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B253" s="4" t="str">
         <f t="shared" si="1"/>
         <v>de Ruyter, Michiel (1607-1676)</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="E253" s="5">
         <v>1607.0</v>
@@ -11126,10 +11190,10 @@
         <v>1676.0</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I253" s="7" t="s">
         <v>16</v>
@@ -11139,21 +11203,21 @@
     </row>
     <row r="254" ht="22.5" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="B254" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Frau Oberstin,  (-)</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="15"/>
       <c r="F254" s="16"/>
       <c r="G254" s="9"/>
       <c r="H254" s="3" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I254" s="7" t="s">
         <v>16</v>
@@ -11163,21 +11227,21 @@
     </row>
     <row r="255" ht="22.5" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B255" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vulcanus,  (-)</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="15"/>
       <c r="F255" s="16"/>
       <c r="G255" s="9"/>
       <c r="H255" s="3" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I255" s="7" t="s">
         <v>189</v>
@@ -11187,23 +11251,23 @@
     </row>
     <row r="256" ht="22.5" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B256" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esau,  (-)</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="15"/>
       <c r="F256" s="16"/>
       <c r="G256" s="3" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="I256" s="7" t="s">
         <v>201</v>
@@ -11213,23 +11277,23 @@
     </row>
     <row r="257" ht="22.5" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B257" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Danaos,  (-)</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="15"/>
       <c r="F257" s="16"/>
       <c r="G257" s="3" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>189</v>
@@ -11239,14 +11303,14 @@
     </row>
     <row r="258" ht="22.5" customHeight="1">
       <c r="A258" s="3" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B258" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Medusa,  (-)</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="15"/>
@@ -11263,14 +11327,14 @@
     </row>
     <row r="259" ht="22.5" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="B259" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pluton,  (-)</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="15"/>
@@ -11287,14 +11351,14 @@
     </row>
     <row r="260" ht="22.5" customHeight="1">
       <c r="A260" s="3" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B260" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mercur,  (-)</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="15"/>
@@ -11311,14 +11375,14 @@
     </row>
     <row r="261" ht="22.5" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B261" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Perseus,  (-)</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="15"/>
@@ -11335,21 +11399,21 @@
     </row>
     <row r="262" ht="22.5" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B262" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Atropos,  (-)</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="15"/>
       <c r="F262" s="16"/>
       <c r="G262" s="9"/>
       <c r="H262" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="I262" s="7" t="s">
         <v>189</v>
@@ -11359,23 +11423,23 @@
     </row>
     <row r="263" ht="22.5" customHeight="1">
       <c r="A263" s="3" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B263" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Barbara von Nikomedien,  (-)</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="15"/>
       <c r="F263" s="16"/>
       <c r="G263" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="I263" s="7" t="s">
         <v>201</v>
@@ -11385,7 +11449,7 @@
     </row>
     <row r="264" ht="22.5" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B264" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11393,13 +11457,13 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="3" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E264" s="15"/>
       <c r="F264" s="16"/>
       <c r="G264" s="9"/>
       <c r="H264" s="3" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="I264" s="13"/>
       <c r="J264" s="9"/>
@@ -11407,7 +11471,7 @@
     </row>
     <row r="265" ht="22.5" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B265" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11421,7 +11485,7 @@
       <c r="F265" s="16"/>
       <c r="G265" s="9"/>
       <c r="H265" s="3" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="I265" s="13"/>
       <c r="J265" s="9"/>
@@ -11429,21 +11493,21 @@
     </row>
     <row r="266" ht="22.5" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="B266" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>, Karl (-)</v>
-      </c>
-      <c r="C266" s="6"/>
-      <c r="D266" s="3" t="s">
-        <v>883</v>
-      </c>
+        <v>Karl,  (-)</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D266" s="3"/>
       <c r="E266" s="15"/>
       <c r="F266" s="16"/>
       <c r="G266" s="9"/>
       <c r="H266" s="3" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="I266" s="7" t="s">
         <v>16</v>
@@ -11453,21 +11517,21 @@
     </row>
     <row r="267" ht="22.5" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="B267" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Duraeum,  (-)</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="15"/>
       <c r="F267" s="16"/>
       <c r="G267" s="9"/>
       <c r="H267" s="3" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="I267" s="13"/>
       <c r="J267" s="9"/>
@@ -11475,14 +11539,14 @@
     </row>
     <row r="268" ht="22.5" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="B268" s="4" t="str">
         <f t="shared" si="1"/>
         <v>von Zesen,  (-)</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="15"/>
@@ -11495,43 +11559,59 @@
     </row>
     <row r="269" ht="22.5" customHeight="1">
       <c r="A269" s="3" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B269" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C269" s="6"/>
+        <v>Lucretia,  (-)</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>896</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="15"/>
       <c r="F269" s="16"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="13"/>
+      <c r="G269" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="I269" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
     </row>
     <row r="270" ht="22.5" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="B270" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,  (-)</v>
-      </c>
-      <c r="C270" s="6"/>
+        <v>Ovid,  (-)</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>900</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="15"/>
       <c r="F270" s="16"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="13"/>
+      <c r="G270" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="I270" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
     </row>
     <row r="271" ht="22.5" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="B271" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11549,7 +11629,7 @@
     </row>
     <row r="272" ht="22.5" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="B272" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11567,7 +11647,7 @@
     </row>
     <row r="273" ht="22.5" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="B273" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11585,7 +11665,7 @@
     </row>
     <row r="274" ht="22.5" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="B274" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11603,7 +11683,7 @@
     </row>
     <row r="275" ht="22.5" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="B275" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11621,7 +11701,7 @@
     </row>
     <row r="276" ht="22.5" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="B276" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11639,7 +11719,7 @@
     </row>
     <row r="277" ht="22.5" customHeight="1">
       <c r="A277" s="3" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="B277" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11657,7 +11737,7 @@
     </row>
     <row r="278" ht="22.5" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="B278" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11675,7 +11755,7 @@
     </row>
     <row r="279" ht="22.5" customHeight="1">
       <c r="A279" s="3" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="B279" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11693,7 +11773,7 @@
     </row>
     <row r="280" ht="22.5" customHeight="1">
       <c r="A280" s="3" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="B280" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11781,16 +11861,16 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -11801,90 +11881,90 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B102" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Basel</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="13"/>
@@ -11892,82 +11972,82 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -11975,14 +12055,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="13"/>
@@ -11990,14 +12070,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="13"/>
@@ -12005,14 +12085,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="13"/>
@@ -12020,52 +12100,52 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="7" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="13"/>
@@ -12073,50 +12153,50 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="13"/>
@@ -12124,154 +12204,158 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="7" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+        <v>970</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>918</v>
+      </c>
       <c r="F22" s="9"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="7" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="13"/>
@@ -12279,101 +12363,101 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="13"/>
       <c r="F32" s="3" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="13"/>
       <c r="F33" s="3" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="13"/>
@@ -12381,14 +12465,14 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="13"/>
@@ -12396,14 +12480,14 @@
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="13"/>
@@ -12411,14 +12495,14 @@
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="13"/>
@@ -12426,14 +12510,14 @@
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="13"/>
@@ -12441,14 +12525,14 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="13"/>
@@ -12456,48 +12540,48 @@
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="13"/>
       <c r="F41" s="3" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="13"/>
@@ -12505,50 +12589,50 @@
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="13"/>
@@ -12556,101 +12640,101 @@
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="13"/>
@@ -12658,14 +12742,14 @@
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="13"/>
@@ -12673,14 +12757,14 @@
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="13"/>
@@ -12688,31 +12772,31 @@
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="13"/>
       <c r="F55" s="3" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="13"/>
@@ -12720,31 +12804,31 @@
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="13"/>
@@ -12752,31 +12836,31 @@
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="13"/>
@@ -12784,118 +12868,118 @@
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stein am Rhein</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Marburg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Elbląg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Preußen</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Baden</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="13"/>
       <c r="F65" s="3" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Schinznach</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gyrenbad</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="13"/>
@@ -12903,48 +12987,48 @@
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wängibad</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="13"/>
       <c r="F68" s="8" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeugst</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="B70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bassersdorf</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="13"/>
@@ -12952,14 +13036,14 @@
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="B71" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hauptwil</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="13"/>
@@ -12967,14 +13051,14 @@
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="B72" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Schaffhausen</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="13"/>
@@ -12982,65 +13066,65 @@
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B73" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wädenswil</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="B74" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Freie Ämter</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="13"/>
       <c r="F74" s="3" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="B75" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Grüningen</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="B76" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kefikon</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="13"/>
@@ -13048,14 +13132,14 @@
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="B77" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maienfeld</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="13"/>
@@ -13063,14 +13147,14 @@
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="B78" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Greifensee (Schloss)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="13"/>
@@ -13078,31 +13162,31 @@
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="B79" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Lindenhof (Zürich)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="13"/>
       <c r="F79" s="3" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="B80" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Galg-Brunnen (Zürich)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="13"/>
@@ -13110,14 +13194,14 @@
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="B81" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altes Kornhaus (Zürich)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="13"/>
@@ -13125,14 +13209,14 @@
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="B82" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sparrenberg (Zürich)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="13"/>
@@ -13140,14 +13224,14 @@
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="B83" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurgau</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="13"/>
@@ -13155,14 +13239,14 @@
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="B84" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Niederlande</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" s="13"/>
@@ -13170,31 +13254,31 @@
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="B85" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Holland</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="13"/>
       <c r="F85" s="3" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="B86" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wigoltingen</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="13"/>
@@ -13202,31 +13286,31 @@
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="B87" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kastalia</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="13"/>
       <c r="F87" s="3" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="B88" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Legerberg</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="13"/>
@@ -13234,48 +13318,48 @@
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="B89" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Texel</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="13"/>
       <c r="F89" s="3" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="B90" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Vlie</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="13"/>
       <c r="F90" s="3" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="B91" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Indien</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="13"/>
@@ -13283,14 +13367,14 @@
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="B92" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wien</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="13"/>
@@ -13298,33 +13382,39 @@
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="B93" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C93" s="3"/>
+        <v>Deutschland</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1147</v>
+      </c>
       <c r="D93" s="23"/>
       <c r="E93" s="13"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="B94" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C94" s="3"/>
+        <v>Ölberg</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>1149</v>
+      </c>
       <c r="D94" s="23"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="7" t="s">
+        <v>954</v>
+      </c>
       <c r="F94" s="3"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>1136</v>
+        <v>1150</v>
       </c>
       <c r="B95" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13337,7 +13427,7 @@
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>1137</v>
+        <v>1151</v>
       </c>
       <c r="B96" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13350,7 +13440,7 @@
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>1138</v>
+        <v>1152</v>
       </c>
       <c r="B97" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13363,7 +13453,7 @@
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>1139</v>
+        <v>1153</v>
       </c>
       <c r="B98" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13376,7 +13466,7 @@
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>1140</v>
+        <v>1154</v>
       </c>
       <c r="B99" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13389,7 +13479,7 @@
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
       <c r="B100" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13402,7 +13492,7 @@
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>1142</v>
+        <v>1156</v>
       </c>
       <c r="B101" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13467,25 +13557,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1143</v>
+        <v>1157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1145</v>
+        <v>1159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1147</v>
+        <v>1161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -13496,127 +13586,137 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B30" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1150</v>
+        <v>1164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1151</v>
+        <v>1165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="23"/>
+        <v>592</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="9"/>
       <c r="H4" s="13"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Psalm-Reimen und Melodien</v>
+        <v>Der Psalter dess Königlichen Propheten Dauids/ Jn deutsche reymen verstendiglich vnd deutlich gebracht/ mit vorgehender anzeigung der reymen weise/ auch eines jeden Psalmes Jnhalt</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1162</v>
+        <v>1176</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="23"/>
+        <v>1177</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1179</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>hundert Christliche/ neüaußgegebene Festpredigen</v>
+        <v>Hundert christliche Fäst-Predigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="9"/>
+        <v>1182</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1184</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="23"/>
@@ -13626,17 +13726,17 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1170</v>
+        <v>1188</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1171</v>
+        <v>1189</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1172</v>
+        <v>1190</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="23"/>
@@ -13646,17 +13746,17 @@
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1173</v>
+        <v>1191</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1174</v>
+        <v>1192</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1175</v>
+        <v>1193</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="23"/>
@@ -13666,17 +13766,17 @@
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1178</v>
+        <v>1196</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="23"/>
@@ -13686,17 +13786,17 @@
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="23"/>
@@ -13706,14 +13806,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="9"/>
@@ -13724,17 +13824,17 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1184</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="23"/>
@@ -13744,14 +13844,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1187</v>
+        <v>1205</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="9"/>
@@ -13762,14 +13862,14 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="9"/>
@@ -13780,18 +13880,18 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
       <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Türckischer Jammerspiegel</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="3" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="9"/>
@@ -13800,17 +13900,17 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Leitungs-faden</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1195</v>
+        <v>1213</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="23"/>
@@ -13820,17 +13920,17 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von der Seelen-angſt Chriſti</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="23"/>
@@ -13840,17 +13940,17 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1199</v>
+        <v>1217</v>
       </c>
       <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Verſuchungs-gabe</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1200</v>
+        <v>1218</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="23"/>
@@ -13860,14 +13960,14 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kriegsbüchlin</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1203</v>
+        <v>1221</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
@@ -13878,14 +13978,14 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="B21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch der Psalmen</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1205</v>
+        <v>1223</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
@@ -13896,7 +13996,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="B22" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13912,7 +14012,7 @@
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="B23" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13928,7 +14028,7 @@
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="B24" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13944,7 +14044,7 @@
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="B25" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13960,7 +14060,7 @@
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="B26" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13976,7 +14076,7 @@
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="B27" s="24" t="str">
         <f t="shared" si="1"/>
@@ -13992,7 +14092,7 @@
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="B28" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14008,7 +14108,7 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="B29" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14024,7 +14124,7 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="B30" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14074,19 +14174,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -14094,69 +14194,69 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B24" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="26" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Deutschgesinnte Genossenschaft (Lilien-Zunft)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1226</v>
+        <v>1244</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1227</v>
+        <v>1245</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1228</v>
+        <v>1246</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -14164,103 +14264,103 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1230</v>
+        <v>1248</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1231</v>
+        <v>1249</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>1235</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>1238</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1239</v>
+        <v>1257</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1240</v>
+        <v>1258</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1241</v>
+        <v>1259</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>1242</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1243</v>
+        <v>1261</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1244</v>
+        <v>1262</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1245</v>
+        <v>1263</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>1246</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1247</v>
+        <v>1265</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Hohe Schule Marburg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1248</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13"/>
@@ -14268,24 +14368,24 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1249</v>
+        <v>1267</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kartäuser</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1250</v>
+        <v>1268</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3" t="s">
-        <v>1251</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1252</v>
+        <v>1270</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14298,7 +14398,7 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1253</v>
+        <v>1271</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14311,7 +14411,7 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14324,7 +14424,7 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1255</v>
+        <v>1273</v>
       </c>
       <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14337,7 +14437,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1256</v>
+        <v>1274</v>
       </c>
       <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14350,7 +14450,7 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1257</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14363,7 +14463,7 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1258</v>
+        <v>1276</v>
       </c>
       <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14376,7 +14476,7 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1259</v>
+        <v>1277</v>
       </c>
       <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14389,7 +14489,7 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1260</v>
+        <v>1278</v>
       </c>
       <c r="B21" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14402,7 +14502,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1261</v>
+        <v>1279</v>
       </c>
       <c r="B22" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14471,19 +14571,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1262</v>
+        <v>1280</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1265</v>
+        <v>1283</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -14491,26 +14591,26 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1267</v>
+        <v>1285</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14523,7 +14623,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1271</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14536,7 +14636,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="B5" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14549,7 +14649,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
       <c r="B6" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14562,7 +14662,7 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="B7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14575,7 +14675,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="B8" s="21" t="str">
         <f t="shared" si="1"/>

--- a/gsheet/xlsx/entities.xlsx
+++ b/gsheet/xlsx/entities.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1314">
   <si>
     <t>Person-ID</t>
   </si>
@@ -594,6 +594,9 @@
     <t xml:space="preserve">Hans Ulrich </t>
   </si>
   <si>
+    <t>evtl. 11647761X</t>
+  </si>
+  <si>
     <t>Pfarrer</t>
   </si>
   <si>
@@ -603,6 +606,9 @@
     <t>Venus</t>
   </si>
   <si>
+    <t>11876800X</t>
+  </si>
+  <si>
     <t>römische Göttin der Liebe und Schönheit</t>
   </si>
   <si>
@@ -615,6 +621,9 @@
     <t>Kupid</t>
   </si>
   <si>
+    <t>118677500</t>
+  </si>
+  <si>
     <t>römischer Gott der Liebe</t>
   </si>
   <si>
@@ -1221,6 +1230,9 @@
     <t>Ben Sira</t>
   </si>
   <si>
+    <t>118614746</t>
+  </si>
+  <si>
     <t>Autor des Buches Jesus Sirach</t>
   </si>
   <si>
@@ -1300,6 +1312,9 @@
   </si>
   <si>
     <t>Pylades</t>
+  </si>
+  <si>
+    <t>1371663513</t>
   </si>
   <si>
     <t>person_118</t>
@@ -1999,10 +2014,16 @@
     <t>Lazarus</t>
   </si>
   <si>
+    <t>118570420</t>
+  </si>
+  <si>
     <t>person_191</t>
   </si>
   <si>
     <t>Lot</t>
+  </si>
+  <si>
+    <t>119435128</t>
   </si>
   <si>
     <t>person_192</t>
@@ -2499,6 +2520,9 @@
     <t>Jacob</t>
   </si>
   <si>
+    <t>1019743824</t>
+  </si>
+  <si>
     <t>person_238</t>
   </si>
   <si>
@@ -2514,6 +2538,12 @@
     <t>Joh. Rud.</t>
   </si>
   <si>
+    <t>evtl. 1089524803</t>
+  </si>
+  <si>
+    <t>Stadtarzt</t>
+  </si>
+  <si>
     <t>person_240</t>
   </si>
   <si>
@@ -2547,6 +2577,9 @@
     <t>person_244</t>
   </si>
   <si>
+    <t>evtl. 117146080</t>
+  </si>
+  <si>
     <t>person_245</t>
   </si>
   <si>
@@ -2556,6 +2589,9 @@
     <t>R.</t>
   </si>
   <si>
+    <t>evtl. 121891453</t>
+  </si>
+  <si>
     <t>person_246</t>
   </si>
   <si>
@@ -2676,7 +2712,7 @@
     <t>Frau Oberstin</t>
   </si>
   <si>
-    <t>Frau von Andreas von Brügger?</t>
+    <t>Frau von "Oberst" Andreas von Brügger?</t>
   </si>
   <si>
     <t>person_260</t>
@@ -2685,6 +2721,9 @@
     <t>Vulcanus</t>
   </si>
   <si>
+    <t>118770462</t>
+  </si>
+  <si>
     <t>Römischer Gott des Feuers und der Schmiedekunst</t>
   </si>
   <si>
@@ -2718,30 +2757,45 @@
     <t>Medusa</t>
   </si>
   <si>
+    <t>118943936</t>
+  </si>
+  <si>
     <t>person_264</t>
   </si>
   <si>
     <t>Pluton</t>
   </si>
   <si>
+    <t>1336159596</t>
+  </si>
+  <si>
     <t>person_265</t>
   </si>
   <si>
     <t>Mercur</t>
   </si>
   <si>
+    <t>118641077</t>
+  </si>
+  <si>
     <t>person_266</t>
   </si>
   <si>
     <t>Perseus</t>
   </si>
   <si>
+    <t>118790455</t>
+  </si>
+  <si>
     <t>person_267</t>
   </si>
   <si>
     <t>Atropos</t>
   </si>
   <si>
+    <t>1317254384</t>
+  </si>
+  <si>
     <t>Mythologische Figur, eine der Moiren</t>
   </si>
   <si>
@@ -2787,7 +2841,13 @@
     <t>person_273</t>
   </si>
   <si>
-    <t>von Zesen</t>
+    <t>Zesen</t>
+  </si>
+  <si>
+    <t>Philipp von</t>
+  </si>
+  <si>
+    <t>118636596</t>
   </si>
   <si>
     <t>person_274</t>
@@ -5773,9 +5833,11 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="H40" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>16</v>
@@ -5785,71 +5847,75 @@
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Venus,  (-)</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="H41" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kupid,  (-)</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="H42" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Xerxes,  (-)</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="9"/>
@@ -5857,71 +5923,71 @@
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Paulus von Tarsus,  (-)</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Phöbus,  (-)</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="9"/>
       <c r="H45" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neidhart,  (-)</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="9"/>
       <c r="H46" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="9"/>
@@ -5929,21 +5995,21 @@
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grimmefol,  (-)</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="9"/>
       <c r="H47" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="9"/>
@@ -5951,94 +6017,94 @@
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pegasus,  (-)</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="9"/>
       <c r="H48" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>David,  (-)</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fama,  (-)</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="9"/>
       <c r="H50" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tasso,  (-)</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>138</v>
@@ -6051,49 +6117,49 @@
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Saul,  (-)</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abschalom,  (-)</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="9"/>
@@ -6101,14 +6167,14 @@
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abimelechs,  (-)</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="5"/>
@@ -6121,429 +6187,429 @@
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abraham,  (-)</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Aron,  (-)</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asaph,  (-)</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="9"/>
       <c r="H57" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Doëg,  (-)</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ezechias,  (-)</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="9"/>
       <c r="H59" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob ("Israel"),  (-)</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Adam,  (-)</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Eva,  (-)</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Barrabas,  (-)</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kajaphas,  (-)</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Judas Iskariot,  (-)</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel,  (-)</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="9"/>
       <c r="H66" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Herodes,  (-)</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Maria von Nazaret,  (-)</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Nikodemus,  (-)</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="9"/>
       <c r="H69" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pilatus, Pontius (-)</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Titus,  (-)</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="9"/>
       <c r="H71" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="9"/>
@@ -6551,33 +6617,33 @@
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon Petrus,  (-)</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6590,404 +6656,404 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="9"/>
       <c r="H74" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jonas,  (-)</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="9"/>
       <c r="H75" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Joseph,  (-)</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="9"/>
       <c r="H76" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Saul, dessen Sohn,  (-)</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="9"/>
       <c r="H77" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Satan,  (-)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abigail,  (-)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="9"/>
       <c r="H79" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hanna,  (-)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="9"/>
       <c r="H80" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Susanna,  (-)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="9"/>
       <c r="H81" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther,  (-)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="9"/>
       <c r="H82" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jaël,  (-)</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="9"/>
       <c r="H83" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tobias,  (-)</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="9"/>
       <c r="H84" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asarias,  (-)</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="9"/>
       <c r="H85" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Boreas,  (-)</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ceres,  (-)</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amor,  (-)</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sokrates,  (-)</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="9"/>
@@ -6995,23 +7061,23 @@
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Xantippe,  (-)</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="9"/>
@@ -7019,121 +7085,121 @@
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mars,  (-)</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Apollo (Phoebus),  (-)</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sirius,  (-)</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="9"/>
       <c r="H93" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rebecca,  (-)</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="9"/>
       <c r="H94" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Asteria,  (-)</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="9"/>
       <c r="H95" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="9"/>
@@ -7141,21 +7207,21 @@
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sylvia,  (-)</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="9"/>
       <c r="H96" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="9"/>
@@ -7163,21 +7229,21 @@
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Felicitas,  (-)</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="9"/>
       <c r="H97" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="9"/>
@@ -7185,21 +7251,21 @@
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="9"/>
       <c r="H98" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="9"/>
@@ -7207,7 +7273,7 @@
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7221,7 +7287,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="9"/>
       <c r="H99" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="9"/>
@@ -7229,47 +7295,47 @@
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sara,  (-)</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="9"/>
       <c r="H100" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hesiodus,  (-)</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="9"/>
@@ -7277,23 +7343,23 @@
     </row>
     <row r="102" ht="22.5" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Parmenides,  (-)</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="9"/>
@@ -7301,147 +7367,149 @@
     </row>
     <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salomon,  (-)</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Isaak,  (-)</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Rahel,  (-)</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="9"/>
       <c r="H105" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hiob,  (-)</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simson,  (-)</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="9"/>
       <c r="H107" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ben Sira,  (-)</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="9"/>
+      <c r="G108" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="H108" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="9"/>
@@ -7449,20 +7517,20 @@
     </row>
     <row r="109" ht="22.5" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wilhelm Tell,  (-)</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="13"/>
@@ -7471,71 +7539,71 @@
     </row>
     <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zephyr,  (-)</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Matthias,  (-)</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="9"/>
       <c r="H111" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Friedensfürst,  (-)</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="9"/>
       <c r="H112" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="9"/>
@@ -7543,21 +7611,21 @@
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus,  (-)</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="9"/>
       <c r="H113" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="9"/>
@@ -7565,21 +7633,21 @@
     </row>
     <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gracchus, dessen Frau,  (-)</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="9"/>
       <c r="H114" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="9"/>
@@ -7587,171 +7655,173 @@
     </row>
     <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Moses,  (-)</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Orestes,  (-)</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pylades,  (-)</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="9"/>
+      <c r="G117" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="H117" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thurik,  (-)</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="9"/>
       <c r="H118" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Midas,  (-)</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="9"/>
       <c r="H119" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Simon,  (-)</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="9"/>
       <c r="H120" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Damokles,  (-)</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="9"/>
@@ -7759,23 +7829,23 @@
     </row>
     <row r="122" ht="22.5" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dionysius I. von Syrakus,  (-)</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="9"/>
@@ -7783,23 +7853,23 @@
     </row>
     <row r="123" ht="22.5" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kleopatra VII.,  (-)</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="9"/>
@@ -7807,23 +7877,23 @@
     </row>
     <row r="124" ht="22.5" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Marcus Antonius,  (-)</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="9"/>
@@ -7831,66 +7901,66 @@
     </row>
     <row r="125" ht="22.5" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Klio,  (-)</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Flora,  (-)</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dorothea,  (-)</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="5"/>
@@ -7903,21 +7973,21 @@
     </row>
     <row r="128" ht="22.5" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V.,  (-)</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="9"/>
       <c r="H128" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>16</v>
@@ -7927,21 +7997,21 @@
     </row>
     <row r="129" ht="22.5" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. J. V., dessen Frau,  (-)</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="9"/>
       <c r="H129" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>16</v>
@@ -7951,21 +8021,21 @@
     </row>
     <row r="130" ht="22.5" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sch. H.,  (-)</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="9"/>
       <c r="H130" s="3" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>16</v>
@@ -7975,14 +8045,14 @@
     </row>
     <row r="131" ht="22.5" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B131" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser, Johann Heinrich (1600-1669)</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>40</v>
@@ -7994,66 +8064,66 @@
         <v>1669.0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K131" s="9"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B132" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser-Ziegler, Jahel (-)</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="9"/>
       <c r="H132" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K132" s="9"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B133" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Caspar W.,  (-)</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>16</v>
@@ -8063,21 +8133,21 @@
     </row>
     <row r="134" ht="22.5" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B134" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esther O.,  (-)</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="9"/>
       <c r="H134" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>16</v>
@@ -8087,14 +8157,14 @@
     </row>
     <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B135" s="4" t="str">
         <f t="shared" si="1"/>
         <v>G. H.,  (-)</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="5"/>
@@ -8109,21 +8179,21 @@
     </row>
     <row r="136" ht="22.5" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B136" s="4" t="str">
         <f t="shared" si="1"/>
         <v>J. C.,  (-)</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="9"/>
       <c r="H136" s="3" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>16</v>
@@ -8133,17 +8203,17 @@
     </row>
     <row r="137" ht="22.5" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B137" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Hercules von (1617-1686)</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E137" s="5">
         <v>1617.0</v>
@@ -8157,23 +8227,23 @@
         <v>16</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K137" s="9"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B138" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis, Barbara Dorothea von (1629-1660)</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E138" s="5">
         <v>1629.0</v>
@@ -8183,26 +8253,26 @@
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K138" s="9"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B139" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. L.,  (-)</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="5"/>
@@ -8217,21 +8287,21 @@
     </row>
     <row r="140" ht="22.5" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B140" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. A.,  (-)</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="9"/>
       <c r="H140" s="3" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>16</v>
@@ -8241,21 +8311,21 @@
     </row>
     <row r="141" ht="22.5" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B141" s="4" t="str">
         <f t="shared" si="1"/>
         <v>B. M.,  (-)</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="9"/>
       <c r="H141" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>16</v>
@@ -8265,73 +8335,73 @@
     </row>
     <row r="142" ht="22.5" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B142" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. H.,  (-)</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="9"/>
       <c r="H142" s="3" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K142" s="9"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B143" s="4" t="str">
         <f t="shared" si="1"/>
         <v>D. M.,  (-)</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="9"/>
       <c r="H143" s="3" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K143" s="9"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B144" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gottfrid,  (-)</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="9"/>
       <c r="H144" s="3" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>16</v>
@@ -8341,21 +8411,21 @@
     </row>
     <row r="145" ht="22.5" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Jakob,  (-)</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="9"/>
       <c r="H145" s="3" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>16</v>
@@ -8365,21 +8435,21 @@
     </row>
     <row r="146" ht="22.5" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B146" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. C. Schw.,  (-)</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="9"/>
       <c r="H146" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>16</v>
@@ -8389,21 +8459,21 @@
     </row>
     <row r="147" ht="22.5" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B147" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. K.,  (-)</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="9"/>
       <c r="H147" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>16</v>
@@ -8413,14 +8483,14 @@
     </row>
     <row r="148" ht="22.5" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B148" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ott, Hans Heinrich (-)</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>64</v>
@@ -8437,14 +8507,14 @@
     </row>
     <row r="149" ht="22.5" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B149" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. W.,  (-)</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="5"/>
@@ -8459,21 +8529,21 @@
     </row>
     <row r="150" ht="22.5" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B150" s="4" t="str">
         <f t="shared" si="1"/>
         <v>V. L.,  (-)</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="9"/>
       <c r="H150" s="3" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>16</v>
@@ -8483,14 +8553,14 @@
     </row>
     <row r="151" ht="22.5" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B151" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. Sch.,  (-)</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="5"/>
@@ -8505,21 +8575,21 @@
     </row>
     <row r="152" ht="22.5" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B152" s="4" t="str">
         <f t="shared" si="1"/>
         <v>S. H.,  (-)</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="9"/>
       <c r="H152" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>16</v>
@@ -8529,14 +8599,14 @@
     </row>
     <row r="153" ht="22.5" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B153" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. H. H.,  (-)</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="5"/>
@@ -8547,55 +8617,55 @@
         <v>16</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K153" s="9"/>
     </row>
     <row r="154" ht="22.5" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B154" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E. W.,  (-)</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="9"/>
       <c r="H154" s="3" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="K154" s="9"/>
     </row>
     <row r="155" ht="22.5" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B155" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Koller, Elisabeth (-)</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="9"/>
       <c r="H155" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="I155" s="7" t="s">
         <v>16</v>
@@ -8607,17 +8677,17 @@
     </row>
     <row r="156" ht="22.5" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B156" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lobwasser, Ambrosius (1515-1585)</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="E156" s="5">
         <v>1515.0</v>
@@ -8626,10 +8696,10 @@
         <v>1585.0</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>16</v>
@@ -8639,22 +8709,22 @@
     </row>
     <row r="157" ht="22.5" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B157" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vollenweider, Jakob (-)</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="3" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="7" t="s">
@@ -8665,7 +8735,7 @@
     </row>
     <row r="158" ht="22.5" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B158" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8675,7 +8745,7 @@
         <v>183</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E158" s="5">
         <v>1606.0</v>
@@ -8684,10 +8754,10 @@
         <v>1660.0</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I158" s="7" t="s">
         <v>16</v>
@@ -8697,23 +8767,23 @@
     </row>
     <row r="159" ht="22.5" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B159" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Burkharten, Kuenraht (-)</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="9"/>
       <c r="H159" s="3" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="I159" s="7" t="s">
         <v>16</v>
@@ -8723,14 +8793,14 @@
     </row>
     <row r="160" ht="22.5" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B160" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ardüser, Johann (1585-1665)</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>101</v>
@@ -8742,7 +8812,7 @@
         <v>1665.0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="7" t="s">
@@ -8753,25 +8823,25 @@
     </row>
     <row r="161" ht="22.5" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B161" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hegner, Diethelm  (-)</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>16</v>
@@ -8781,22 +8851,22 @@
     </row>
     <row r="162" ht="22.5" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B162" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Trigland, Jacobus (-)</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="7" t="s">
@@ -8807,17 +8877,17 @@
     </row>
     <row r="163" ht="22.5" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B163" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zwinger, D. (-)</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -8831,14 +8901,14 @@
     </row>
     <row r="164" ht="22.5" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B164" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Genathen, Johann Jakob (-)</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>30</v>
@@ -8846,10 +8916,10 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I164" s="7" t="s">
         <v>16</v>
@@ -8859,7 +8929,7 @@
     </row>
     <row r="165" ht="22.5" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B165" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8885,27 +8955,27 @@
     </row>
     <row r="166" ht="22.5" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B166" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hess, Caspar (-1631)</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
         <v>1631.0</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>16</v>
@@ -8915,17 +8985,17 @@
     </row>
     <row r="167" ht="22.5" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B167" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wolfen, Hans Jakob (-)</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="16"/>
@@ -8939,22 +9009,22 @@
     </row>
     <row r="168" ht="22.5" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B168" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Spöri, Felix Christian (-)</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="16"/>
       <c r="G168" s="3" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="7" t="s">
@@ -8965,7 +9035,7 @@
     </row>
     <row r="169" ht="22.5" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B169" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8975,7 +9045,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="5">
@@ -8991,21 +9061,21 @@
     </row>
     <row r="170" ht="22.5" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B170" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gwalther,  (-)</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="15"/>
       <c r="F170" s="16"/>
       <c r="G170" s="9"/>
       <c r="H170" s="3" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>16</v>
@@ -9015,23 +9085,23 @@
     </row>
     <row r="171" ht="22.5" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B171" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Weiss, Caspar (-)</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="16"/>
       <c r="G171" s="9"/>
       <c r="H171" s="17" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>16</v>
@@ -9041,7 +9111,7 @@
     </row>
     <row r="172" ht="22.5" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B172" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9055,7 +9125,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="9"/>
       <c r="H172" s="17" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>16</v>
@@ -9065,21 +9135,21 @@
     </row>
     <row r="173" ht="22.5" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B173" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bas,  (-)</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="15"/>
       <c r="F173" s="16"/>
       <c r="G173" s="9"/>
       <c r="H173" s="3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I173" s="18"/>
       <c r="J173" s="9"/>
@@ -9087,14 +9157,14 @@
     </row>
     <row r="174" ht="22.5" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B174" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H.H.J. Gw. s. A.Z.Fr.M.,  (-)</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="15"/>
@@ -9109,23 +9179,23 @@
     </row>
     <row r="175" ht="22.5" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B175" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hofm., Joh. (-)</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E175" s="15"/>
       <c r="F175" s="16"/>
       <c r="G175" s="9"/>
       <c r="H175" s="3" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="I175" s="7" t="s">
         <v>16</v>
@@ -9135,177 +9205,177 @@
     </row>
     <row r="176" ht="22.5" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B176" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Cyrene, Simon von (-)</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E176" s="15"/>
       <c r="F176" s="16"/>
       <c r="G176" s="3" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
     </row>
     <row r="177" ht="22.5" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B177" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thomas,  (-)</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="15"/>
       <c r="F177" s="16"/>
       <c r="G177" s="3" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
     </row>
     <row r="178" ht="22.5" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B178" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Phaeton,  (-)</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="15"/>
       <c r="F178" s="16"/>
       <c r="G178" s="3" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
     </row>
     <row r="179" ht="22.5" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B179" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lukas,  (-)</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="15"/>
       <c r="F179" s="16"/>
       <c r="G179" s="9"/>
       <c r="H179" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
     </row>
     <row r="180" ht="22.5" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B180" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pallas Athena,  (-)</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="15"/>
       <c r="F180" s="16"/>
       <c r="G180" s="3" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I180" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
     </row>
     <row r="181" ht="22.5" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B181" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bacchus,  (-)</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="15"/>
       <c r="F181" s="16"/>
       <c r="G181" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
     </row>
     <row r="182" ht="22.5" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B182" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Darius,  (-)</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="15"/>
       <c r="F182" s="16"/>
       <c r="G182" s="9"/>
       <c r="H182" s="3" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I182" s="7" t="s">
         <v>16</v>
@@ -9315,21 +9385,21 @@
     </row>
     <row r="183" ht="22.5" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B183" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kyros,  (-)</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="15"/>
       <c r="F183" s="16"/>
       <c r="G183" s="9"/>
       <c r="H183" s="3" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I183" s="13"/>
       <c r="J183" s="9"/>
@@ -9337,25 +9407,25 @@
     </row>
     <row r="184" ht="22.5" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B184" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hippo, Augustinus von (-)</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="16"/>
       <c r="G184" s="3" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="I184" s="13"/>
       <c r="J184" s="9"/>
@@ -9363,69 +9433,73 @@
     </row>
     <row r="185" ht="22.5" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B185" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lazarus,  (-)</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="15"/>
       <c r="F185" s="16"/>
-      <c r="G185" s="9"/>
+      <c r="G185" s="3" t="s">
+        <v>645</v>
+      </c>
       <c r="H185" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
     </row>
     <row r="186" ht="22.5" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B186" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lot,  (-)</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="15"/>
       <c r="F186" s="16"/>
-      <c r="G186" s="9"/>
+      <c r="G186" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="H186" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
     </row>
     <row r="187" ht="22.5" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B187" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hans Rudolf,  (-)</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="15"/>
       <c r="F187" s="16"/>
       <c r="G187" s="9"/>
       <c r="H187" s="3" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>16</v>
@@ -9435,7 +9509,7 @@
     </row>
     <row r="188" ht="22.5" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B188" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9445,12 +9519,12 @@
         <v>12</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E188" s="15"/>
       <c r="F188" s="16"/>
       <c r="G188" s="3" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="7" t="s">
@@ -9461,17 +9535,17 @@
     </row>
     <row r="189" ht="22.5" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B189" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bachofen, Johann Ulrich (1643-1700)</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E189" s="5">
         <v>1643.0</v>
@@ -9480,10 +9554,10 @@
         <v>1700.0</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I189" s="7" t="s">
         <v>16</v>
@@ -9493,17 +9567,17 @@
     </row>
     <row r="190" ht="22.5" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grebel, Hans Konrad (1615-1674)</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="E190" s="5">
         <v>1615.0</v>
@@ -9512,57 +9586,57 @@
         <v>1674.0</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="I190" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="K190" s="9"/>
     </row>
     <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gossweiler, Emerentia (-)</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
       <c r="G191" s="9"/>
       <c r="H191" s="3" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="I191" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="K191" s="9"/>
     </row>
     <row r="192" ht="22.5" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="B192" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lochmann, Heinrich (1613-1667)</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>35</v>
@@ -9574,29 +9648,29 @@
         <v>1667.0</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K192" s="9"/>
     </row>
     <row r="193" ht="22.5" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B193" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulrich, Johann Jakob (1602-1668)</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>30</v>
@@ -9608,130 +9682,130 @@
         <v>1668.0</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="I193" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K193" s="9"/>
     </row>
     <row r="194" ht="22.5" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B194" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Orelli, Anna (-)</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="16"/>
       <c r="G194" s="9"/>
       <c r="H194" s="3" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="I194" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K194" s="9"/>
     </row>
     <row r="195" ht="22.5" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B195" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C. E. H.,  (-)</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="15"/>
       <c r="F195" s="16"/>
       <c r="G195" s="9"/>
       <c r="H195" s="3" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="I195" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="K195" s="9"/>
     </row>
     <row r="196" ht="22.5" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B196" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C. H.,  (-)</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="9"/>
       <c r="H196" s="3" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="I196" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="K196" s="9"/>
     </row>
     <row r="197" ht="22.5" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B197" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Grob, Hans Jakob (-)</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E197" s="15"/>
       <c r="F197" s="16"/>
       <c r="G197" s="9"/>
       <c r="H197" s="3" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="I197" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="K197" s="9"/>
     </row>
     <row r="198" ht="22.5" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B198" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9741,7 +9815,7 @@
         <v>63</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E198" s="15"/>
       <c r="F198" s="16"/>
@@ -9751,23 +9825,23 @@
         <v>16</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="K198" s="9"/>
     </row>
     <row r="199" ht="22.5" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B199" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Klingler, Kaspar (-)</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
@@ -9777,23 +9851,23 @@
         <v>16</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K199" s="9"/>
     </row>
     <row r="200" ht="22.5" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B200" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Spöndli, Dorothea (-)</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E200" s="15"/>
       <c r="F200" s="16"/>
@@ -9803,23 +9877,23 @@
         <v>16</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K200" s="9"/>
     </row>
     <row r="201" ht="22.5" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B201" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hirzel, Hans Caspar (1617-1691)</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="E201" s="5">
         <v>1617.0</v>
@@ -9828,32 +9902,32 @@
         <v>1691.0</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="I201" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K201" s="9"/>
     </row>
     <row r="202" ht="22.5" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B202" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hirzel, Salomon (1580-1652)</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E202" s="5">
         <v>1580.0</v>
@@ -9862,60 +9936,60 @@
         <v>1652.0</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="I202" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="K202" s="9"/>
     </row>
     <row r="203" ht="22.5" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B203" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Salis-Soglio, Maria Ursina von  (-)</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="16"/>
       <c r="G203" s="9"/>
       <c r="H203" s="3" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="I203" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="K203" s="9"/>
     </row>
     <row r="204" ht="22.5" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="B204" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Brügger, Andreas von (1588-1653)</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="E204" s="5">
         <v>1588.0</v>
@@ -9924,36 +9998,36 @@
         <v>1653.0</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="I204" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="K204" s="9"/>
     </row>
     <row r="205" ht="22.5" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B205" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Anhorn,  (-)</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="15"/>
       <c r="F205" s="16"/>
       <c r="G205" s="9"/>
       <c r="H205" s="3" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="I205" s="7" t="s">
         <v>16</v>
@@ -9963,23 +10037,23 @@
     </row>
     <row r="206" ht="22.5" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B206" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wilden, Abraham (-)</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E206" s="15"/>
       <c r="F206" s="16"/>
       <c r="G206" s="9"/>
       <c r="H206" s="3" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>16</v>
@@ -9989,23 +10063,23 @@
     </row>
     <row r="207" ht="22.5" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B207" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Groben, Jacob (evtl. Johannes) (-)</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="16"/>
       <c r="G207" s="9"/>
       <c r="H207" s="3" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>16</v>
@@ -10015,21 +10089,21 @@
     </row>
     <row r="208" ht="22.5" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B208" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ziegler,  (-)</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="15"/>
       <c r="F208" s="16"/>
       <c r="G208" s="9"/>
       <c r="H208" s="3" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="I208" s="7" t="s">
         <v>16</v>
@@ -10039,7 +10113,7 @@
     </row>
     <row r="209" ht="22.5" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B209" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10055,7 +10129,7 @@
       <c r="F209" s="16"/>
       <c r="G209" s="9"/>
       <c r="H209" s="3" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>16</v>
@@ -10065,21 +10139,21 @@
     </row>
     <row r="210" ht="22.5" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B210" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Oeri,  (-)</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="15"/>
       <c r="F210" s="16"/>
       <c r="G210" s="9"/>
       <c r="H210" s="3" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="I210" s="7" t="s">
         <v>16</v>
@@ -10089,21 +10163,21 @@
     </row>
     <row r="211" ht="22.5" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B211" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wittib,  (-)</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="15"/>
       <c r="F211" s="16"/>
       <c r="G211" s="9"/>
       <c r="H211" s="3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="9"/>
@@ -10111,14 +10185,14 @@
     </row>
     <row r="212" ht="22.5" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B212" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Graf von Sultz,  (-)</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="15"/>
@@ -10133,21 +10207,21 @@
     </row>
     <row r="213" ht="22.5" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B213" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Eglin,  (-)</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="15"/>
       <c r="F213" s="16"/>
       <c r="G213" s="9"/>
       <c r="H213" s="3" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="I213" s="7" t="s">
         <v>16</v>
@@ -10157,14 +10231,14 @@
     </row>
     <row r="214" ht="22.5" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B214" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wildhans von Breitenlandenberg,  (-1444)</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="15"/>
@@ -10173,7 +10247,7 @@
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="3" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I214" s="7" t="s">
         <v>16</v>
@@ -10183,14 +10257,14 @@
     </row>
     <row r="215" ht="22.5" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B215" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pfarrherr,  (-)</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="15"/>
@@ -10205,17 +10279,17 @@
     </row>
     <row r="216" ht="22.5" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B216" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schmid von Schwarzenhorn, Johann Rudolf (1590-1667)</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="E216" s="5">
         <v>1590.0</v>
@@ -10224,29 +10298,29 @@
         <v>1667.0</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="I216" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="K216" s="9"/>
     </row>
     <row r="217" ht="22.5" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B217" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schmid, Felix (-1598)</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>83</v>
@@ -10257,26 +10331,26 @@
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="3" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="I217" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="K217" s="9"/>
     </row>
     <row r="218" ht="22.5" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B218" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hessen, Heinrich (-)</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>35</v>
@@ -10285,7 +10359,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="9"/>
       <c r="H218" s="3" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="I218" s="7" t="s">
         <v>16</v>
@@ -10295,23 +10369,23 @@
     </row>
     <row r="219" ht="22.5" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="B219" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulr., H. (-)</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
       <c r="G219" s="9"/>
       <c r="H219" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I219" s="7" t="s">
         <v>16</v>
@@ -10321,7 +10395,7 @@
     </row>
     <row r="220" ht="22.5" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B220" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10331,13 +10405,13 @@
         <v>55</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
       <c r="G220" s="9"/>
       <c r="H220" s="3" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="I220" s="7" t="s">
         <v>16</v>
@@ -10347,7 +10421,7 @@
     </row>
     <row r="221" ht="22.5" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B221" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10361,7 +10435,7 @@
       <c r="F221" s="16"/>
       <c r="G221" s="9"/>
       <c r="H221" s="3" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>16</v>
@@ -10371,14 +10445,14 @@
     </row>
     <row r="222" ht="22.5" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B222" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Locher,  (-)</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="15"/>
@@ -10393,17 +10467,17 @@
     </row>
     <row r="223" ht="22.5" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="B223" s="4" t="str">
         <f t="shared" si="1"/>
         <v>König, Caspar (-)</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E223" s="15"/>
       <c r="F223" s="16"/>
@@ -10415,7 +10489,7 @@
     </row>
     <row r="224" ht="22.5" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B224" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10434,22 +10508,22 @@
         <v>1669.0</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="I224" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="K224" s="9"/>
     </row>
     <row r="225" ht="22.5" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="B225" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10463,7 +10537,7 @@
       <c r="F225" s="16"/>
       <c r="G225" s="9"/>
       <c r="H225" s="3" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="I225" s="7" t="s">
         <v>16</v>
@@ -10473,23 +10547,23 @@
     </row>
     <row r="226" ht="22.5" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B226" s="4" t="str">
         <f t="shared" si="1"/>
         <v>O., Jacob U. (-)</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="E226" s="15"/>
       <c r="F226" s="16"/>
       <c r="G226" s="9"/>
       <c r="H226" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I226" s="7" t="s">
         <v>16</v>
@@ -10499,21 +10573,21 @@
     </row>
     <row r="227" ht="22.5" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B227" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Schneeberger,  (-)</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="15"/>
       <c r="F227" s="16"/>
       <c r="G227" s="9"/>
       <c r="H227" s="3" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I227" s="7" t="s">
         <v>16</v>
@@ -10523,17 +10597,17 @@
     </row>
     <row r="228" ht="22.5" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B228" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zwingli, Ulrich (1484-1531)</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="E228" s="5">
         <v>1484.0</v>
@@ -10542,10 +10616,10 @@
         <v>1531.0</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I228" s="7" t="s">
         <v>16</v>
@@ -10555,14 +10629,14 @@
     </row>
     <row r="229" ht="22.5" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B229" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bullinger, Heinrich (1504-1575)</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>35</v>
@@ -10574,10 +10648,10 @@
         <v>1575.0</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I229" s="7" t="s">
         <v>16</v>
@@ -10587,17 +10661,17 @@
     </row>
     <row r="230" ht="22.5" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B230" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gwalther, Rudolf (1519-1586)</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E230" s="5">
         <v>1519.0</v>
@@ -10606,7 +10680,7 @@
         <v>1586.0</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="7" t="s">
@@ -10617,14 +10691,14 @@
     </row>
     <row r="231" ht="22.5" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B231" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Breitinger, Johann Jakob (1575-1645)</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>30</v>
@@ -10636,7 +10710,7 @@
         <v>1645.0</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="H231" s="3"/>
       <c r="I231" s="7" t="s">
@@ -10647,21 +10721,27 @@
     </row>
     <row r="232" ht="22.5" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B232" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Jrminger, Jacob (-)</v>
+        <v>Jrminger, Jacob (1588-1649)</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E232" s="15"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="9"/>
+        <v>804</v>
+      </c>
+      <c r="E232" s="5">
+        <v>1588.0</v>
+      </c>
+      <c r="F232" s="5">
+        <v>1649.0</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="H232" s="3"/>
       <c r="I232" s="7" t="s">
         <v>16</v>
@@ -10671,17 +10751,17 @@
     </row>
     <row r="233" ht="22.5" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B233" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fries, Jakob (-)</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E233" s="15"/>
       <c r="F233" s="16"/>
@@ -10695,22 +10775,26 @@
     </row>
     <row r="234" ht="22.5" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="B234" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Geiger, Joh. Rud. (-)</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="E234" s="15"/>
       <c r="F234" s="16"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="3"/>
+      <c r="G234" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>812</v>
+      </c>
       <c r="I234" s="7" t="s">
         <v>16</v>
       </c>
@@ -10719,17 +10803,17 @@
     </row>
     <row r="235" ht="22.5" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="B235" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Maurer, C. (-)</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E235" s="15"/>
       <c r="F235" s="16"/>
@@ -10743,17 +10827,17 @@
     </row>
     <row r="236" ht="22.5" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="B236" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Suter, C. (-)</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E236" s="15"/>
       <c r="F236" s="16"/>
@@ -10767,23 +10851,23 @@
     </row>
     <row r="237" ht="22.5" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B237" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Holzhalb, Joh. (-)</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E237" s="15"/>
       <c r="F237" s="16"/>
       <c r="G237" s="9"/>
       <c r="H237" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I237" s="7" t="s">
         <v>16</v>
@@ -10793,17 +10877,17 @@
     </row>
     <row r="238" ht="22.5" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B238" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wirtz, H. C. (-)</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="E238" s="15"/>
       <c r="F238" s="16"/>
@@ -10817,21 +10901,23 @@
     </row>
     <row r="239" ht="22.5" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B239" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Waser, Caspar (-)</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E239" s="15"/>
       <c r="F239" s="16"/>
-      <c r="G239" s="9"/>
+      <c r="G239" s="3" t="s">
+        <v>824</v>
+      </c>
       <c r="H239" s="3"/>
       <c r="I239" s="7" t="s">
         <v>16</v>
@@ -10841,21 +10927,23 @@
     </row>
     <row r="240" ht="22.5" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B240" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hospinianus, R. (-)</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="E240" s="15"/>
       <c r="F240" s="16"/>
-      <c r="G240" s="9"/>
+      <c r="G240" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="H240" s="3"/>
       <c r="I240" s="7" t="s">
         <v>16</v>
@@ -10865,17 +10953,17 @@
     </row>
     <row r="241" ht="22.5" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="B241" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Erni, H. (-)</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="E241" s="15"/>
       <c r="F241" s="16"/>
@@ -10889,17 +10977,17 @@
     </row>
     <row r="242" ht="22.5" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="B242" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Tomman, P. (-)</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="E242" s="15"/>
       <c r="F242" s="16"/>
@@ -10913,17 +11001,17 @@
     </row>
     <row r="243" ht="22.5" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="B243" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Stukki, R. (-)</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="E243" s="15"/>
       <c r="F243" s="16"/>
@@ -10937,17 +11025,17 @@
     </row>
     <row r="244" ht="22.5" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="B244" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Zeller, H. (-)</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="E244" s="15"/>
       <c r="F244" s="16"/>
@@ -10961,7 +11049,7 @@
     </row>
     <row r="245" ht="22.5" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="B245" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10969,13 +11057,13 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="3" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E245" s="15"/>
       <c r="F245" s="16"/>
       <c r="G245" s="9"/>
       <c r="H245" s="3" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="I245" s="7" t="s">
         <v>16</v>
@@ -10985,21 +11073,21 @@
     </row>
     <row r="246" ht="22.5" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="B246" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fr. Doctorin,  (-)</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="15"/>
       <c r="F246" s="16"/>
       <c r="G246" s="9"/>
       <c r="H246" s="3" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="I246" s="7" t="s">
         <v>16</v>
@@ -11009,17 +11097,17 @@
     </row>
     <row r="247" ht="22.5" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="B247" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Kusen, Jost von (1570-1630)</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E247" s="5">
         <v>1570.0</v>
@@ -11028,10 +11116,10 @@
         <v>1630.0</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>16</v>
@@ -11041,14 +11129,14 @@
     </row>
     <row r="248" ht="22.5" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="B248" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ulrich, Heinrich (-)</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>35</v>
@@ -11057,7 +11145,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="9"/>
       <c r="H248" s="3" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="I248" s="7" t="s">
         <v>16</v>
@@ -11067,21 +11155,21 @@
     </row>
     <row r="249" ht="22.5" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="B249" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gessner,  (-)</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="15"/>
       <c r="F249" s="16"/>
       <c r="G249" s="9"/>
       <c r="H249" s="3" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="I249" s="7" t="s">
         <v>16</v>
@@ -11091,17 +11179,17 @@
     </row>
     <row r="250" ht="22.5" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="B250" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Wöllwein, Johann Anton (1616-1659)</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="E250" s="5">
         <v>1616.0</v>
@@ -11110,10 +11198,10 @@
         <v>1659.0</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>16</v>
@@ -11123,42 +11211,42 @@
     </row>
     <row r="251" ht="22.5" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="B251" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hirzel, Anna (-)</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E251" s="15"/>
       <c r="F251" s="16"/>
       <c r="G251" s="9"/>
       <c r="H251" s="3" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="K251" s="9"/>
     </row>
     <row r="252" ht="22.5" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="B252" s="4" t="str">
         <f t="shared" si="1"/>
         <v>H. J. R. S.,  (-)</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="15"/>
@@ -11171,17 +11259,17 @@
     </row>
     <row r="253" ht="22.5" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="B253" s="4" t="str">
         <f t="shared" si="1"/>
         <v>de Ruyter, Michiel (1607-1676)</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="E253" s="5">
         <v>1607.0</v>
@@ -11190,10 +11278,10 @@
         <v>1676.0</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="I253" s="7" t="s">
         <v>16</v>
@@ -11203,21 +11291,21 @@
     </row>
     <row r="254" ht="22.5" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="B254" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Frau Oberstin,  (-)</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="15"/>
       <c r="F254" s="16"/>
       <c r="G254" s="9"/>
       <c r="H254" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="I254" s="7" t="s">
         <v>16</v>
@@ -11227,229 +11315,241 @@
     </row>
     <row r="255" ht="22.5" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B255" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vulcanus,  (-)</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="15"/>
       <c r="F255" s="16"/>
-      <c r="G255" s="9"/>
+      <c r="G255" s="3" t="s">
+        <v>872</v>
+      </c>
       <c r="H255" s="3" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J255" s="9"/>
       <c r="K255" s="9"/>
     </row>
     <row r="256" ht="22.5" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="B256" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Esau,  (-)</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="15"/>
       <c r="F256" s="16"/>
       <c r="G256" s="3" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="I256" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
     </row>
     <row r="257" ht="22.5" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="B257" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Danaos,  (-)</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="15"/>
       <c r="F257" s="16"/>
       <c r="G257" s="3" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="I257" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J257" s="9"/>
       <c r="K257" s="9"/>
     </row>
     <row r="258" ht="22.5" customHeight="1">
       <c r="A258" s="3" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="B258" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Medusa,  (-)</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="15"/>
       <c r="F258" s="16"/>
-      <c r="G258" s="9"/>
+      <c r="G258" s="3" t="s">
+        <v>884</v>
+      </c>
       <c r="H258" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I258" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
     </row>
     <row r="259" ht="22.5" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="B259" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Pluton,  (-)</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="15"/>
       <c r="F259" s="16"/>
-      <c r="G259" s="9"/>
+      <c r="G259" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="H259" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I259" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
     </row>
     <row r="260" ht="22.5" customHeight="1">
       <c r="A260" s="3" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="B260" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mercur,  (-)</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="15"/>
       <c r="F260" s="16"/>
-      <c r="G260" s="9"/>
+      <c r="G260" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="H260" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I260" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
     </row>
     <row r="261" ht="22.5" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="B261" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Perseus,  (-)</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="15"/>
       <c r="F261" s="16"/>
-      <c r="G261" s="9"/>
+      <c r="G261" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="H261" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I261" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
     </row>
     <row r="262" ht="22.5" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="B262" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Atropos,  (-)</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="15"/>
       <c r="F262" s="16"/>
-      <c r="G262" s="9"/>
+      <c r="G262" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="H262" s="3" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="I262" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J262" s="9"/>
       <c r="K262" s="9"/>
     </row>
     <row r="263" ht="22.5" customHeight="1">
       <c r="A263" s="3" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="B263" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Barbara von Nikomedien,  (-)</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="15"/>
       <c r="F263" s="16"/>
       <c r="G263" s="3" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="I263" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
     </row>
     <row r="264" ht="22.5" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="B264" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11457,13 +11557,13 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E264" s="15"/>
       <c r="F264" s="16"/>
       <c r="G264" s="9"/>
       <c r="H264" s="3" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="I264" s="13"/>
       <c r="J264" s="9"/>
@@ -11471,7 +11571,7 @@
     </row>
     <row r="265" ht="22.5" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B265" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11485,7 +11585,7 @@
       <c r="F265" s="16"/>
       <c r="G265" s="9"/>
       <c r="H265" s="3" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="I265" s="13"/>
       <c r="J265" s="9"/>
@@ -11493,21 +11593,21 @@
     </row>
     <row r="266" ht="22.5" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="B266" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Karl,  (-)</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="15"/>
       <c r="F266" s="16"/>
       <c r="G266" s="9"/>
       <c r="H266" s="3" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="I266" s="7" t="s">
         <v>16</v>
@@ -11517,21 +11617,21 @@
     </row>
     <row r="267" ht="22.5" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="B267" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Duraeum,  (-)</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="15"/>
       <c r="F267" s="16"/>
       <c r="G267" s="9"/>
       <c r="H267" s="3" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="I267" s="13"/>
       <c r="J267" s="9"/>
@@ -11539,69 +11639,79 @@
     </row>
     <row r="268" ht="22.5" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="B268" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>von Zesen,  (-)</v>
+        <v>Zesen, Philipp von (1619-1689)</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="D268" s="3"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="9"/>
+        <v>912</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E268" s="5">
+        <v>1619.0</v>
+      </c>
+      <c r="F268" s="5">
+        <v>1689.0</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>914</v>
+      </c>
       <c r="H268" s="3"/>
-      <c r="I268" s="13"/>
+      <c r="I268" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
     </row>
     <row r="269" ht="22.5" customHeight="1">
       <c r="A269" s="3" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="B269" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Lucretia,  (-)</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="15"/>
       <c r="F269" s="16"/>
       <c r="G269" s="3" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="I269" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
     </row>
     <row r="270" ht="22.5" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="B270" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ovid,  (-)</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="15"/>
       <c r="F270" s="16"/>
       <c r="G270" s="3" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="I270" s="7" t="s">
         <v>16</v>
@@ -11611,7 +11721,7 @@
     </row>
     <row r="271" ht="22.5" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="B271" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11629,7 +11739,7 @@
     </row>
     <row r="272" ht="22.5" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="B272" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11647,7 +11757,7 @@
     </row>
     <row r="273" ht="22.5" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="B273" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11665,7 +11775,7 @@
     </row>
     <row r="274" ht="22.5" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="B274" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11683,7 +11793,7 @@
     </row>
     <row r="275" ht="22.5" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="B275" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11701,7 +11811,7 @@
     </row>
     <row r="276" ht="22.5" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="B276" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11719,7 +11829,7 @@
     </row>
     <row r="277" ht="22.5" customHeight="1">
       <c r="A277" s="3" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="B277" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11737,7 +11847,7 @@
     </row>
     <row r="278" ht="22.5" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="B278" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11755,7 +11865,7 @@
     </row>
     <row r="279" ht="22.5" customHeight="1">
       <c r="A279" s="3" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="B279" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11773,7 +11883,7 @@
     </row>
     <row r="280" ht="22.5" customHeight="1">
       <c r="A280" s="3" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="B280" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11861,16 +11971,16 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -11881,90 +11991,90 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B102" si="1">CONCATENATE(C2)</f>
         <v>Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Basel</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="B4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eidgenossenschaft</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Limmat</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Weinfelden</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="13"/>
@@ -11972,82 +12082,82 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Main (Fluss)</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zürichsee</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thalwil</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="B10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bern</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gottstatt</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -12055,14 +12165,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thorberg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="13"/>
@@ -12070,14 +12180,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>London</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="13"/>
@@ -12085,14 +12195,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>England</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="13"/>
@@ -12100,52 +12210,52 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bethlehem</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Parnass (Berg)</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="7" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Traubenberg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="13"/>
@@ -12153,50 +12263,50 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Babylon</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Canaan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ägypten</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="13"/>
@@ -12204,158 +12314,158 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hermon</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="7" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jerusalem</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F22" s="9"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>972</v>
+        <v>992</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Jordan</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>975</v>
+        <v>995</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rotes Meer</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Juda</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Moab</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ammon</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Zion</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="7" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Assur</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="13"/>
@@ -12363,101 +12473,101 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
       <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Israel</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Nazaret</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="7" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rom</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="13"/>
       <c r="F32" s="3" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Samaria</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="13"/>
       <c r="F33" s="3" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kedronbach</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Garten von Getsemani</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="13"/>
@@ -12465,14 +12575,14 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Urdorf</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="13"/>
@@ -12480,14 +12590,14 @@
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Geiren-Rein</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="13"/>
@@ -12495,14 +12605,14 @@
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeügst</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="13"/>
@@ -12510,14 +12620,14 @@
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Riedt</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="13"/>
@@ -12525,14 +12635,14 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Europa</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="13"/>
@@ -12540,48 +12650,48 @@
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Osir</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="13"/>
       <c r="F41" s="3" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Basadingen</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Diessenhofen</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="13"/>
@@ -12589,50 +12699,50 @@
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Rhein</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Arabisches Reich</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Libanon</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="13"/>
@@ -12640,101 +12750,101 @@
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Emmaus</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Helikon</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Pindos</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Neckar</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="7" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kurpfalz</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Eglisau</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="13"/>
@@ -12742,14 +12852,14 @@
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altenklingen</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="13"/>
@@ -12757,14 +12867,14 @@
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altorff</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="13"/>
@@ -12772,31 +12882,31 @@
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Glarus</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="13"/>
       <c r="F55" s="3" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bergerkirche</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1057</v>
+        <v>1077</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="13"/>
@@ -12804,31 +12914,31 @@
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sodom</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>1060</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Haus zur Sonnenblume</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="13"/>
@@ -12836,31 +12946,31 @@
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurn/ genennt von Geissen</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Constantinopel</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="13"/>
@@ -12868,118 +12978,118 @@
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Stein am Rhein</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
       <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Marburg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1072</v>
+        <v>1092</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Elbląg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1076</v>
+        <v>1096</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
-        <v>1077</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Preußen</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Baden</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="13"/>
       <c r="F65" s="3" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bad Schinznach</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Gyrenbad</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="13"/>
@@ -12987,48 +13097,48 @@
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wängibad</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="13"/>
       <c r="F68" s="8" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1091</v>
+        <v>1111</v>
       </c>
       <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Aeugst</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1092</v>
+        <v>1112</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1093</v>
+        <v>1113</v>
       </c>
       <c r="B70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Bassersdorf</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1094</v>
+        <v>1114</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="13"/>
@@ -13036,14 +13146,14 @@
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="B71" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Hauptwil</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="13"/>
@@ -13051,14 +13161,14 @@
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="B72" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Schaffhausen</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1098</v>
+        <v>1118</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="13"/>
@@ -13066,65 +13176,65 @@
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="B73" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wädenswil</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="B74" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Freie Ämter</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="13"/>
       <c r="F74" s="3" t="s">
-        <v>1104</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="B75" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Grüningen</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>1107</v>
+        <v>1127</v>
       </c>
       <c r="B76" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kefikon</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1108</v>
+        <v>1128</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="13"/>
@@ -13132,14 +13242,14 @@
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>1109</v>
+        <v>1129</v>
       </c>
       <c r="B77" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maienfeld</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="13"/>
@@ -13147,14 +13257,14 @@
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>1111</v>
+        <v>1131</v>
       </c>
       <c r="B78" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Greifensee (Schloss)</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1112</v>
+        <v>1132</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="13"/>
@@ -13162,31 +13272,31 @@
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="B79" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Lindenhof (Zürich)</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1114</v>
+        <v>1134</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="13"/>
       <c r="F79" s="3" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>1116</v>
+        <v>1136</v>
       </c>
       <c r="B80" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Galg-Brunnen (Zürich)</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1117</v>
+        <v>1137</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="13"/>
@@ -13194,14 +13304,14 @@
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>1118</v>
+        <v>1138</v>
       </c>
       <c r="B81" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Altes Kornhaus (Zürich)</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1119</v>
+        <v>1139</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="13"/>
@@ -13209,14 +13319,14 @@
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B82" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Sparrenberg (Zürich)</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="13"/>
@@ -13224,14 +13334,14 @@
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="B83" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Thurgau</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1123</v>
+        <v>1143</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="13"/>
@@ -13239,14 +13349,14 @@
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>1124</v>
+        <v>1144</v>
       </c>
       <c r="B84" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Niederlande</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" s="13"/>
@@ -13254,31 +13364,31 @@
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
       <c r="B85" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Holland</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="13"/>
       <c r="F85" s="3" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>1129</v>
+        <v>1149</v>
       </c>
       <c r="B86" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wigoltingen</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="13"/>
@@ -13286,31 +13396,31 @@
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>1131</v>
+        <v>1151</v>
       </c>
       <c r="B87" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Kastalia</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1132</v>
+        <v>1152</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="13"/>
       <c r="F87" s="3" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>1134</v>
+        <v>1154</v>
       </c>
       <c r="B88" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Legerberg</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1135</v>
+        <v>1155</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="13"/>
@@ -13318,48 +13428,48 @@
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>1136</v>
+        <v>1156</v>
       </c>
       <c r="B89" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Texel</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1137</v>
+        <v>1157</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="13"/>
       <c r="F89" s="3" t="s">
-        <v>1138</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>1139</v>
+        <v>1159</v>
       </c>
       <c r="B90" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Vlie</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1140</v>
+        <v>1160</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="13"/>
       <c r="F90" s="3" t="s">
-        <v>1141</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>1142</v>
+        <v>1162</v>
       </c>
       <c r="B91" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Indien</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1143</v>
+        <v>1163</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="13"/>
@@ -13367,14 +13477,14 @@
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>1144</v>
+        <v>1164</v>
       </c>
       <c r="B92" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Wien</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1145</v>
+        <v>1165</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="13"/>
@@ -13382,14 +13492,14 @@
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>1146</v>
+        <v>1166</v>
       </c>
       <c r="B93" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Deutschland</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1147</v>
+        <v>1167</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="13"/>
@@ -13397,24 +13507,24 @@
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>1148</v>
+        <v>1168</v>
       </c>
       <c r="B94" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Ölberg</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1149</v>
+        <v>1169</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="7" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="B95" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13427,7 +13537,7 @@
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>1151</v>
+        <v>1171</v>
       </c>
       <c r="B96" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13440,7 +13550,7 @@
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>1152</v>
+        <v>1172</v>
       </c>
       <c r="B97" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13453,7 +13563,7 @@
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>1153</v>
+        <v>1173</v>
       </c>
       <c r="B98" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13466,7 +13576,7 @@
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>1154</v>
+        <v>1174</v>
       </c>
       <c r="B99" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13479,7 +13589,7 @@
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>1155</v>
+        <v>1175</v>
       </c>
       <c r="B100" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13492,7 +13602,7 @@
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>1156</v>
+        <v>1176</v>
       </c>
       <c r="B101" s="22" t="str">
         <f t="shared" si="1"/>
@@ -13557,25 +13667,25 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1157</v>
+        <v>1177</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1158</v>
+        <v>1178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1159</v>
+        <v>1179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1162</v>
+        <v>1182</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -13586,67 +13696,67 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B30" si="1">CONCATENATE(C2)</f>
         <v>Teutsche Gedichte</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1164</v>
+        <v>1184</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1165</v>
+        <v>1185</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1166</v>
+        <v>1186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1168</v>
+        <v>1188</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1169</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Die Krafft der Gottseligkeit</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von Festen</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
@@ -13656,23 +13766,23 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Der Psalter dess Königlichen Propheten Dauids/ Jn deutsche reymen verstendiglich vnd deutlich gebracht/ mit vorgehender anzeigung der reymen weise/ auch eines jeden Psalmes Jnhalt</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1176</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1177</v>
+        <v>1197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1178</v>
+        <v>1198</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1179</v>
+        <v>1199</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
@@ -13680,43 +13790,43 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Hundert christliche Fäst-Predigen</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1181</v>
+        <v>1201</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1182</v>
+        <v>1202</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1183</v>
+        <v>1203</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1184</v>
+        <v>1204</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1185</v>
+        <v>1205</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Lehr- und trostreiche Predigen vom verlohrnen Sohn</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1186</v>
+        <v>1206</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1187</v>
+        <v>1207</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="23"/>
@@ -13726,17 +13836,17 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1188</v>
+        <v>1208</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>verteütschte Rueh- oder Fridens-uebung</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1189</v>
+        <v>1209</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="23"/>
@@ -13746,17 +13856,17 @@
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1191</v>
+        <v>1211</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Nähefelser-Fahrt-Predigen</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1193</v>
+        <v>1213</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="23"/>
@@ -13766,17 +13876,17 @@
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1194</v>
+        <v>1214</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kinder-lehr</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1195</v>
+        <v>1215</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="23"/>
@@ -13786,17 +13896,17 @@
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>neüaußgangenes Buech vom Vestungsbau</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1198</v>
+        <v>1218</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="23"/>
@@ -13806,14 +13916,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buech der Freunden Stammen</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1201</v>
+        <v>1221</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="9"/>
@@ -13824,17 +13934,17 @@
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1202</v>
+        <v>1222</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Christen-spiegel</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1203</v>
+        <v>1223</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="23"/>
@@ -13844,14 +13954,14 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1205</v>
+        <v>1225</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Viergeticht</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1206</v>
+        <v>1226</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="9"/>
@@ -13862,14 +13972,14 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1207</v>
+        <v>1227</v>
       </c>
       <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Regentenspiegel</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1208</v>
+        <v>1228</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="9"/>
@@ -13880,18 +13990,18 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Türckischer Jammerspiegel</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="3" t="s">
-        <v>1211</v>
+        <v>1231</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="9"/>
@@ -13900,17 +14010,17 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1212</v>
+        <v>1232</v>
       </c>
       <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Leitungs-faden</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1213</v>
+        <v>1233</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="23"/>
@@ -13920,17 +14030,17 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1214</v>
+        <v>1234</v>
       </c>
       <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch von der Seelen-angſt Chriſti</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1215</v>
+        <v>1235</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="23"/>
@@ -13940,17 +14050,17 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1217</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Verſuchungs-gabe</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="23"/>
@@ -13960,14 +14070,14 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kriegsbüchlin</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
@@ -13978,14 +14088,14 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="B21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Buch der Psalmen</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
@@ -13996,7 +14106,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="B22" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14012,7 +14122,7 @@
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="B23" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14028,7 +14138,7 @@
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1226</v>
+        <v>1246</v>
       </c>
       <c r="B24" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14044,7 +14154,7 @@
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="B25" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14060,7 +14170,7 @@
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>1228</v>
+        <v>1248</v>
       </c>
       <c r="B26" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14076,7 +14186,7 @@
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="B27" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14092,7 +14202,7 @@
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="B28" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14108,7 +14218,7 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1231</v>
+        <v>1251</v>
       </c>
       <c r="B29" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14124,7 +14234,7 @@
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1232</v>
+        <v>1252</v>
       </c>
       <c r="B30" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14174,19 +14284,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1233</v>
+        <v>1253</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -14194,69 +14304,69 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1235</v>
+        <v>1255</v>
       </c>
       <c r="B2" s="24" t="str">
         <f t="shared" ref="B2:B24" si="1">CONCATENATE(C2)</f>
         <v>Rat Zürich</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1236</v>
+        <v>1256</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="26" t="s">
-        <v>1237</v>
+        <v>1257</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1238</v>
+        <v>1258</v>
       </c>
       <c r="B3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fruchtbringende Gesellschaft</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1239</v>
+        <v>1259</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1240</v>
+        <v>1260</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>1241</v>
+        <v>1261</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1243</v>
+        <v>1263</v>
       </c>
       <c r="B4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Deutschgesinnte Genossenschaft (Lilien-Zunft)</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1244</v>
+        <v>1264</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1245</v>
+        <v>1265</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1246</v>
+        <v>1266</v>
       </c>
       <c r="B5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Parthenicum</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1247</v>
+        <v>1267</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -14264,103 +14374,103 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1248</v>
+        <v>1268</v>
       </c>
       <c r="B6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Collegium Carolinum</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1249</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1250</v>
+        <v>1270</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1251</v>
+        <v>1271</v>
       </c>
       <c r="B7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Sanhedrin</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="B8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Stadtbibliothek Zürich</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="B9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Grossmünster</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1258</v>
+        <v>1278</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1259</v>
+        <v>1279</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3" t="s">
-        <v>1260</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="B10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Fraumünster</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1262</v>
+        <v>1282</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1263</v>
+        <v>1283</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
-        <v>1264</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1265</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Hohe Schule Marburg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1266</v>
+        <v>1286</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13"/>
@@ -14368,24 +14478,24 @@
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="B12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Kartäuser</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14398,7 +14508,7 @@
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1271</v>
+        <v>1291</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14411,7 +14521,7 @@
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
       <c r="B15" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14424,7 +14534,7 @@
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1273</v>
+        <v>1293</v>
       </c>
       <c r="B16" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14437,7 +14547,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1274</v>
+        <v>1294</v>
       </c>
       <c r="B17" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14450,7 +14560,7 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1275</v>
+        <v>1295</v>
       </c>
       <c r="B18" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14463,7 +14573,7 @@
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1276</v>
+        <v>1296</v>
       </c>
       <c r="B19" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14476,7 +14586,7 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
       <c r="B20" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14489,7 +14599,7 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="B21" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14502,7 +14612,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="B22" s="24" t="str">
         <f t="shared" si="1"/>
@@ -14571,19 +14681,19 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -14591,26 +14701,26 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="B2" s="21" t="str">
         <f t="shared" ref="B2:B8" si="1">CONCATENATE(C2)</f>
         <v>Runs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1288</v>
+        <v>1308</v>
       </c>
       <c r="B3" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14623,7 +14733,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="B4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14636,7 +14746,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="B5" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14649,7 +14759,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1291</v>
+        <v>1311</v>
       </c>
       <c r="B6" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14662,7 +14772,7 @@
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
       <c r="B7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -14675,7 +14785,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
       <c r="B8" s="21" t="str">
         <f t="shared" si="1"/>
